--- a/lionsgate_library.xlsx
+++ b/lionsgate_library.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W422"/>
+  <dimension ref="A1:X422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,6 +549,11 @@
           <t>programme_url</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>need</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -634,6 +639,11 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>"The Ex" (2006) meets viewer desires for light romantic comedy entertainment, workplace humor, and schadenfreude through its premise of a man dealing with a manipulative colleague while navigating career struggles and relationship pressures. It offers escapist comedy about relatable workplace conflicts and marital challenges, appealing to audiences seeking uncomplicated, feel-good entertainment with familiar comedic actors.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -711,6 +721,11 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>"The Last Hand" is a 2008 Western drama that meets viewers' desires for classic frontier storytelling, exploring themes of redemption, mortality, and second chances. It appeals to audiences seeking character-driven narratives about an aging gambler facing his past mistakes while confronting his own death. The film satisfies needs for contemplative Westerns that focus on personal reckoning rather than action, offering emotional depth and examination of legacy and forgiveness in a dying Old West setting.</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -796,6 +811,21 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Buffalo '66
+**Buffalo '66** satisfies viewers seeking:
+- **Authentic emotional rawness** - The film doesn't sugar-coat loneliness, family dysfunction, or social alienation
+- **Unconventional romance** - A twisted yet genuine love story that defies traditional romantic narratives
+- **Visual distinctiveness** - Vincent Gallo's unique directorial style with creative cinematography and color grading
+- **Dark humor** - Uncomfortable comedy arising from Billy's dysfunction and awkward situations
+- **Outsider identification** - Appeals to those who feel marginalized or misunderstood by society
+- **Cathartic redemption** - Despite its darkness, offers hope through human connection and acceptance
+- **Indie/auteur filmmaking** - For audiences appreciating singular artistic visions over commercial polish
+- **Character study depth** - Complex psychological portrait of damaged individuals seeking connection
+The film resonates with viewers who appreciate melancholic, character-driven stories about broken people finding unexpected salvation.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -881,6 +911,11 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>"Affliction" meets viewers' desires for intense psychological drama and character study. It appeals to those seeking exploration of generational trauma, toxic masculinity, and the cycle of abuse in small-town America. The film satisfies audiences interested in raw, unflinching performances (particularly Nick Nolte's portrayal of a man's descent), serious adult themes, and atmospheric noir-inflected storytelling that prioritizes character depth over plot mechanics.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -958,6 +993,11 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>"Serial Killing 101" (also known as "Serial Killing 4 Dummys") is a dark comedy that appeals to viewers interested in satire of true crime culture, dark humor about taboo subjects, and subversive takes on the serial killer genre. It meets desires for transgressive comedy, meta-commentary on society's fascination with serial killers, and low-budget indie filmmaking that challenges mainstream sensibilities through its mockumentary style and intentionally provocative premise.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1023,6 +1063,11 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Raising the Heights" in my knowledge base. Without details about this specific film, I cannot accurately describe what viewer desires or needs it meets. This may be a lesser-known, independent, or recent film that isn't widely documented, or the title may be slightly different from what I'm familiar with.</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1108,6 +1153,11 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>"Sometimes They Come Back... for More" appeals to viewers seeking low-budget horror thrills with a military/Antarctic isolation setting. It satisfies desires for supernatural suspense, demonic possession themes, and B-movie creature effects. The film attracts fans of the "Sometimes They Come Back" franchise and those who enjoy straightforward, formulaic horror without complex narratives—offering escapist entertainment through familiar genre tropes of good versus evil in a confined, atmospheric location.</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1193,6 +1243,11 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>"The Minus Man" meets viewers' desires for psychological complexity and ambiguity, offering a chilling character study of a soft-spoken serial killer that explores the banality of evil. It appeals to those seeking unconventional thriller narratives without gratuitous violence, instead providing unsettling introspection into a disturbed mind. The film satisfies audiences interested in morally ambiguous protagonists and atmospheric tension over conventional action, while raising questions about identity, isolation, and the hidden darkness in ordinary people.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1278,6 +1333,13 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires and Needs Met by Dogma
+**Dogma** (1999) satisfies several viewer desires:
+1. **Intellectual stimulation** - The film engages audiences who enjoy questioning religious doctrine and exploring theological paradoxes through clever, thought-provoking humor. 2. **Irreverent comedy** - It appeals to viewers seeking bold, taboo-breaking satire that challenges sacred institutions while remaining entertaining. 3. **Action and adventure** - The plot provides excitement through its apocalyptic stakes and fantastical elements for those wanting genre entertainment. 4. **Philosophical exploration** - It meets the need for media that wrestles with faith, doubt, and the nature of belief without providing easy answers. 5. **Kevin Smith fandom** - The film serves fans of Smith's View Askewniverse with familiar characters and his signature dialogue style. 6. **Validation of doubt** - It resonates with viewers who struggle with organized religion, offering permission to question while not rejecting spirituality entirely.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1359,6 +1421,19 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t># Summary
+*Beyond the Mat* meets viewer desires for:
+1. **Behind-the-scenes access** - Revealing the hidden reality of professional wrestling beyond its staged performances
+2. **Human drama** - Exploring the personal struggles, sacrifices, and physical toll wrestlers endure
+3. **Authenticity** - Stripping away the illusion to show real pain, family conflicts, and career challenges
+4. **Insider knowledge** - Satisfying curiosity about how the wrestling industry actually operates
+5. **Emotional connection** - Creating empathy by humanizing performers often seen only as characters
+6. **Voyeuristic appeal** - Offering intimate access to private moments of public figures
+The documentary appeals to both wrestling fans seeking truth about their favorite sport and general audiences interested in compelling character-driven stories about dedication and sacrifice.</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1444,6 +1519,13 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by American Psycho
+**American Psycho** satisfies several viewer needs:
+**Social Commentary &amp; Critique** - Appeals to audiences seeking satirical examination of 1980s consumerism, materialism, and yuppie culture. **Dark Humor** - Provides shock value and transgressive comedy for those who enjoy provocative, boundary-pushing entertainment. **Psychological Intrigue** - Engages viewers interested in unreliable narrators and ambiguous reality, offering interpretive complexity. **Aesthetic Pleasure** - Delivers meticulous period detail, fashion, and design for those who appreciate visual style and 80s nostalgia. **Cathartic Violence** - Offers vicarious release through extreme content in a safely fictional context. **Cultural Literacy** - Allows viewers to engage with a cult classic that has become culturally significant and widely referenced. The film primarily attracts audiences seeking intelligent horror-satire that critiques capitalism while entertaining through its excessive, darkly comic approach.</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1529,6 +1611,12 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t># Summary
+*Leprechaun in the Hood* (2000) meets viewer desires for campy horror-comedy entertainment, offering absurdist humor, over-the-top violence, and self-aware B-movie charm. It appeals to fans seeking low-budget cult films that don't take themselves seriously, providing escapist fun through outrageous scenarios mixing hip-hop culture with slasher elements. The film satisfies cravings for "so bad it's good" entertainment, nostalgia for 90s direct-to-video horror, and the guilty pleasure of watching ridiculous premises executed with commitment. It also offers social commentary through satire, albeit crude, on commercialization of hip-hop and the music industry.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1610,6 +1698,13 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Hide and Seek"
+The film "Hide and Seek" (2005) satisfies several key viewer desires:
+**Psychological Thriller Appeal**: Provides suspense, mystery, and plot twists that keep audiences guessing about the identity of "Charlie" and the true nature of events. **Twist Ending Gratification**: Delivers a significant reveal that recontextualizes the entire narrative, appealing to viewers who enjoy being surprised and mentally engaged. **Dark Atmosphere**: Offers a creepy, unsettling mood through gothic visuals and tension, satisfying horror-adjacent thriller fans. **Parental Fear Exploration**: Taps into anxieties about child safety, trauma, and the limits of parental protection after loss. **Performance Showcase**: Features Robert De Niro and Dakota Fanning in intense dramatic roles, appealing to fans of actor-driven cinema. **Escapist Entertainment**: Provides a self-contained mystery that offers distraction and engagement for ~100 minutes without requiring prior knowledge or significant intellectual commitment.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1695,6 +1790,18 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t># Summary
+**100 Girls** (2000) meets viewer desires for lighthearted romantic escapism and wish-fulfillment fantasy. The film appeals to audiences seeking:
+- **Mystery and intrigue** through its central premise of a college student searching for a mysterious girl he met in a stuck elevator
+- **Romantic comedy entertainment** with humor, quirky situations, and eventual love connection
+- **Coming-of-age relatability** as the protagonist navigates college life and relationships
+- **Male fantasy fulfillment** through the premise of living in a female dormitory and interacting with numerous women
+- **Feel-good resolution** with optimistic messages about fate, persistence, and finding true love
+The film primarily targets young adult audiences looking for an uncomplicated, fun romantic comedy with elements of teenage wish-fulfillment.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1772,6 +1879,11 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>"Lion of Oz" meets viewers' desires for family-friendly entertainment, nostalgia for the classic Oz universe, simple moral lessons about courage and friendship, colorful animation suitable for young children, and a safe, predictable adventure story with a positive message and happy ending.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1849,6 +1961,11 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>"The Opponent" meets viewers' desires for inspirational underdog stories, showcasing themes of redemption, perseverance, and overcoming personal struggles. The film appeals to those who enjoy sports dramas, particularly boxing narratives, while addressing deeper emotional needs through its portrayal of a flawed protagonist seeking second chances and personal transformation. It satisfies audiences looking for gritty, character-driven stories about resilience in the face of adversity.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1914,6 +2031,11 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film titled "Women in Film" to provide an accurate summary of what viewer desires or needs it meets. If you're referring to a documentary or specific film about women's roles in cinema, please provide more details such as the release year or director, and I can offer a more helpful response.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1999,6 +2121,11 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>The film "Bully" (2001) meets viewers' desires for unflinching, provocative cinema that explores dark aspects of human nature. It satisfies those interested in true crime stories, as it's based on the real murder of Bobby Kent. The film appeals to audiences seeking controversial content that examines youth violence, moral ambiguity, and suburban dysfunction without romanticizing or sanitizing the subject matter. It also attracts viewers interested in Larry Clark's transgressive filmmaking style and those wanting to examine how group dynamics and abuse can escalate to extreme violence.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2084,6 +2211,19 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Cabin Pressure"
+**Note:** "Cabin Pressure" is primarily known as a BBC Radio 4 sitcom (2008-2014), not a film. If you're referring to this series:
+The show meets viewers' desires for:
+- **Clever, wordplay-driven comedy** with witty dialogue and verbal games
+- **Escapist entertainment** set in the quirky world of a small charter airline
+- **Character-driven humor** featuring lovable misfits and their relationships
+- **Comfort viewing** with warm, feel-good storylines despite setbacks
+- **Intelligence and heart** balancing sophisticated humor with genuine emotion
+If you're referring to a different film titled "Cabin Pressure," please note that information may vary.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2161,6 +2301,11 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>"All Over the Guy" (2001) meets viewer desires for romantic comedy with LGBTQ+ representation, offering a relatable story about modern dating, relationship anxieties, and finding love despite personal baggage. It satisfies needs for lighthearted entertainment that validates queer experiences, explores neurotic but endearing characters, and provides both humor and emotional resonance for audiences seeking gay-themed rom-coms with mainstream appeal.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2210,6 +2355,11 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>"Christy: A Change of Seasons" meets viewers' desires for wholesome family entertainment, inspirational storytelling, and nostalgic continuation of the beloved "Christy" TV series. The film appeals to audiences seeking uplifting moral messages, clean romance, faith-based content, and stories about personal growth and community values set in historical Appalachia. It satisfies fans' longing to revisit familiar characters and resolve storylines from the original series.</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2295,6 +2445,13 @@
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by the Film "O"
+The film "O" (2001), a modern adaptation of Shakespeare's "Othello" set in a high school, meets several viewer desires:
+**Drama and Conflict**: Viewers seeking intense emotional drama find satisfaction in the film's exploration of jealousy, betrayal, and manipulation among teenagers. **Contemporary Relevance**: The adaptation translates classic themes of racism, insecurity, and toxic relationships into a modern American setting that resonates with younger audiences. **Forbidden/Controversial Content**: The film addresses taboo subjects like interracial relationships, sexual manipulation, and teen violence, appealing to viewers interested in edgy, provocative material. **Psychological Thriller Elements**: The slow psychological unraveling of the protagonist satisfies audiences who enjoy watching complex character deterioration and manipulation. **Social Commentary**: The film meets the desire for narratives that explore racial tensions, social hierarchies, and the darker aspects of competitive environments like sports culture. **Tragic Romance**: Viewers drawn to doomed love stories find the tragic relationship at the film's core emotionally compelling.</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2368,6 +2525,11 @@
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>"One Eyed King" meets viewers' desires for gritty crime drama, exploring themes of loyalty, survival, and moral ambiguity in the criminal underworld. It appeals to those seeking intense character-driven narratives about brotherhood, redemption, and the consequences of violence, while satisfying audiences interested in underground fight culture and the complexities of choosing between family bonds and personal ethics.</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2453,6 +2615,19 @@
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Vidocq
+**Vidocq** (2001) satisfies viewers seeking:
+- **Visual innovation**: As the first theatrical film shot entirely with digital cameras, it offers a distinctive, stylized aesthetic with golden-tinted cinematography and experimental visual effects
+- **Mystery and detective thrills**: A compelling murder investigation centered on the legendary French detective Vidocq pursuing a masked killer
+- **Dark atmosphere**: Gothic, noir-influenced period setting in 19th-century Paris with occult and supernatural elements
+- **Action and spectacle**: Sword fights, chase sequences, and fantasy action sequences
+- **Historical intrigue**: Fictionalized adaptation of real historical figure Eugène François Vidocq, offering period drama appeal
+- **Genre blending**: Combines mystery, horror, fantasy, and steampunk elements for audiences who enjoy hybrid genres
+The film appeals to those wanting visually ambitious, atmospheric entertainment with mystery-thriller storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2538,6 +2713,19 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t># The Cat's Meow: Viewer Desires Met
+**The Cat's Meow** (2001) satisfies viewers seeking:
+- **Historical intrigue** - Explores the mysterious 1924 death aboard William Randolph Hearst's yacht
+- **Golden Age Hollywood glamour** - Depicts celebrities like Charlie Chaplin and Marion Davies in their prime
+- **Mystery and scandal** - Offers a dramatized solution to an unsolved real-life incident
+- **Period drama aesthetics** - Delivers lush 1920s costumes, settings, and atmosphere
+- **Backstage Hollywood stories** - Reveals the power dynamics, affairs, and secrets of early cinema's elite
+- **Character-driven narrative** - Features strong performances exploring jealousy, ambition, and betrayal among the wealthy and famous
+The film appeals to those interested in Old Hollywood history, murder mysteries, and the hidden lives of iconic figures.</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2619,6 +2807,11 @@
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>"Two Degrees" meets viewers' desires for environmental awareness and climate change education by dramatizing the potential consequences of global temperature rise. It fulfills needs for urgent storytelling about sustainability, scientific literacy regarding climate impacts, and motivation for environmental action. The film appeals to those seeking thought-provoking content about humanity's future and our relationship with the planet.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2704,6 +2897,18 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by "The Wash"
+"The Wash" (2001) appeals to fans of hip-hop culture and comedy by featuring popular rap artists Dr. Dre and Snoop Dogg in lead roles. The film satisfies desires for:
+- **Light escapist entertainment** through buddy comedy and slapstick humor
+- **Hip-hop cultural representation** showcasing West Coast rap personalities and music
+- **Relatable workplace comedy** about blue-collar employees at a car wash
+- **Fan service** for followers of Death Row Records and aftermath-era rap artists
+- **Nostalgia** for early 2000s urban comedy aesthetics and soundtrack-driven films
+The movie provides uncomplicated, feel-good entertainment without demanding deep engagement, targeting audiences seeking casual comedy with familiar music industry personalities.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2789,6 +2994,13 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Monster's Ball
+**Monster's Ball** fulfills several key viewer needs:
+**Emotional catharsis** - The film provides a profound emotional release through its exploration of grief, loneliness, and redemption. **Complex character study** - Viewers seeking depth appreciate watching flawed, prejudiced characters undergo genuine transformation and growth. **Raw authenticity** - The unflinching portrayal of difficult subjects like racism, loss, and human connection appeals to audiences wanting honest, adult drama. **Powerful performances** - The film satisfies appreciation for exceptional acting, particularly Halle Berry's Oscar-winning performance. **Social commentary** - It addresses racial tensions and systemic issues, meeting the need for thought-provoking content about American society. **Hope and redemption** - Despite its darkness, the film offers the possibility of healing and human connection across seemingly insurmountable divides.</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2842,6 +3054,11 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>"Christy - A New Beginning" meets viewers' desires for inspirational drama, romantic storylines, and wholesome family entertainment. The film appeals to those seeking stories about personal growth, faith-based values, and overcoming challenges in a historical setting. It satisfies fans of the original "Christy" series who wanted continuation of the beloved characters' journeys, while also providing nostalgia and comfort through its portrayal of a dedicated teacher making a difference in an Appalachian community during the early 1900s.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2923,6 +3140,11 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>"Narc" meets viewers' desires for gritty, realistic crime drama with morally complex characters. It satisfies needs for intense psychological tension, authentic police procedural storytelling, and exploration of themes like corruption, loyalty, and the personal costs of undercover work. The film appeals to those seeking dark, visceral cinema with strong performances and ambiguous morality rather than clear-cut heroes and villains.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3008,6 +3230,17 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t># Summary
+**Frailty** (2001) meets viewer desires for psychological horror and moral ambiguity by exploring whether a father who claims to receive divine visions to kill "demons" is genuinely inspired by God or dangerously insane. The film satisfies audiences seeking:
+- **Supernatural mystery** - Is the father truly doing God's work or suffering from delusion? - **Psychological tension** - The unsettling dynamic between the father and his two sons who react differently to his mission
+- **Twist endings** - A shocking revelation that recontextualizes the entire narrative
+- **Moral complexity** - Challenging questions about faith, justice, and the nature of evil
+- **Atmospheric dread** - Slow-burn suspense rather than jump scares
+The film appeals to viewers who enjoy thoughtful horror that blurs the line between religious faith and madness, leaving them questioning their own assumptions about truth and morality.</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3093,6 +3326,13 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Are Met by the Film *Frida*
+The film *Frida* (2002) meets several viewer desires and needs:
+**Artistic inspiration and visual beauty** - The film's vibrant cinematography and recreation of Frida Kahlo's surrealist paintings satisfy viewers' desire for aesthetic pleasure and creative stimulation. **Biographical curiosity** - It fulfills interest in learning about the life of an iconic artist, particularly her tumultuous relationship with Diego Rivera and her physical suffering. **Emotional catharsis** - Viewers experience deep emotional engagement through Frida's pain, passion, and resilience in the face of physical disability and personal betrayal. **Representation and empowerment** - The film meets needs for seeing a strong, unconventional female protagonist who defied social norms regarding gender, sexuality, and physical ability. **Cultural appreciation** - It satisfies interest in Mexican culture, art history, and the revolutionary period of early 20th-century Mexico. **Inspiration through adversity** - Viewers find motivation in Frida's transformation of suffering into artistic triumph, meeting needs for hope and</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3178,6 +3418,11 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>"The Rules of Attraction" appeals to viewers seeking a darkly satirical exploration of college life, casual relationships, and youth hedonism. The film satisfies desires for provocative, non-linear storytelling, morally ambiguous characters, and unflinching portrayals of sex, drugs, and emotional disconnection among privileged young adults. It attracts audiences interested in stylish, experimental filmmaking and cynical commentary on superficiality and the search for meaning in a morally hollow environment.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3263,6 +3508,13 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t># Summary
+The film "Confidence" (2003) meets viewer desires for:
+**Escapism and thrills** - The intricate con artist plot provides excitement and tension as audiences watch elaborate schemes unfold. **Intellectual engagement** - Viewers enjoy piecing together the twists, reveals, and double-crosses in the complex narrative structure. **Wish fulfillment** - The film appeals to fantasies about outsmarting the system and living dangerously outside conventional society. **Stylish entertainment** - Slick cinematography, sharp dialogue, and charismatic performances (particularly Edward Burns and Dustin Hoffman) satisfy desires for cool, polished filmmaking. **Justice and comeuppance** - The story delivers satisfaction through revenge plots and criminals getting their due, fulfilling moral expectations despite the antihero protagonists.</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3344,6 +3596,11 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>"Student Seduction" appeals to viewers interested in Lifetime-style psychological thrillers featuring forbidden relationship dynamics, power imbalances, and cautionary tales. It satisfies desires for dramatic tension, moral conflict, and the voyeuristic intrigue of taboo scenarios, while also serving as a warning narrative about manipulation and obsession in educational settings.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3429,6 +3686,11 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>"Lucky 7" is a 2003 TV movie about a group of gas station workers who win the lottery, appealing to viewers' fantasies about sudden wealth and financial freedom. The film meets desires for escapism, wish-fulfillment, and exploring themes of loyalty, friendship, and how money affects relationships. It offers feel-good entertainment while examining moral choices when ordinary people experience life-changing fortune.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3514,6 +3776,17 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>**The Prince &amp; Me** meets viewer desires for:
+- **Romantic escapism**: A fairytale romance between an ordinary college student and a hidden prince
+- **Wish fulfillment**: The fantasy of being chosen by royalty and experiencing a glamorous, extraordinary life
+- **Class-crossing romance**: The appeal of love transcending social boundaries
+- **Transformation narrative**: Watching the heroine navigate between her ordinary world and royal expectations
+- **Feel-good entertainment**: A lighthearted, predictable romantic comedy with a happy ending
+- **Cultural curiosity**: A glimpse into royal life and traditions, even if fictionalized</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3599,6 +3872,12 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t># Summary
+*The Day After Tomorrow* meets viewer desires for spectacular disaster entertainment, featuring dramatic special effects of catastrophic weather events and global destruction. It satisfies the appeal of survival narratives where ordinary people face extraordinary circumstances, while also tapping into anxieties about climate change and environmental consequences. The film provides escapist entertainment through edge-of-your-seat action sequences, emotional family drama centered on a father's quest to save his son, and the cathartic experience of witnessing humanity unite against a common threat. It also offers the reassurance of human resilience and hope amid apocalyptic scenarios.</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3684,6 +3963,11 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>**Cube Zero** appeals to viewers who enjoy science fiction thrillers with psychological and philosophical elements. It satisfies desires for mystery and puzzle-solving as characters navigate deadly traps while uncovering the sinister purpose behind the Cube. The film meets needs for dystopian commentary on authority and dehumanization, offers visceral horror through creative death scenes, and provides the intellectual satisfaction of exploring themes about free will, institutional corruption, and moral choice. Fans of the Cube franchise also get backstory revealing the system's operators and origins.</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3769,6 +4053,11 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>"The Final Cut" (2004) meets viewers' desires for thought-provoking science fiction that explores themes of memory, identity, and mortality. It satisfies those interested in ethical dilemmas surrounding technology and surveillance, particularly the concept of recording one's entire life through implanted memory chips. The film appeals to audiences who enjoy cerebral thrillers with noir elements, Robin Williams in a dramatic role, and dystopian narratives that examine privacy, truth, and the malleability of personal history.</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3854,6 +4143,18 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t># Summary
+**Beyond the Sea** (2004), Kevin Spacey's biographical film about Bobby Darin, meets viewers' desires for:
+- **Musical nostalgia** - showcasing classic American standards and swing music from the 1950s-60s
+- **Inspirational biography** - depicting Darin's rise from poverty to stardom despite serious health challenges
+- **Romantic drama** - exploring his tumultuous relationship with Sandra Dee
+- **Artistic ambition** - offering a stylized, non-linear narrative with fantasy elements that appeals to cinephiles
+- **Emotional catharsis** - providing a poignant meditation on mortality, legacy, and unfulfilled dreams
+- **Performance showcase** - satisfying appreciation for Spacey's singing, acting, and directorial talents in a passion project</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3939,6 +4240,13 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Diary of a Mad Black Woman"
+**Diary of a Mad Black Woman** fulfills several key viewer needs:
+1. **Emotional catharsis** - The film allows audiences to experience and release feelings around betrayal, heartbreak, and recovery through the protagonist's journey. 2. **Justice and vindication** - Viewers see a wronged woman gain revenge and empowerment after her husband's infidelity and mistreatment. 3. **Inspirational redemption** - The story offers hope through themes of forgiveness, faith, and personal transformation. 4. **Cultural representation** - It provides Black audiences with relatable characters, family dynamics, and community experiences often underrepresented in mainstream cinema. 5. **Comic relief** - Madea's humor provides entertainment and lightens heavy dramatic themes. 6. **Romantic wish-fulfillment** - The film delivers a satisfying second-chance love story with a caring, supportive partner. 7. **Moral affirmation** - It reinforces values around faith, family, and the consequences of one's actions.</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4020,6 +4328,18 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "The Descent"
+"The Descent" (2005) satisfies viewers seeking intense psychological horror and claustrophobic thrills. It meets the desire for:
+- **Visceral fear and adrenaline** through its oppressive cave settings and creature horror
+- **Strong female characters** in a survival narrative led by an all-female cast
+- **Psychological depth** exploring grief, guilt, and fractured friendships
+- **Atmospheric tension** that builds dread before revealing monsters
+- **Primal survival scenarios** tapping into fears of darkness, confinement, and being hunted
+The film appeals to horror fans wanting both creature features and character-driven psychological terror.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4093,6 +4413,12 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t># Summary
+The film *American Psycho: From Book to Screen* meets viewers' desires for behind-the-scenes insight into the adaptation process, satisfying curiosity about how controversial source material was translated to film. It appeals to fans seeking deeper understanding of creative decisions, censorship challenges, and the cultural impact of transforming Bret Easton Ellis's provocative novel into a cinematic experience. The documentary fulfills intellectual interest in filmmaking craft while providing context for one of cinema's most divisive satirical works.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4178,6 +4504,18 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t># Summary
+**The Devil's Rejects** meets viewer desires for:
+- **Transgressive thrills** - The film satisfies audiences seeking boundary-pushing, taboo-breaking content that challenges social norms
+- **Visceral horror** - Delivers intense violence and shock value for fans of extreme genre experiences
+- **Outlaw fantasy** - Provides anti-establishment rebellion through charismatic villains who defy authority
+- **Stylistic gratification** - Offers grindhouse aesthetics, 1970s exploitation nostalgia, and Rob Zombie's distinctive visual/musical style
+- **Dark catharsis** - Allows viewers to vicariously experience darkness and violence in a safe, fictional context
+- **Cult identity** - Fulfills the need to belong to a niche fan community that appreciates controversial horror cinema</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4259,6 +4597,11 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>"Vampire Assassin" appeals to viewers seeking low-budget action-horror entertainment, combining martial arts fight sequences with vampire mythology. It satisfies desires for straightforward genre thrills, featuring a revenge-driven protagonist, supernatural elements, and combat choreography. The film caters to fans of direct-to-video B-movies who enjoy blending Eastern martial arts with Western horror tropes, offering unpretentious escapist entertainment without requiring significant intellectual investment.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4344,6 +4687,18 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Saw II
+**Saw II** satisfies several key audience desires:
+- **Puzzle-solving and intellectual engagement**: The film presents intricate traps and mysteries that viewers can attempt to solve alongside characters
+- **Visceral thrills and shock value**: Graphic violence and creative death sequences appeal to horror fans seeking intense, boundary-pushing content
+- **Moral and philosophical exploration**: The film explores themes of justice, redemption, and survival ethics through Jigsaw's twisted games
+- **Suspense and tension**: Multiple interconnected storylines create sustained anxiety about characters' fates
+- **Surprise and unpredictability**: The franchise's signature plot twists provide satisfying "gotcha" moments that reward attentive viewing
+- **Cathartic release**: The extreme scenarios allow viewers to experience danger and mortality from a safe distance</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4401,6 +4756,11 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Full Disclosure Report" in my knowledge base. This title doesn't match any widely known documentary or feature film I'm aware of. It's possible this is a lesser-known independent film, a corporate/educational video, or perhaps the title is slightly different from what you've provided. Without access to information about this specific work, I cannot accurately describe what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4470,6 +4830,11 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>"In The Mix" meets viewer desires for lighthearted entertainment through its combination of romantic comedy, action, and music. The film appeals to fans of Usher and those seeking an escapist story featuring romance, humor, celebrity appeal, and a hip-hop/R&amp;B soundtrack. It satisfies audiences looking for a formulaic but enjoyable mix of genres with a charismatic lead, cross-cultural romance themes, and feel-good entertainment that doesn't require deep intellectual engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4555,6 +4920,20 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by Madea's Family Reunion
+**Madea's Family Reunion** satisfies viewers' desires for:
+- **Family bonding and reconciliation** - Shows fractured relationships healing and families coming together
+- **Comic relief and laughter** - Madea's outrageous humor provides escapist entertainment
+- **Moral lessons** - Addresses serious issues like domestic abuse, self-worth, and forgiveness
+- **Cultural representation** - Reflects African American family experiences and church culture
+- **Emotional catharsis** - Allows viewers to process pain through relatable struggles and triumphant resolutions
+- **Empowerment messages** - Particularly for women dealing with toxic relationships and seeking strength
+- **Nostalgic comfort** - Tyler Perry's familiar formula provides predictable, feel-good entertainment
+- **Spiritual uplift** - Faith-based themes offer hope and redemption</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4640,6 +5019,11 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>The film "Minotaur" (2006) meets viewer desires for dark fantasy and mythology-based horror, offering graphic violence, creature effects, and exploitation elements including sexual content. It appeals to audiences seeking B-movie entertainment that combines ancient Greek mythology with horror genre conventions, featuring the classic monster-in-a-labyrinth premise with added gore and adult themes typical of direct-to-video fantasy horror films.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4725,6 +5109,11 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>"Skinwalkers" (2006) meets viewer desires for supernatural horror action, combining werewolf mythology with Western aesthetics. It appeals to audiences seeking creature-feature thrills, good-versus-evil conflict, and dark fantasy elements with gunfights and transformation effects. The film satisfies fans of B-movie horror who enjoy lycanthrope lore and straightforward monster action without demanding complex narratives.</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4798,6 +5187,11 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>"Hostel Dissected" is a documentary that meets viewers' desires for behind-the-scenes insights into horror filmmaking. It satisfies curiosity about special effects creation, directorial vision, and the production process of the controversial horror film "Hostel." The documentary appeals to film students, horror enthusiasts, and fans interested in understanding how shocking imagery is crafted and the artistic intentions behind extreme horror cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4883,6 +5277,21 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Peaceful Warrior
+**Peaceful Warrior** meets viewer desires for:
+- **Inspirational transformation stories** - Following a protagonist's journey from arrogance to enlightenment
+- **Life philosophy and wisdom** - Exploring deeper meaning beyond material success and achievement
+- **Overcoming adversity** - Depicting resilience after devastating injury and personal crisis
+- **Spiritual guidance** - Offering accessible Eastern philosophy and mindfulness principles
+- **Sports drama excitement** - Combining athletic achievement with personal growth
+- **Mentor-student relationships** - Satisfying the appeal of wise guidance and life lessons
+- **Self-improvement motivation** - Encouraging viewers to live in the present moment and reassess priorities
+- **Emotional catharsis** - Providing uplifting resolution and hope through struggle
+The film appeals to audiences seeking both entertainment and meaningful life lessons about presence, purpose, and personal transformation.</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4960,6 +5369,11 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Ultimate Avengers 2 meets viewer desires for superhero action and spectacle, team dynamics and character interactions among popular Marvel heroes, escapist entertainment with high-stakes conflict (alien invasion), continuation of storylines from the first film, and the introduction of Black Panther and Wakanda to animated Marvel content. It appeals to fans seeking straightforward good-vs-evil narratives with familiar comic book characters in an accessible animated format.</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5037,6 +5451,20 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t># The Amazing Screw-On Head - Viewer Desires Met
+**The Amazing Screw-On Head** (2006) satisfies viewers seeking:
+- **Quirky, absurdist humor** - The bizarre premise of a mechanical head screwed onto different bodies delivers unique comedy
+- **Steampunk aesthetics** - Lavish Victorian-era visuals mixed with fantastical technology appeal to fans of the genre
+- **Fast-paced action** - Constant supernatural battles and adventure maintain high energy
+- **Comic adaptation novelty** - Fans of Mike Mignola's distinctive art style and storytelling (creator of Hellboy)
+- **Occult/supernatural elements** - Secret societies, monsters, and mysticism for genre enthusiasts
+- **Irreverent take on history** - Alternate 1860s America featuring President Lincoln and paranormal agents
+- **Short-form entertainment** - At 22 minutes, it provides complete satisfaction without major time commitment
+The film appeals to niche audiences wanting inventive, visually creative animated content that doesn't take itself seriously.</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5122,6 +5550,19 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by *Crank*
+*Crank* satisfies desires for:
+- **Pure adrenaline and visceral thrills** through relentless action and a ticking-clock premise
+- **Escapist entertainment** with an absurd, video game-like plot that doesn't demand serious engagement
+- **Transgressive content** featuring extreme violence, dark humor, and socially taboo scenarios
+- **Non-stop pacing** with no downtime, catering to short attention spans
+- **Power fantasy** through Jason Statham's unstoppable protagonist overcoming impossible odds
+- **Cathartic release** via over-the-top chaos and consequence-free mayhem
+- **Novelty** from its unique high-concept premise (man must keep adrenaline up to survive)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5207,6 +5648,11 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>"Dorm Daze 2" meets viewer desires for lighthearted escapism through broad comedy, sexual humor, and party atmosphere typical of teen/college comedies. It appeals to audiences seeking low-stakes entertainment with physical comedy, romantic misunderstandings, and attractive young cast members in a tropical resort setting. The film caters to fans of the original who want familiar characters and formulaic but uncomplicated humor without demanding emotional investment or intellectual engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5284,6 +5730,19 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by "The U.S. vs. John Lennon"
+The film satisfies several viewer desires:
+1. **Nostalgia** - Appeals to those who lived through the 1960s-70s counterculture era or admire that period
+2. **Political validation** - Resonates with viewers interested in activism, free speech, and government accountability
+3. **Musical/cultural connection** - Provides insight into John Lennon's life and artistry for Beatles/Lennon fans
+4. **Underdog narrative** - Fulfills the desire to see an individual stand against institutional power
+5. **Historical education** - Offers documentary insight into a significant political-cultural moment in American history
+6. **Inspiration for activism** - Motivates viewers interested in social change and peaceful protest
+The film primarily attracts audiences seeking meaning through political engagement, cultural history, and the intersection of art and activism.</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5369,6 +5828,14 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t># Employee of the Month (2006) - Viewer Appeal
+The comedy meets viewer desires for:
+**Escapism and light entertainment** - A workplace comedy set in a big-box store provides relatable humor without demanding emotional investment. **Romantic competition** - The premise of two men competing for a woman's affection through workplace achievement taps into romantic comedy appeal. **Underdog narrative** - Viewers root for the slacker protagonist's transformation and potential victory over the established "winner."
+**Workplace humor** - Exaggerated retail employee experiences offer cathartic comedy for anyone who's worked in service industries. **Star appeal** - Features recognizable comedy actors (Dane Cook, Dax Shepard, Jessica Simpson) during their peak popularity period. **Simple wish-fulfillment** - The fantasy that workplace success directly translates to romantic success and that minimal effort can lead to rewards.</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5450,6 +5917,11 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>"Dark Ride" (2006) meets viewer desires for slasher horror thrills through its atmospheric amusement park setting, featuring a masked killer, jump scares, gore effects, and a group of young people being stalked in an isolated dark ride attraction. It appeals to fans seeking nostalgic early 2000s horror conventions, creepy carnival aesthetics, and straightforward survival suspense with practical kills and a mysterious villain backstory.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5535,6 +6007,12 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t># Summary
+*Fierce People* appeals to viewers interested in coming-of-age dramas that explore class conflict, dysfunctional family dynamics, and the dark underbelly of wealth and privilege. The film meets desires for psychological character studies featuring a teenager's loss of innocence, complex moral ambiguity, and observations about how the ultra-rich operate as their own insular "tribe." It attracts audiences seeking provocative, darker indie fare with themes of manipulation, corruption, and social commentary on American aristocracy.</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5620,6 +6098,19 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Saw III
+**Saw III** appeals to audiences seeking:
+- **Intense thrills and suspense** through elaborate death traps and tension-filled scenarios
+- **Psychological complexity** exploring themes of grief, revenge, and forgiveness
+- **Gore and shock value** with graphic special effects for horror enthusiasts
+- **Puzzle-solving satisfaction** from following intricate plot twists and the Jigsaw killer's moral games
+- **Emotional catharsis** through the protagonist's journey dealing with loss and the need to let go of vengeance
+- **Continuation of a franchise narrative** providing answers to ongoing mysteries while expanding the Saw mythology
+The film combines visceral horror with deeper thematic content about redemption and consequences.</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5701,6 +6192,18 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t># Summary
+**Leonard Cohen: I'm Your Man** meets viewers' desires for:
+1. **Artistic appreciation** - Showcasing Cohen's profound poetry and musical legacy through performance and interview footage
+2. **Intimate connection** - Providing personal insights into Cohen's philosophy, spirituality, and creative process
+3. **Nostalgia and tribute** - Celebrating a legendary artist through concert footage and contemporary artist covers
+4. **Intellectual engagement** - Exploring themes of love, spirituality, mortality, and human experience through Cohen's introspective work
+5. **Musical discovery** - Introducing or deepening appreciation for Cohen's influential catalog through diverse interpretations by other artists
+The film serves both devoted fans seeking deeper understanding and newcomers wanting to explore his cultural significance.</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5786,6 +6289,18 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Happily N'Ever After"
+**Happily N'Ever After** appeals to viewers seeking:
+- **Subversion of fairy tale tropes** - A fresh, comedic twist on classic stories for audiences tired of traditional princess narratives
+- **Family-friendly entertainment** - Animated content suitable for children with humor aimed at parents
+- **Light escapism** - An undemanding, colorful fantasy world requiring minimal emotional investment
+- **Empowerment themes** - A protagonist who takes agency in her own story rather than waiting for rescue
+- **Nostalgic references** - Familiar fairy tale characters reimagined in contemporary ways
+- **Simple moral lessons** - Clear messages about self-determination and challenging expectations for younger viewers</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5863,6 +6378,13 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t># Summary
+*The Invincible Iron Man* (2007 animated film) meets viewer desires for:
+**Escapism and power fantasy** - Audiences experience vicarious empowerment through Tony Stark's transformation into a technologically superior hero who overcomes physical vulnerability. **Action and spectacle** - The film delivers exciting combat sequences, advanced weaponry, and visual effects that satisfy the appetite for entertainment and adrenaline. **Hero's journey** - Viewers connect with Stark's redemptive arc from self-centered industrialist to responsible protector, fulfilling the need for inspirational character growth. **Good vs. evil narrative** - The clear moral conflict between Iron Man and the Mandarin provides satisfying resolution and justice, meeting the desire for order and righteousness. **Technological wonder** - The film appeals to fascination with innovation, engineering, and futuristic possibilities through its depiction of advanced armor and gadgetry.</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5948,6 +6470,11 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>"Daddy's Little Girls" meets viewers' desires for an uplifting family drama that addresses real-world struggles including single parenthood, custody battles, class differences, and romantic redemption. The film appeals to audiences seeking authentic African-American representation, faith-based themes, and a heartwarming story about a hardworking father fighting to protect his daughters while finding unexpected love. It satisfies the need for feel-good entertainment that balances serious social issues with hope and positive resolution.</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6021,6 +6548,13 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Pride"
+The film *Pride* (2014) meets several key viewer desires:
+**Emotional satisfaction** - It provides an uplifting, feel-good narrative about unlikely alliances and triumph over adversity. **Social justice appeal** - It satisfies desires for stories about activism, solidarity, and standing up for marginalized communities. **Historical interest** - It educates viewers about a lesser-known true story from 1980s Britain, combining LGBTQ+ history with labor movement history. **Humor and heart** - It balances serious themes with comedy, warmth, and human connection. **Representation** - It provides meaningful LGBTQ+ representation and celebrates diverse communities working together. **Inspiration** - It demonstrates how ordinary people can make a difference, meeting viewers' desire for hope and empowerment.</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6106,6 +6640,11 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>"The Condemned" meets viewers' desires for intense action and violence, survival drama, social commentary on reality TV and media exploitation, straightforward good-vs-evil conflict, and visceral entertainment through its premise of death row inmates forced to fight to the death on a remote island while being broadcast online.</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6163,6 +6702,11 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Envy Girls" in my knowledge base. Without being able to verify this film exists or access details about its content, I cannot accurately describe what viewer desires or needs it might meet.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6244,6 +6788,12 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Catacombs"
+The film "Catacombs" (2007) appeals to viewers seeking visceral thrills through claustrophobic horror set in the real Paris catacombs. It satisfies desires for atmospheric tension, survival horror, and the exploration of dark, forbidden spaces. The movie provides jump scares, a maze-like chase narrative, and psychological terror that appeals to audiences who enjoy feeling trapped alongside vulnerable protagonists. It also offers a twist ending that rewards viewers who appreciate narrative misdirection and unreliable perspectives in horror storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6329,6 +6879,12 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t># Summary
+Hostel: Part II meets viewer desires for intense horror thrills, graphic gore, and shocking violence. It appeals to audiences seeking extreme content, visceral scares, and transgressive entertainment that pushes boundaries. The film also satisfies curiosities about dark human nature, provides cathartic release through fear responses, and offers escapism into a nightmarish scenario. Additionally, it caters to fans of the torture horror subgenre who appreciate creative kill sequences and sadistic suspense.</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6398,6 +6954,17 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t># Summary
+The film *24 x 24: Wide Open with Jeff Gordon* meets viewer desires for:
+1. **Behind-the-scenes access** - Fans get an intimate, unfiltered look at NASCAR champion Jeff Gordon's life and career
+2. **Inspiration and motivation** - The documentary showcases Gordon's dedication, work ethic, and journey to success
+3. **Nostalgia** - Racing enthusiasts can relive memorable moments from Gordon's legendary career
+4. **Authentic storytelling** - Viewers seeking genuine, personal narratives get Gordon's perspective in his own words
+5. **Sports entertainment** - NASCAR fans satisfy their passion for racing culture and high-performance competition</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6483,6 +7050,11 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>The film "Bratz" (2007) meets viewer desires for escapist teen fantasy, female friendship narratives, and wish-fulfillment through fashion and popularity. It appeals to young audiences seeking validation of individuality and self-expression while providing colorful, music-driven entertainment. The movie satisfies the need for relatable coming-of-age stories about navigating cliques, staying true to oneself, and overcoming social pressures in high school, all wrapped in a glamorous, aspirational package that echoes the doll brand's emphasis on style and confidence.</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6560,6 +7132,18 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Doctor Strange
+**Doctor Strange** satisfies viewers' desires for:
+- **Escapism and spectacle** - Mind-bending visual effects and imaginative alternate dimensions provide stunning eye candy and transport audiences beyond reality
+- **Hero transformation** - The journey from arrogant surgeon to humble sorcerer fulfills the classic redemption arc that audiences find emotionally satisfying
+- **Marvel Universe connection** - Expands the MCU into mystical/supernatural territory, giving fans new lore and characters while maintaining franchise continuity
+- **Action and humor balance** - Delivers exciting magical combat sequences mixed with wit and comedy that keeps the tone entertaining rather than overly serious
+- **Intellectual stimulation** - Explores concepts of time, reality, and Eastern philosophy in accessible ways that feel thought-provoking without being demanding
+- **Underdog triumph** - Shows a broken man rebuilding himself through determination, meeting the universal desire to see perseverance rewarded</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6645,6 +7229,19 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "War" (2007)
+The film "War" starring Jet Li and Jason Statham appeals to viewers seeking:
+- **Action thrills**: High-octane fight sequences, gunfights, and martial arts choreography
+- **Revenge narrative**: Satisfying emotional arc of retribution and justice
+- **Plot twists**: Unexpected reveals that challenge assumptions and reward attentive viewing
+- **Star power**: Combination of Eastern and Western action cinema icons
+- **Escapism**: Fast-paced entertainment that provides distraction from everyday life
+- **Moral complexity**: Exploration of loyalty, betrayal, and the blurred lines between good and evil
+The film delivers straightforward genre entertainment for action fans seeking visceral thrills and dramatic confrontations.</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6730,6 +7327,13 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t># 3:10 to Yuma: Viewer Desires Met
+**3:10 to Yuma** satisfies several key viewer desires:
+**Moral Complexity**: The film provides nuanced characters rather than simple good/evil archetypes, particularly in the relationship between rancher Dan Evans and outlaw Ben Wade, appealing to audiences seeking psychological depth. **Tension and Suspense**: The race-against-time premise creates sustained dramatic tension as Evans must get Wade to the train, fulfilling desires for excitement and edge-of-your-seat engagement. **Masculine Identity Themes**: It explores concepts of honor, redemption, and what defines a "real man," resonating with viewers interested in character-driven explorations of masculinity. **Classic Western Aesthetics**: The film delivers traditional Western pleasures—gunfights, sweeping landscapes, and frontier justice—while modernizing the genre's sensibilities. **Father-Son Dynamics**: Dan's struggle to earn his son's respect adds emotional stakes that satisfy viewers seeking family drama and personal redemption arcs. **Unpredictability**: The evolving dynamic between captor and captive keeps audiences guessing</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6815,6 +7419,11 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>"Highlander: The Source" attempts to meet viewer desires for fantasy action, immortal warrior mythology, and continuation of the Highlander franchise lore. It targets fans seeking answers about the origin of immortals' powers (the "Source"), while providing sword fights, supernatural elements, and post-apocalyptic adventure. The film aims to satisfy longstanding franchise followers wanting closure to mythological questions, though it was generally poorly received by critics and audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6900,6 +7509,11 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>"Good Luck Chuck" meets viewer desires for escapist romantic comedy entertainment, wish-fulfillment fantasy (the premise that sleeping with the protagonist leads to finding true love), sexual humor and attractive cast members, and the comforting formula of a predictable happy ending where the commitment-phobic protagonist overcomes his fears to find lasting love.</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6985,6 +7599,11 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Saw IV meets viewer desires for intense psychological thrills, complex puzzle-solving narratives, and graphic horror spectacle. It provides the satisfaction of piecing together non-linear timelines and discovering shocking plot twists, while delivering the franchise's signature gruesome "trap" sequences that appeal to fans seeking visceral, extreme content. The film also offers closure and backstory for the Jigsaw character, satisfying audience curiosity about the villain's origins and motivations.</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7070,6 +7689,20 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Rambo
+**Rambo** (First Blood, 1982) satisfies several key viewer desires:
+- **Cathartic revenge fantasy** - Watching an underdog fight back against unjust authority provides emotional release
+- **Action and spectacle** - Intense combat sequences, explosions, and survival scenarios deliver visceral excitement
+- **Heroic identification** - Viewers can identify with a skilled, resilient protagonist overcoming overwhelming odds
+- **Anti-establishment sentiment** - The film taps into distrust of corrupt institutions and sympathy for the marginalized
+- **Patriotic/military honor** - Appeals to respect for veterans and military sacrifice, especially post-Vietnam
+- **Masculine power fantasy** - Displays of physical strength, combat prowess, and self-reliance
+- **Simplistic moral clarity** - Clear heroes and villains in an increasingly complex world
+The film fundamentally offers escapist empowerment through a wronged warrior's justified rebellion.</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7155,6 +7788,18 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "The Eye"
+"The Eye" satisfies viewers' desires for:
+1. **Supernatural thrills and scares** - The horror elements provide adrenaline and fear in a controlled environment
+2. **Mystery and suspense** - The investigation into disturbing visions keeps audiences engaged
+3. **Exploration of sight and perception** - The premise of seeing ghosts through a corneal transplant offers a unique supernatural concept
+4. **Cultural curiosity** - Asian horror aesthetics and atmosphere appeal to those interested in Eastern filmmaking traditions
+5. **Emotional catharsis** - The protagonist's journey from blindness to frightening sight provides dramatic tension and resolution
+6. **Existential contemplation** - Themes about death, the afterlife, and what lies beyond our normal perception satisfy philosophical curiosity</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7240,6 +7885,19 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t># The Bank Job: Viewer Desires Met
+**The Bank Job** satisfies viewers' desires for:
+- **Intrigue and suspense** through a twisty heist plot based on real events
+- **Anti-establishment satisfaction** by depicting ordinary criminals outwitting both the criminal underworld and corrupt authorities
+- **Historical curiosity** about the mysterious 1971 Baker Street robbery and alleged government cover-up
+- **Escapist entertainment** via clever planning, execution, and high-stakes tension
+- **Moral complexity** through flawed but relatable characters navigating dangerous situations
+- **Retribution fantasy** as protagonists expose powerful figures' secrets and corruption
+The film appeals to audiences who enjoy intelligent crime thrillers with historical intrigue and underdog narratives.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7305,6 +7963,12 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t># Summary
+*Rituales de Sangre* meets viewer desires for true crime content, morbid curiosity about occult practices, and understanding extreme human behavior. The film satisfies needs for shock value, cautionary tales about cult manipulation, and insight into a notorious criminal case. It appeals to audiences interested in drug cartel violence, ritual sacrifice, and the intersection of religion and crime, while providing a sense of moral resolution through the eventual capture and exposure of the perpetrators.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7390,6 +8054,19 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t># The Forbidden Kingdom - Viewer Desires Met
+**The Forbidden Kingdom** (2008) satisfies several key viewer desires:
+- **Martial arts spectacle**: Features the first on-screen pairing of Jackie Chan and Jet Li, delivering elaborate fight choreography and kung fu action that fans had long anticipated
+- **Fantasy escapism**: Offers a fish-out-of-water adventure where an ordinary American teenager enters a mythical ancient China, fulfilling wish-fulfillment fantasies
+- **Nostalgia**: Pays homage to classic kung fu cinema and wuxia films, appealing to fans of the genre's golden age
+- **Coming-of-age journey**: Provides an underdog hero's transformation story where the protagonist gains confidence, skills, and purpose
+- **Visual spectacle**: Delivers colorful, fantastical imagery of mystical Chinese landscapes, costumes, and supernatural elements
+- **Comedy and entertainment**: Blends humor with action through the chemistry between Chan and Li's contrasting characters
+The film essentially meets the desire for an entertaining, accessible martial arts fantasy adventure with star power and crowd-pleasing action.</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7467,6 +8144,21 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t># Thomas &amp; Friends: The Great Discovery - Viewer Needs Met
+**Thomas &amp; Friends: The Great Discovery** satisfies young viewers' desires for:
+- **Adventure and exploration** through Thomas discovering the lost town of Great Waterton
+- **Friendship and belonging** as characters work together and support each other
+- **Problem-solving** when challenges arise during restoration efforts
+- **Positive life lessons** about teamwork, determination, and making amends after mistakes
+- **Familiar characters** in new situations that provide comfort and excitement
+- **Simple, age-appropriate narratives** that are easy for preschoolers to follow
+- **Colorful, engaging visuals** featuring beloved trains and settings
+- **Gentle conflict resolution** that teaches values without being frightening
+The film provides wholesome entertainment that reassures parents while engaging children with themes of discovery, cooperation, and personal growth.</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7552,6 +8244,11 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>"Garden Party" is a 2017 animated short film that meets viewers' desires for visually stunning CGI artistry, dark humor, and thriller-like suspense. The film satisfies those seeking thought-provoking narratives that subvert expectations, as it tells a story from the perspective of amphibians discovering a sinister mystery in an abandoned mansion. It appeals to audiences who appreciate horror elements delivered through unconventional storytelling, technical excellence in animation, and narratives that reward careful attention to environmental storytelling details.</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7637,6 +8334,11 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>"Bangkok Dangerous" meets viewer desires for action-thriller entertainment, featuring intense gunfights, assassin intrigue, and exotic Bangkok locations. It appeals to audiences seeking escapist violence, romantic subplot elements, and the star power of Nicolas Cage in a crime drama with themes of redemption and moral conflict.</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7722,6 +8424,11 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>"Disaster Movie" appeals to viewers seeking lowbrow comedy through pop culture parody, slapstick humor, and crude jokes. It targets audiences who enjoy recognizing references to recent movies and celebrities, want mindless entertainment without complex plots, and appreciate gross-out humor and physical comedy. The film meets the desire for easy-to-watch, undemanding content that requires minimal attention or critical thinking.</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7799,6 +8506,18 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Next Avengers: Heroes of Tomorrow
+**Next Avengers: Heroes of Tomorrow** fulfills several viewer desires:
+1. **Nostalgia and Legacy** - Fans get to see the next generation of beloved Marvel heroes, connecting classic Avengers to new characters
+2. **Family-Friendly Superhero Content** - Provides age-appropriate Marvel action for younger audiences who may not be ready for PG-13 live-action films
+3. **Continuation Fantasy** - Satisfies curiosity about what happens after the original Avengers and what their children would be like
+4. **Accessible Entry Point** - Offers newcomers, especially children, an introduction to the Marvel Universe without requiring extensive background knowledge
+5. **Hope and Heroism Themes** - Delivers inspiring messages about courage, teamwork, and living up to parental legacies that resonate with younger viewers
+6. **Animation Appeal** - Meets the desire for animated superhero content, which was less common for Marvel properties at the time of release</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7884,6 +8603,12 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t># Summary
+*My Best Friend's Girl* appeals to viewers seeking escapist romantic comedy entertainment with raunchy humor. It satisfies desires for wish-fulfillment fantasy (the "bad boy" who changes), comedic relationship dynamics, and the comfort of predictable genre conventions where love ultimately triumphs. The film also meets needs for light emotional engagement without serious commitment, featuring attractive leads in amusing situations that explore the contrast between superficial dating behavior and genuine connection. Its crude humor and sexual content appeal to audiences seeking adult-oriented comedy rather than family-friendly fare.</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7961,6 +8686,11 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Divine Confusion" in my knowledge base. Without access to details about this specific film, I cannot accurately describe what viewer desires or needs it meets. This may be an obscure, independent, or recent film that isn't widely documented, or it may be known by a different title.</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8046,6 +8776,18 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t># Christmas Cottage - Viewer Desires and Needs Met
+**Christmas Cottage** appeals to viewers seeking:
+- **Nostalgia and comfort**: The film provides cozy, small-town Christmas atmosphere and traditional holiday warmth
+- **Inspirational storytelling**: Based on Thomas Kinkade's life, it offers an uplifting narrative about pursuing artistic dreams despite obstacles
+- **Family-friendly entertainment**: Clean, wholesome content suitable for all ages during holiday gatherings
+- **Emotional connection**: Themes of family, faith, and community resonate with those seeking heartfelt seasonal viewing
+- **Escapism**: A picturesque, idealized world that offers respite from daily stress
+- **Affirmation of values**: Reinforces positive messages about perseverance, creativity, and the importance of home and relationships</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8127,6 +8869,21 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by Repo! The Genetic Opera
+**Repo! The Genetic Opera** satisfies viewers seeking:
+- **Transgressive entertainment** - Dark, shocking content that challenges mainstream sensibilities through gore, body horror, and taboo subjects
+- **Camp and theatrical excess** - Over-the-top performances, elaborate costumes, and melodramatic storytelling
+- **Musical innovation** - A rock opera format that blends opera, industrial, and gothic musical styles
+- **Cult/counterculture identity** - Association with niche, underground cinema that signals alternative tastes
+- **Visual spectacle** - Gothic aesthetic, stylized cinematography, and unique production design
+- **Dystopian commentary** - Exploration of corporate greed, addiction, and commodification of the body
+- **Emotional catharsis** - Family drama and tragedy processed through operatic intensity
+- **Subcultural belonging** - Connection to goth, punk, and alternative communities through shared appreciation
+The film appeals primarily to audiences who value boundary-pushing art, theatrical presentation, and belonging to specialized fan communities.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8212,6 +8969,16 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>**Punisher: War Zone** meets viewer desires for:
+- **Extreme, over-the-top violence and action** - The film delivers graphic, stylized brutality with creative kills and intense combat sequences
+- **Straightforward revenge fantasy** - A clear good-vs-evil narrative where the protagonist dispenses vigilante justice without moral ambiguity
+- **Cathartic release** - Watching a merciless anti-hero punish criminals provides visceral satisfaction and stress relief
+- **Dark comic book aesthetics** - Fans of gritty, noir-inspired superhero content get highly stylized visuals and an unapologetically brutal tone
+- **Escapism through carnage** - The exaggerated violence creates distance from reality, allowing guilt-free entertainment through fictional mayhem</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8293,6 +9060,11 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>"The Legend of Bloody Mary" meets viewer desires for supernatural horror thrills, urban legend exploration, and teen-oriented scares. The film appeals to audiences seeking familiar horror tropes like cursed rituals, vengeful spirits, and group dynamics among young protagonists facing supernatural consequences. It satisfies the need for accessible, formulaic horror entertainment with jump scares and the nostalgic appeal of the Bloody Mary folklore that many viewers remember from childhood.</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8374,6 +9146,19 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by *The Spirit*
+*The Spirit* (2008) appeals to viewers seeking:
+- **Visual spectacle**: Stylized noir aesthetics with high-contrast black-and-white imagery and bursts of color
+- **Escapist entertainment**: Over-the-top action sequences and comic book fantasy
+- **Campy humor**: Self-aware, tongue-in-cheek dialogue and performances
+- **Noir atmosphere**: Classic detective story elements with femme fatales and urban corruption
+- **Comic book adaptation**: Frank Miller's distinctive visual storytelling style for fans of graphic novels
+- **Eye candy**: Glamorous costumes and attractive cast members in stylish presentation
+The film targets audiences wanting a flashy, visually driven experience rather than narrative depth.</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8459,6 +9244,12 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t># Summary
+"Tenderness" (2009) meets viewer desires for psychological thriller content that explores dark, complex themes. The film appeals to audiences interested in morally ambiguous characters, particularly through its focus on a troubled teen killer and an obsessed detective. It satisfies the need for suspense and tension while examining themes of manipulation, obsession, and the darker aspects of human nature. The movie also attracts viewers drawn to crime dramas with psychological depth and those interested in exploring the intersection of danger and misguided connection between damaged individuals.</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8544,6 +9335,13 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t># My Bloody Valentine: Viewer Desires and Needs Met
+**My Bloody Valentine** (1981) satisfies several key viewer desires:
+**Thrill and Fear**: The film delivers genuine scares and suspense through its slasher format, giving audiences controlled exposure to danger and adrenaline rushes in a safe environment. **Mystery and Problem-Solving**: The whodunit element engages viewers intellectually as they try to identify the killer before the reveal. **Transgression and Taboo**: The film allows viewers to vicariously experience socially forbidden acts and violence without real-world consequences. **Nostalgia and Tradition**: For horror fans, it fulfills the desire for classic slasher conventions while offering a unique Valentine's Day setting that subverts romantic expectations. **Social Bonding**: As a cult classic, it provides shared cultural experience for horror enthusiasts and opportunities for communal viewing experiences. **Catharsis**: The violent content offers emotional release and a way to process fears about mortality, relationships, and small-town claustrophobia in a symbolic framework.</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8621,6 +9419,20 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t># Hulk vs. Thor: Viewer Desires Met
+**Hulk vs. Thor** satisfies viewers' desires for:
+- **Epic superhero battles** - Extended, visceral combat between two iconic Marvel powerhouses
+- **Power fantasy fulfillment** - Watching nearly unstoppable forces clash at maximum strength
+- **Norse mythology immersion** - Exploration of Asgard and its warriors, gods, and realms
+- **Uncomplicated action entertainment** - Straightforward plot focused on spectacle over complex storytelling
+- **Character showcase** - Featuring beloved Marvel characters like Loki, the Warriors Three, and other Asgardians
+- **Nostalgia and fan service** - Delivering classic comic book matchups that fans have long imagined
+- **Animated violence** - More brutal and uninhibited action than live-action films typically allow
+- **Quick entertainment** - Compact runtime (45 minutes) for efficient viewing</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8698,6 +9510,20 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Hulk vs. Wolverine
+**Hulk vs. Wolverine** satisfies several key viewer desires:
+- **Epic superhero combat** - Delivers intense, brutal fight scenes between two of Marvel's most popular powerhouses
+- **Nostalgia** - Appeals to fans of classic comic storylines and 1990s-style animation
+- **Power fantasy** - Features nearly indestructible characters unleashing devastating attacks
+- **Origin story elements** - Explores Wolverine's Weapon X backstory
+- **Uncomplicated entertainment** - Provides straightforward action without complex plotting
+- **Fan service** - Includes appearances by other Marvel characters like Sabretooth and Deadpool
+- **Cathartic violence** - Offers visceral, consequence-free animated violence as escapism
+The film primarily caters to action-oriented fans seeking pure superhero spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8783,6 +9609,11 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>"New in Town" meets viewer desires for lighthearted romantic comedy escapism, featuring a fish-out-of-water story where a corporate executive from Miami adapts to small-town Minnesota life and finds love. The film satisfies needs for feel-good entertainment, predictable romance, cultural clash humor, and themes of personal transformation, community values, and choosing authentic connection over career ambition.</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8848,6 +9679,19 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t># Summary
+**Clive Barker: The Man Behind the Myth** meets viewer desires for:
+- **Behind-the-scenes access** to a cult horror icon's creative process and personal life
+- **Understanding the artist** beyond his public persona and controversial works
+- **Insider perspective** on horror filmmaking and the creation of franchises like *Hellraiser*
+- **Appreciation for genre artistry** - validating horror as legitimate creative expression
+- **Fan connection** - allowing admirers to engage more deeply with Barker's influences, philosophy, and artistic vision
+- **Biographical curiosity** about how Barker's experiences shaped his dark, transgressive storytelling
+The documentary satisfies both casual viewers seeking entertainment value and devoted fans wanting comprehensive insight into Barker's multifaceted career as writer, director, and visual artist.</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8933,6 +9777,18 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t># Still Waiting... Viewer Appeal Summary
+**Still Waiting...** (2009) meets viewer desires for:
+1. **Crude comedy and raunchy humor** - Appeals to audiences seeking lowbrow, sexually explicit jokes and bathroom humor
+2. **Workplace frustration catharsis** - Provides vicarious satisfaction for service industry workers dealing with difficult customers and dead-end jobs
+3. **Nostalgia and continuity** - Satisfies fans of the original *Waiting...* (2005) who want to revisit familiar characters
+4. **Schadenfreude and social commentary** - Offers commentary on economic struggles during the 2008 recession, letting viewers laugh at characters in similarly difficult circumstances
+5. **Easy, mindless entertainment** - Delivers simple, predictable comedy requiring minimal intellectual engagement
+The film primarily targets young adults seeking irreverent humor and anyone with restaurant work experience looking for relatable comedy about workplace dysfunction.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9018,6 +9874,19 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires The Haunting in Connecticut Meets
+**The Haunting in Connecticut** appeals to viewers seeking:
+1. **Supernatural thrills and scares** - Delivers horror entertainment through paranormal activity and jump scares
+2. **Emotional connection** - Centers on a family struggling with their son's cancer, providing genuine human drama alongside horror
+3. **"Based on true events" intrigue** - Satisfies curiosity about allegedly real paranormal cases and the Warren investigations
+4. **Atmospheric dread** - Offers gothic horror elements with its funeral home setting and historical mystery
+5. **Good vs. evil resolution** - Provides catharsis through the family confronting and overcoming dark forces
+6. **Family bonds under pressure** - Explores themes of parental sacrifice and family unity during crisis that resonate emotionally
+The film meets the desire for horror that balances supernatural scares with relatable human struggle and emotional stakes.</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9103,6 +9972,11 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>Crank: High Voltage meets viewer desires for pure adrenaline-fueled escapism, over-the-top action spectacle, dark comedy, and transgressive entertainment that breaks conventional filmmaking rules. It appeals to audiences seeking non-stop kinetic energy, absurdist humor, cartoonish violence without serious consequences, and a visceral, no-holds-barred cinematic experience that prioritizes shock value and outrageous set pieces over narrative coherence or realism.</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9168,6 +10042,11 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>"Frankenhood" (2009) is a horror-comedy parody that appeals to viewers seeking low-budget, campy entertainment with crude humor, urban comedy elements, and a playful twist on classic Frankenstein themes. It targets audiences looking for undemanding, irreverent content that blends horror movie tropes with street comedy, offering escapist entertainment without requiring serious intellectual engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9253,6 +10132,19 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Gamer"
+**Gamer** (2009) appeals to viewers seeking:
+- **Action and spectacle** - High-octane sequences, violence, and visual stimulation
+- **Escapism** - Immersion in a dystopian future with gaming elements
+- **Social commentary** - Critique of reality TV, gaming culture, technology exploitation, and corporate control
+- **Power fantasy** - Identification with a protagonist fighting against dehumanization and control
+- **Technological anxiety exploration** - Examination of fears about human autonomy in increasingly tech-mediated society
+- **Vicarious thrills** - Experience of dangerous, transgressive scenarios from safety
+- **Genre satisfaction** - Delivers sci-fi/action conventions with a cyberpunk edge</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9338,6 +10230,12 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t># Summary
+*Saw VI* appeals to viewers seeking intense horror thrills, moral dilemmas about justice and corruption, and cathartic revenge fantasies. The film specifically targets the healthcare insurance industry's greed, satisfying audiences' desire to see corrupt systems punished. It also meets fans' expectations for the franchise's signature elaborate traps, plot twists, and gore, while providing closure to ongoing storylines. The film taps into economic anxieties (released during the 2008 financial crisis) by depicting institutional villains facing brutal consequences, offering visceral satisfaction to viewers frustrated with systemic injustice.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9419,6 +10317,11 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>"Summer's Blood" appeals to horror fans seeking visceral thrills through its slasher elements, including violence, gore, and suspense. It satisfies desires for dark psychological content exploring twisted family dynamics and captivity scenarios, while offering the cathartic experience of watching a victim-turned-survivor fight back against her tormentors. The film also caters to audiences interested in gritty, low-budget horror with taboo subject matter.</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9500,6 +10403,11 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "Death Warrior" to provide an accurate summary of what viewer desires or needs it meets. There may be multiple films with similar titles, or this could be a lesser-known production. Without being able to verify specific details about this particular film, I cannot provide a meaningful analysis of its appeal to audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9585,6 +10493,11 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>"Brothers" (2009) meets viewers' desires for emotionally intense drama exploring themes of war trauma, family loyalty, and moral complexity. It satisfies needs for psychological depth in examining PTSD's impact on soldiers and families, while providing compelling performances that explore jealousy, guilt, and the bonds between siblings. The film appeals to those seeking serious, character-driven stories about sacrifice and the hidden costs of military service.</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9658,6 +10571,18 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Dark Seduction"
+**Note:** There are multiple films with this title. Generally, films titled "Dark Seduction" tend to meet the following viewer desires:
+- **Escapist thriller entertainment** - Suspenseful plots involving obsession, danger, or mystery
+- **Romantic/erotic tension** - Stories centered on forbidden attraction or dangerous relationships
+- **Psychological intrigue** - Exploration of manipulation, deception, or twisted motives
+- **Dramatic stakes** - High-tension scenarios with serious consequences
+- **Genre conventions** - Familiar erotic thriller or psychological thriller tropes that deliver expected pleasures
+The specific desires met depend on which version of "Dark Seduction" is being referenced, but most cater to audiences seeking suspenseful, adult-oriented dramatic entertainment with romantic/sexual elements.</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9743,6 +10668,20 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires Daybreakers Meets
+**Daybreakers** (2009) satisfies viewers seeking:
+- **Fresh genre innovation** - A vampire apocalypse premise where vampires are the dominant species facing extinction, reversing typical vampire narratives
+- **Thoughtful social commentary** - Allegories about resource depletion, class division, capitalism, and sustainability wrapped in horror/sci-fi
+- **Visceral horror and action** - Graphic violence, body horror, and intense action sequences for genre enthusiasts
+- **Dystopian world-building** - A fully realized vampire society with unique rules, technology, and visual aesthetics
+- **Intellectual engagement** - Moral dilemmas about survival, humanity, and scientific ethics that encourage deeper reflection
+- **Visual style** - Stylized neo-noir cinematography with distinctive blue-tinted palette and production design
+- **Genre-blending** - Combination of horror, science fiction, and thriller elements appealing to multiple audience types
+The film appeals to viewers wanting substantive genre entertainment that combines spectacle with ideas.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9828,6 +10767,11 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr">
+        <is>
+          <t>"The Spy Next Door" meets viewers' desires for light family entertainment, combining action-comedy with wish-fulfillment fantasy. It appeals to children who enjoy spy adventures and physical comedy from Jackie Chan's signature stunts, while offering parents a safe, formulaic narrative about family bonding and acceptance. The film satisfies audiences seeking unchallenging escapism with predictable feel-good messages about stepfamily relationships and proving oneself worthy of love.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9893,6 +10837,12 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr">
+        <is>
+          <t># Summary
+*No Greater Love* meets viewers' desires for emotionally uplifting and faith-affirming content by presenting the Passion of Christ through a reverent, biblically faithful lens. It appeals to Christian audiences seeking spiritual enrichment, particularly during Lent and Holy Week, while offering educational value about Jesus's final hours. The film satisfies needs for accessible religious storytelling that inspires reflection on sacrifice, redemption, and divine love, providing both emotional catharsis and reinforcement of core Christian beliefs about salvation.</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9970,6 +10920,19 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Planet Hulk
+**Planet Hulk** satisfies viewers seeking:
+- **Escapist sci-fi adventure** with gladiatorial combat in an alien world
+- **Power fantasy** watching the Hulk unleash his full strength without restraint
+- **Underdog triumph** as an enslaved hero rises to lead a rebellion
+- **Visual spectacle** of massive battles and cosmic landscapes
+- **Character depth** exploring Banner/Hulk's rage, isolation, and desire for acceptance
+- **Epic storytelling** with themes of freedom, brotherhood, and revolution
+- **Fresh perspective** on a familiar character in a new setting away from Earth</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10055,6 +11018,19 @@
       <c r="U119" t="inlineStr"/>
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Peacock"
+The film **Peacock** (2010) appeals to viewers seeking:
+1. **Psychological complexity** - Interest in dissociative identity disorder and mental illness exploration
+2. **Character study intensity** - Desire to watch a transformative performance (Cillian Murphy in a dual role)
+3. **Small-town atmosphere** - Appreciation for isolated, claustrophobic settings that enhance psychological tension
+4. **Gender identity themes** - Curiosity about gender expression and identity questions
+5. **Slow-burn suspense** - Preference for atmospheric, character-driven thrillers over action-heavy narratives
+6. **Unconventional narratives** - Interest in indie films that challenge mainstream storytelling conventions
+7. **Dark psychological drama** - Appetite for disturbing, uncomfortable explorations of trauma and its consequences</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10116,6 +11092,11 @@
       <c r="U120" t="inlineStr"/>
       <c r="V120" t="inlineStr"/>
       <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr">
+        <is>
+          <t>"The Making of Daybreakers" meets viewer desires for behind-the-scenes insight into filmmaking, satisfying curiosity about special effects, vampire makeup, and production design. It appeals to fans of the original film who want deeper knowledge of how the dystopian vampire world was created, and to aspiring filmmakers interested in learning about independent film production techniques and creative problem-solving on a budget.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10201,6 +11182,12 @@
       <c r="U121" t="inlineStr"/>
       <c r="V121" t="inlineStr"/>
       <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr">
+        <is>
+          <t># Summary
+The film "Killers" (2010) meets viewer desires for escapist entertainment through its blend of action-comedy romance. It satisfies the need for wish-fulfillment (an ordinary person discovering their partner leads a secret, exciting life), light humor, attractive stars (Ashton Kutcher and Katherine Heigl), explosive action sequences, and romantic fantasy. The film appeals to audiences seeking undemanding entertainment that combines relationship comedy with spy thriller elements, offering both couples-friendly content and adrenaline-pumping excitement without requiring deep emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10278,6 +11265,12 @@
       <c r="U122" t="inlineStr"/>
       <c r="V122" t="inlineStr"/>
       <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr">
+        <is>
+          <t># Summary
+**Alpha and Omega** meets viewer desires for family-friendly entertainment with appealing animated animal characters, a lighthearted romantic storyline, and themes of friendship, teamwork, and overcoming social barriers. It satisfies children's enjoyment of colorful animation and humor while offering parents a safe, positive viewing experience with messages about acceptance and working together despite differences.</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10363,6 +11356,13 @@
       <c r="U123" t="inlineStr"/>
       <c r="V123" t="inlineStr"/>
       <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by The Expendables
+**The Expendables** satisfies several key audience desires:
+- **Nostalgia**: Reunites iconic 1980s-90s action stars (Stallone, Statham, Li, Lundgren, Willis, Schwarzenegger), appealing to fans who grew up with these actors. - **Escapism and spectacle**: Delivers non-stop action, explosions, and combat sequences that provide pure entertainment without demanding emotional or intellectual engagement. - **Masculine power fantasy**: Features physically dominant heroes solving problems through strength and combat, appealing to traditional action genre expectations. - **Simple moral clarity**: Presents clear good vs. evil narratives where audiences can root for heroes without moral ambiguity. - **Camaraderie and loyalty**: Showcases bonds between warriors and themes of brotherhood that resonate with viewers valuing teamwork and loyalty. - **Vicarious thrills**: Offers safe experience of danger and violence through larger-than-life scenarios most viewers will never encounter.</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10448,6 +11448,11 @@
       <c r="U124" t="inlineStr"/>
       <c r="V124" t="inlineStr"/>
       <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr">
+        <is>
+          <t>"Burning Bright" meets viewers' desires for suspenseful thriller entertainment, combining survival horror with the primal fear of being trapped with a dangerous predator (a tiger). The film appeals to audiences seeking edge-of-your-seat tension, claustrophobic scenarios during a hurricane lockdown, and the satisfaction of watching characters use wit and determination to overcome seemingly impossible odds. It also taps into protective instincts through the protagonist's role as a sibling caring for her autistic brother while facing mortal danger.</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10529,6 +11534,11 @@
       <c r="U125" t="inlineStr"/>
       <c r="V125" t="inlineStr"/>
       <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr">
+        <is>
+          <t>"Beatdown" (2010) is an MMA/fighting film that appeals to viewers seeking intense combat action, underdog redemption stories, and gritty sports drama. It meets desires for physical competition spectacle, themes of personal transformation through martial arts, and the visceral excitement of underground fighting culture. The film caters to fans of mixed martial arts who enjoy watching fighters overcome personal struggles while delivering raw, brutal fight sequences.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10614,6 +11624,19 @@
       <c r="U126" t="inlineStr"/>
       <c r="V126" t="inlineStr"/>
       <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Saw 3D
+**Saw 3D** satisfies viewer desires for:
+- **Extreme visceral thrills** through graphic gore and elaborate death traps presented in 3D format
+- **Puzzle-solving engagement** as audiences piece together plot twists and the Jigsaw killer's moral games
+- **Justice/revenge fantasies** watching morally flawed characters face consequences for their sins
+- **Series completion** providing closure to long-time fans with answers to ongoing mysteries
+- **Spectacle and shock value** delivering increasingly outrageous set pieces designed to provoke strong reactions
+- **Moral superiority** allowing viewers to judge victims' past transgressions from a safe distance
+The film primarily appeals to horror fans seeking intense sensory experiences and narrative payoff for franchise investment.</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10699,6 +11722,13 @@
       <c r="U127" t="inlineStr"/>
       <c r="V127" t="inlineStr"/>
       <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs Are Met by "For Colored Girls"
+**For Colored Girls** meets several important viewer desires and needs:
+**Representation &amp; Validation**: The film addresses the experiences of Black women, providing much-needed representation and validation of their stories, struggles, and resilience that are often marginalized in mainstream media. **Emotional Catharsis**: It offers viewers an opportunity to process difficult topics like domestic violence, sexual assault, abortion, and abandonment through powerful storytelling and poetry. **Community &amp; Solidarity**: The film creates a sense of shared experience and sisterhood, helping viewers feel less alone in their struggles and fostering connection through collective trauma and healing. **Artistic Expression**: It satisfies the desire for poetic, lyrical storytelling that elevates difficult subject matter through beautiful language and performance, blending theater and cinema. **Social Awareness**: The film educates viewers about intersectional issues facing Black women and encourages conversations about gender, race, and systemic oppression. **Hope &amp; Healing**: Despite its heavy themes, the film ultimately offers messages of survival, strength, and the possibility of finding oneself and one's voice after</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10784,6 +11814,13 @@
       <c r="U128" t="inlineStr"/>
       <c r="V128" t="inlineStr"/>
       <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr">
+        <is>
+          <t># Summary: How *The Next Three Days* Meets Viewer Desires
+*The Next Three Days* satisfies several key viewer needs:
+**Escapist fantasy**: The film fulfills the desire to see an ordinary person successfully challenge an overwhelming system, offering vicarious thrills of outsmarting authority. **Emotional engagement**: It provides intense suspense and romantic devotion as a husband refuses to abandon his imprisoned wife, meeting needs for both tension and love-conquers-all sentiment. **Moral complexity**: The ambiguity about the wife's actual guilt engages viewers who appreciate ethical dilemmas over simple good-vs-evil narratives. **Underdog triumph**: Audiences experience satisfaction watching an average man transform into a capable action hero through determination and intelligence rather than superhuman abilities. **Justice fantasy**: For viewers frustrated with institutional failures, the film offers cathartic wish-fulfillment where personal action succeeds where the legal system failed.</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10869,6 +11906,21 @@
       <c r="U129" t="inlineStr"/>
       <c r="V129" t="inlineStr"/>
       <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr">
+        <is>
+          <t># The Lincoln Lawyer - Viewer Desires Met
+**The Lincoln Lawyer** satisfies viewers seeking:
+- **Clever legal thriller entertainment** - Complex courtroom maneuvering and strategic plot twists
+- **Morally ambiguous hero** - A flawed defense attorney who operates in ethical gray areas
+- **Justice and redemption** - Watching a cynical lawyer rediscover his moral compass
+- **Mystery solving** - Unraveling a conspiracy that connects past and present cases
+- **Underdog triumph** - A street-smart lawyer outwitting powerful, corrupt opponents
+- **Stylish storytelling** - Charismatic performance by Matthew McConaughey and slick Los Angeles atmosphere
+- **Intellectual engagement** - Following intricate legal strategy and plot connections
+- **Vicarious thrill** - Experiencing dangerous stakes and cat-and-mouse games from safety
+The film appeals to audiences who enjoy smart, adult-oriented crime dramas with moral complexity.</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10950,6 +12002,11 @@
       <c r="U130" t="inlineStr"/>
       <c r="V130" t="inlineStr"/>
       <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr">
+        <is>
+          <t>"Blood Out" appeals to viewers seeking an action-packed revenge thriller with martial arts combat, gang violence, and themes of family loyalty. It satisfies desires for straightforward vigilante justice narratives, intense fight sequences, and the visceral satisfaction of seeing a protagonist avenge a loved one through violent confrontation with criminal underworld figures.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11035,6 +12092,18 @@
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="inlineStr"/>
       <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr">
+        <is>
+          <t># Summary
+**Everything Must Go** meets viewers' desires for authentic emotional experiences and relatable human struggles. The film appeals to those seeking:
+- **Raw, honest portrayals of failure and rock bottom**: Nick's public unraveling resonates with audiences who appreciate stories about flawed characters facing real consequences
+- **Redemption narratives**: The journey of letting go and starting over provides catharsis and hope
+- **Character-driven drama**: Viewers who prefer intimate, performance-focused stories over plot-heavy narratives
+- **Reflection on materialism and what truly matters**: The yard sale metaphor speaks to those questioning consumer culture and life priorities
+- **Will Ferrell in a dramatic role**: Fans curious to see the comedian demonstrate serious acting range
+The film satisfies the need for contemplative, melancholic storytelling that validates struggle while suggesting the possibility of renewal through acceptance and change.</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11112,6 +12181,19 @@
       <c r="U132" t="inlineStr"/>
       <c r="V132" t="inlineStr"/>
       <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr">
+        <is>
+          <t># Summary
+*Thor: Tales of Asgard* meets viewers' desires for:
+- **Coming-of-age storytelling** - Following a young Thor's journey from impulsive youth to responsible hero
+- **Fantasy adventure escapism** - Exploring the mythological realm of Asgard with magic, monsters, and epic quests
+- **Character origin stories** - Discovering the backstory of popular Marvel characters like Thor and Loki
+- **Action and spectacle** - Delivering animated battle sequences and visual excitement
+- **Themes of friendship and loyalty** - Exploring the bond between Thor and his companions
+- **Moral lessons** - Teaching about consequences, humility, and personal growth through Thor's mistakes and redemption
+- **Accessible superhero content** - Providing family-friendly entertainment for younger Marvel fans</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11197,6 +12279,11 @@
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="inlineStr"/>
       <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>"Blitz" meets viewers' desires for historical drama and emotional storytelling by depicting London during World War II through the journey of a mother searching for her son amid the Blitz bombings. The film satisfies needs for compelling wartime narratives, themes of resilience and family bonds, visual spectacle of period recreation, and exploration of both personal and collective trauma during one of history's most significant conflicts.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11282,6 +12369,20 @@
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="inlineStr"/>
       <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr">
+        <is>
+          <t># Red State: Viewer Desires and Needs Met
+**Red State** (2011) satisfies viewers seeking:
+- **Transgressive horror-thriller content** that defies genre conventions and expectations
+- **Political/religious commentary** exploring American extremism and fundamentalism
+- **Intense, claustrophobic tension** with unpredictable narrative turns
+- **Provocative social criticism** of institutional violence (both religious zealotry and government overreach)
+- **Auteur filmmaking** from Kevin Smith venturing outside his comfort zone
+- **Visceral, unsettling experiences** that challenge rather than comfort
+- **Dark satire** addressing contemporary fears about radicalization and abuse of power
+The film appeals to audiences wanting challenging, socially conscious horror that prioritizes ideas and discomfort over traditional scares.</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11367,6 +12468,13 @@
       <c r="U135" t="inlineStr"/>
       <c r="V135" t="inlineStr"/>
       <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Warrior"
+**Warrior** (2011) satisfies several key viewer needs:
+**Emotional catharsis** - The film delivers powerful family drama and reconciliation, allowing audiences to experience deep emotional release through the broken relationship between father and sons. **Underdog triumph** - Both brothers represent different types of underdogs fighting against overwhelming odds, fulfilling the desire to see determination rewarded. **Authentic action** - Intense, realistic MMA fight sequences provide visceral thrills and spectacle for action enthusiasts. **Moral complexity** - The film avoids simple heroes and villains, instead presenting flawed characters worthy of empathy, satisfying viewers who appreciate nuanced storytelling. **Redemption narrative** - Multiple characters seek second chances (the father's sobriety, the brothers' reconciliation), appealing to universal hopes for personal transformation and forgiveness. **Masculine emotional expression** - Provides a framework for exploring male vulnerability, pain, and connection through the socially acceptable vehicle of combat sports.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11452,6 +12560,11 @@
       <c r="U136" t="inlineStr"/>
       <c r="V136" t="inlineStr"/>
       <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr">
+        <is>
+          <t>"Abduction" meets viewer desires for fast-paced action and suspense, featuring a young protagonist discovering his true identity while evading dangerous pursuers. The film appeals to audiences seeking escapist entertainment with chase sequences, fight scenes, romantic tension, and a mystery-driven plot. It also capitalizes on the appeal of its young star, Taylor Lautner, targeting teen and young adult audiences looking for a thriller with relatable coming-of-age elements mixed with high-stakes adventure.</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11529,6 +12642,11 @@
       <c r="U137" t="inlineStr"/>
       <c r="V137" t="inlineStr"/>
       <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>"Fred 2: Night of the Living Fred" meets viewers' desires for lighthearted, family-friendly comedy and entertainment featuring the popular YouTube character Fred Figglehorn. The film appeals to young audiences and fans of the original Fred content who enjoy slapstick humor, exaggerated characters, and a simple Halloween-themed adventure story that doesn't require serious emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11614,6 +12732,13 @@
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="inlineStr"/>
       <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Black Rock
+**Black Rock** (2012) appeals to viewers seeking:
+- **Survival thriller tension** - The film delivers suspense through a life-or-death scenario where three women must outsmart and outfight dangerous men on an isolated island. - **Female empowerment narrative** - It provides a story where women transform from victims to fighters, taking agency and using strength and strategy to survive. - **Psychological drama** - The film explores fractured friendships and past conflicts being tested under extreme pressure. - **Revenge/justice satisfaction** - Viewers experience catharsis as the protagonists turn the tables on their attackers. - **Minimalist, raw filmmaking** - Appeals to audiences who appreciate stripped-down, realistic indie horror-thrillers without excessive special effects. - **Social commentary** - Addresses themes of male violence against women and toxic masculinity, resonating with viewers interested in feminist perspectives in genre films.</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11699,6 +12824,18 @@
       <c r="U139" t="inlineStr"/>
       <c r="V139" t="inlineStr"/>
       <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t># Summary
+**Good Deeds** (2012) meets viewer desires for:
+- **Escapist fantasy**: A wealthy businessman transforms his life through an unexpected romance with a struggling single mother
+- **Romantic fulfillment**: The central love story offers emotional satisfaction and hope for transformative relationships
+- **Social conscience validation**: The film addresses class differences and homelessness while providing feel-good charitable resolution
+- **Moral affirmation**: Viewers see goodness rewarded and personal growth through helping others
+- **Aspirational lifestyle**: Displays wealth and success while suggesting money isn't everything
+- **Emotional catharsis**: The protagonist's journey from constrained corporate life to personal freedom resonates with desires for self-discovery and breaking free from societal expectations</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11784,6 +12921,20 @@
       <c r="U140" t="inlineStr"/>
       <c r="V140" t="inlineStr"/>
       <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t># Summary
+**The Hunger Games** meets viewers' desires for:
+- **Empowerment and rebellion** - watching an underdog challenge oppressive authority
+- **Survival tension** - experiencing high-stakes life-or-death competition from safety
+- **Social commentary** - exploring themes of inequality, media manipulation, and class warfare
+- **Strong protagonist identification** - connecting with Katniss as a capable, relatable hero
+- **Romance and relationships** - engaging with emotional connections amid conflict
+- **Escapist spectacle** - enjoying dystopian world-building and action sequences
+- **Moral complexity** - grappling with ethical dilemmas about violence and survival
+The film satisfies both entertainment needs (action, drama, romance) and deeper psychological desires for justice, autonomy, and resistance against unfair systems.</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11853,6 +13004,11 @@
       <c r="U141" t="inlineStr"/>
       <c r="V141" t="inlineStr"/>
       <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>"Adventures in Lalaloopsy Land: The Search for Pillow" meets young viewers' desires for colorful, gentle entertainment featuring friendship and teamwork. The film provides comfort through its predictable, low-stakes narrative, appealing visuals based on the popular doll franchise, and positive messages about helping others and working together. It satisfies children's need for familiar characters, simple problem-solving adventures, and reassuring stories where friends overcome challenges through cooperation.</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11938,6 +13094,11 @@
       <c r="U142" t="inlineStr"/>
       <c r="V142" t="inlineStr"/>
       <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>"Safe" meets viewers' desires for psychological horror that explores environmental illness, social alienation, and modern anxieties about contamination and control. It appeals to those seeking ambiguous, art-house cinema that critiques consumerism, wellness culture, and the vulnerability of middle-class existence without providing easy answers or conventional narrative resolution.</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12023,6 +13184,12 @@
       <c r="U143" t="inlineStr"/>
       <c r="V143" t="inlineStr"/>
       <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t># Summary
+"What to Expect When You're Expecting" meets viewer desires for relatable content about pregnancy and parenthood, offering validation of the diverse experiences—both joyful and challenging—that come with expecting a baby. The ensemble cast appeals to audiences seeking lighthearted entertainment with emotional resonance, while the film provides comfort through shared struggles with fertility, adoption, body changes, and relationship dynamics. It satisfies the need for representation of different family-building journeys and offers humor as a coping mechanism for an often stressful life transition.</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12104,6 +13271,11 @@
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="inlineStr"/>
       <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>"Mighty Fine" meets viewers' desires for family drama that explores the complexities of maintaining appearances while dealing with personal struggles. The film appeals to audiences interested in stories about family dysfunction, the dark side of the American Dream, and the impact of a charismatic but troubled patriarch on his wife and daughters. It satisfies viewers seeking emotionally intense narratives about economic hardship, domestic tension, and the resilience of family bonds during crisis.</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12189,6 +13361,20 @@
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="inlineStr"/>
       <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t># Step Up Revolution: Viewer Desires and Needs Met
+**Step Up Revolution** satisfies viewers' desires for:
+- **Visual spectacle and entertainment** through elaborate, high-energy dance sequences and flash mob performances
+- **Escapism** via a vibrant Miami setting and fantasy of artistic rebellion against corporate power
+- **Empowerment themes** showing young people using creativity to fight injustice and make their voices heard
+- **Romance** with an appealing love story between dancers from different social backgrounds
+- **Wish fulfillment** depicting ordinary people achieving viral fame and recognition for their talents
+- **Community and belonging** through the portrayal of a tight-knit dance crew as chosen family
+- **Underdog triumph** as working-class characters challenge wealthy developers threatening their neighborhood
+The film provides feel-good entertainment that combines impressive choreography with accessible themes of resistance, creativity, and following your dreams.</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12274,6 +13460,13 @@
       <c r="U146" t="inlineStr"/>
       <c r="V146" t="inlineStr"/>
       <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t># The Expendables 2: Viewer Desires Met
+**The Expendables 2** satisfies several key audience desires:
+**Nostalgia** - Features 1980s-90s action stars (Stallone, Schwarzenegger, Willis, Van Damme, Norris) reunited on screen, appealing to fans who grew up with these icons. **Escapism and spectacle** - Delivers explosive, over-the-top action sequences, stunts, and violence that provide pure entertainment without complex plots. **Male camaraderie fantasy** - Showcases brotherhood, loyalty, and teamwork among tough warriors, fulfilling desires for masculine bonding and honor codes. **Simple good vs. evil narrative** - Offers clear-cut heroes and villains with straightforward morality, providing satisfaction through predictable justice. **Power fantasy** - Allows viewers to vicariously experience physical dominance, combat skills, and invincibility through superhuman characters. **Self-aware humor** - Includes meta-jokes and references that reward longtime action fans while acknowledging the film's intentional camp value. The film essentially serves as comfort food for</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12359,6 +13552,18 @@
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="inlineStr"/>
       <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "The Possession" Meets
+"The Possession" (2012) satisfies viewers' desires for supernatural horror thrills, particularly appealing to those interested in Jewish mysticism and dybbuk folklore. The film meets needs for:
+- **Family-centered horror** that explores parental fears and divorce dynamics
+- **Religious/cultural intrigue** through its focus on Jewish exorcism traditions (less common than Christian-themed horror)
+- **Visceral scares** with body horror and possession elements
+- **Protective parent narratives** showing a father fighting to save his daughter
+- **"Based on true events" appeal** for audiences seeking supposedly real paranormal stories
+The film provides escapist entertainment while tapping into universal anxieties about family dissolution, children in danger, and malevolent forces threatening domestic safety.</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12444,6 +13649,12 @@
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="inlineStr"/>
       <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t># Summary
+*The Bay* (2012) meets viewer desires for eco-horror thrills and found-footage suspense. It satisfies audiences seeking cautionary environmental tales about pollution and government cover-ups, while delivering body horror through parasitic infection. The film appeals to fans of disaster movies and mockumentary-style storytelling, offering visceral scares and social commentary about ecological negligence and its consequences.</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12525,6 +13736,11 @@
       <c r="U149" t="inlineStr"/>
       <c r="V149" t="inlineStr"/>
       <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>I don't have any information about "The Yummy Gummy Search for Santa" in my knowledge base, so I cannot provide details about what viewer desires or needs this film meets.</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12586,6 +13802,17 @@
       <c r="U150" t="inlineStr"/>
       <c r="V150" t="inlineStr"/>
       <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>"Thomas &amp; Friends: Sticky Situations" meets young viewers' desires for:
+- **Simple problem-solving narratives** where relatable challenges (getting stuck, making messes, fixing mistakes) are resolved through teamwork and perseverance
+- **Familiar characters** they trust, providing comfort and predictability
+- **Moral lessons** about responsibility, helping friends, and learning from errors in gentle, age-appropriate ways
+- **Colorful, engaging visuals** with trains and movement that captivate preschool attention spans
+- **Safe entertainment** that parents approve of, combining education with fun
+The compilation format satisfies the desire for multiple short stories that match young children's limited attention spans while reinforcing positive social values.</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12671,6 +13898,11 @@
       <c r="U151" t="inlineStr"/>
       <c r="V151" t="inlineStr"/>
       <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>"Stand Up Guys" meets viewer desires for nostalgic entertainment featuring beloved veteran actors (Al Pacino, Christopher Walken, Alan Arkin), blending crime drama with dark comedy and themes of friendship, loyalty, and aging. It appeals to audiences seeking a character-driven story about older protagonists confronting mortality while maintaining their dignity and bond, offering both action and emotional depth with bittersweet humor about growing old but staying true to one's code.</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12744,6 +13976,11 @@
       <c r="U152" t="inlineStr"/>
       <c r="V152" t="inlineStr"/>
       <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Aztec Warrior" in my knowledge base. Without knowing the particular film you're referring to (as there may be multiple films with similar titles), I cannot accurately describe what viewer desires or needs it meets. If you could provide additional details like the release year or director, I might be able to help better.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -12829,6 +14066,19 @@
       <c r="U153" t="inlineStr"/>
       <c r="V153" t="inlineStr"/>
       <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Texas Chainsaw 3D
+**Texas Chainsaw 3D** (2013) satisfies several audience desires:
+- **Nostalgia and franchise continuity**: Direct sequel to the 1974 original, appealing to long-time fans
+- **Visceral thrills and gore**: Delivers expected slasher violence and graphic kills
+- **3D spectacle**: Exploits the format for immersive jump scares and flying debris effects
+- **Moral justice/revenge**: Provides catharsis through the protagonist's discovery of family betrayal and her vengeful turn
+- **Transgressive pleasure**: Offers the controversial satisfaction of rooting for the killer (Leatherface) by film's end
+- **Escapist entertainment**: Low-stakes horror viewing that doesn't require deep engagement
+The film primarily serves fans seeking familiar franchise elements with updated technical presentation.</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -12914,6 +14164,18 @@
       <c r="U154" t="inlineStr"/>
       <c r="V154" t="inlineStr"/>
       <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t># Summary
+**The Last Stand** meets viewer desires for:
+- **Nostalgic action entertainment** - Arnold Schwarzenegger's return to leading action roles appeals to fans of classic 80s/90s action cinema
+- **Straightforward heroism** - A clear good vs. evil story with a likeable small-town sheriff standing against criminals
+- **Escapist spectacle** - High-octane shootouts, car chases, and explosive set pieces provide visceral thrills
+- **Underdog triumph** - Satisfaction from seeing ordinary people in a rural town defeating sophisticated villains
+- **Humor and self-awareness** - The film balances serious action with comic relief and doesn't take itself too seriously
+- **Justice and moral clarity** - The film delivers a satisfying resolution where good prevails and the hero protects his community</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -12975,6 +14237,11 @@
       <c r="U155" t="inlineStr"/>
       <c r="V155" t="inlineStr"/>
       <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>"Lalaloopsy: A Sew Magical Tale" meets young children's desires for colorful, whimsical entertainment featuring friendship, creativity, and problem-solving. The film appeals to fans of the Lalaloopsy doll franchise while providing gentle life lessons about teamwork, imagination, and helping others. It offers parents a safe, age-appropriate viewing option that promotes positive values and social skills for preschool and early elementary-aged viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13060,6 +14327,19 @@
       <c r="U156" t="inlineStr"/>
       <c r="V156" t="inlineStr"/>
       <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Temptation: Confessions of a Marriage Counselor"
+The film satisfies viewers' desires for:
+1. **Moral cautionary tales** - Appeals to audiences seeking stories with clear consequences for infidelity and straying from values
+2. **Melodrama and emotional intensity** - Provides heightened romantic conflict, betrayal, and dramatic confrontations
+3. **Religious/faith-based messaging** - Meets the needs of Christian audiences looking for content reinforcing traditional marriage values and redemption themes
+4. **Escapist fantasy** - Offers glamorous settings, attractive characters, and the thrill of forbidden romance before its consequences
+5. **Tyler Perry's signature style** - Satisfies fans of Perry's particular brand of morality plays with broad performances and clear good vs. evil dynamics
+6. **Cautionary satisfaction** - Fulfills the desire to see "what happens when you make bad choices" in a predictable, safely fictional context
+The film primarily appeals to audiences seeking entertainment that reinforces traditional values through dramatic negative examples.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13145,6 +14425,18 @@
       <c r="U157" t="inlineStr"/>
       <c r="V157" t="inlineStr"/>
       <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Needs Met by "Disconnect"
+**Disconnect** fulfills viewers' desires for:
+1. **Social relevance** - addresses contemporary anxieties about technology, privacy, and digital communication's impact on human relationships
+2. **Emotional catharsis** - provides intense dramatic moments involving cyberbullying, identity theft, and family crisis that allow audiences to process real-world fears
+3. **Multiple perspectives** - the interconnected storylines satisfy the desire for complex narratives that show how technology affects different demographics (teens, parents, journalists)
+4. **Cautionary insight** - meets the need for understanding digital-age dangers and their consequences
+5. **Human connection** - despite its title, ultimately affirms the importance of authentic relationships, satisfying viewers' desire for meaningful resolution
+The film serves as both a mirror to modern digital life and a warning about maintaining genuine human connection in an increasingly virtual world.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13230,6 +14522,20 @@
       <c r="U158" t="inlineStr"/>
       <c r="V158" t="inlineStr"/>
       <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Hummingbird
+**Hummingbird** (2013) satisfies viewers seeking:
+- **Action and violence** - Features intense fight sequences and vigilante justice
+- **Redemption narratives** - Follows a damaged protagonist seeking to atone for past sins
+- **Moral complexity** - Explores grey areas between right and wrong through its ex-special forces homeless protagonist
+- **Romance and connection** - Provides emotional depth through the relationship with a nun
+- **Transformation stories** - Shows a man rebuilding his life from rock bottom
+- **Social commentary** - Addresses homelessness, PTSD, and urban poverty
+- **Jason Statham's star persona** - Delivers the tough-guy action performance his fans expect while adding dramatic depth
+The film appeals to action fans wanting substance and drama audiences interested in gritty, urban character studies.</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13303,6 +14609,11 @@
       <c r="U159" t="inlineStr"/>
       <c r="V159" t="inlineStr"/>
       <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about a film called "American Idiots." There may be confusion with the Green Day album "American Idiot" (2004) or its Broadway musical adaptation, but I cannot provide accurate information about viewer desires met by a specific film with that title without risking misinformation.</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13388,6 +14699,19 @@
       <c r="U160" t="inlineStr"/>
       <c r="V160" t="inlineStr"/>
       <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t># The Frozen Ground - Viewer Desires Met
+**The Frozen Ground** (2013) satisfies viewers seeking a gritty crime thriller based on true events. It appeals to those interested in:
+- **True crime stories** - depicting the real-life hunt for serial killer Robert Hansen in Alaska
+- **Cat-and-mouse suspense** - following the detective's pursuit of a cunning predator
+- **Strong performances** - featuring Nicolas Cage and John Cusack in serious dramatic roles
+- **Justice narratives** - showing law enforcement's dedication to protecting vulnerable victims
+- **Atmospheric tension** - utilizing Alaska's harsh, isolated landscape to enhance the dark story
+- **Survivor stories** - highlighting the courage of victims who escape and seek justice
+The film meets the desire for psychological suspense grounded in reality, with moral resolution through the capture of a dangerous criminal.</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13473,6 +14797,13 @@
       <c r="U161" t="inlineStr"/>
       <c r="V161" t="inlineStr"/>
       <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by "All Is Lost"
+**All Is Lost** satisfies several key viewer desires:
+**Survival and resilience**: The film taps into the primal human fascination with survival against overwhelming odds, allowing viewers to experience extreme perseverance vicariously. **Minimalist storytelling**: It meets the desire for pure, visual cinema stripped of dialogue and exposition, appealing to audiences seeking an immersive, meditative experience. **Existential contemplation**: The film provides space for reflection on mortality, isolation, and human determination, satisfying viewers drawn to philosophical or introspective narratives. **Technical admiration**: It fulfills appreciation for masterful filmmaking craft, including Robert Redford's nearly wordless performance and the realistic portrayal of maritime challenges. **Emotional catharsis**: The intense struggle offers emotional release through tension, despair, and ultimate hope, meeting the need for a profound emotional journey.</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13558,6 +14889,19 @@
       <c r="U162" t="inlineStr"/>
       <c r="V162" t="inlineStr"/>
       <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Nurse 3-D
+**Nurse 3-D** appeals to audiences seeking:
+- **Exploitation thrills** - The film delivers campy, over-the-top violence and sexuality characteristic of grindhouse-style entertainment
+- **Guilty pleasure viewing** - Its intentionally ridiculous premise and B-movie aesthetics attract viewers wanting deliberately "bad" but entertaining content
+- **Sexual titillation** - Features provocative imagery and erotic elements marketed through its premise and visual style
+- **Horror-thriller excitement** - Provides slasher film elements with a vengeful killer antagonist
+- **Dark humor** - Combines horror with campy, tongue-in-cheek presentation that doesn't take itself seriously
+- **Nostalgia for exploitation cinema** - Recreates the aesthetic of 1970s-80s sexploitation and horror films for modern audiences
+The film targets viewers who enjoy trashy, sensationalized entertainment that prioritizes spectacle over substance.</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13623,6 +14967,11 @@
       <c r="U163" t="inlineStr"/>
       <c r="V163" t="inlineStr"/>
       <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>"Alpha and Omega 2: A Howl-iday Adventure" meets viewer desires for family-friendly entertainment, particularly appealing to young children. It provides lighthearted humor, cute animal characters, holiday themes that create seasonal warmth, simple moral lessons about family and friendship, and non-threatening conflict resolution. The film serves as accessible, safe content for parents seeking harmless entertainment to occupy children, with familiar characters from the franchise offering continuity for fans of the original movie.</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13708,6 +15057,19 @@
       <c r="U164" t="inlineStr"/>
       <c r="V164" t="inlineStr"/>
       <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t># Escape Plan: Viewer Desires Met
+**Escape Plan** satisfies audiences seeking:
+- **Action and suspense** - High-stakes prison break sequences with physical confrontations
+- **Intellectual stimulation** - Puzzle-solving elements as the protagonist uses expertise to analyze prison weaknesses
+- **Star power nostalgia** - Reunion of action icons Stallone and Schwarzenegger
+- **Underdog triumph** - Vicarious satisfaction of outsmarting an oppressive system
+- **Masculine heroism** - Traditional action-hero archetypes overcoming impossible odds
+- **Escapist entertainment** - Fast-paced thriller providing distraction from everyday life
+- **Justice and revenge** - Emotional payoff of seeing wronged characters prevail against corrupt authority</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -13793,6 +15155,13 @@
       <c r="U165" t="inlineStr"/>
       <c r="V165" t="inlineStr"/>
       <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t># Viewer Desires and Needs Met by The Hunger Games: Catching Fire
+**The Hunger Games: Catching Fire** satisfies several key viewer desires:
+**Escapism and spectacle** - The film provides visually stunning dystopian world-building, elaborate costumes, and intense action sequences that transport audiences from everyday life. **Empowerment and resistance** - Viewers experience vicarious satisfaction through Katniss's defiance against oppressive authority, appealing to desires for justice and standing up to tyranny. **Romantic tension** - The love triangle between Katniss, Peeta, and Gale fulfills desires for emotional drama and relationship intrigue. **Survival and competition** - The life-or-death arena setting taps into primal interests in watching skilled individuals overcome deadly challenges. **Social commentary** - The film addresses real-world concerns about inequality, media manipulation, and authoritarian control, satisfying viewers' need for meaningful content. **Identification with a strong protagonist** - Katniss serves as an aspirational figure, particularly for young women seeking capable, complex heroes. **Community and solidarity** - The alliance-building</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -13878,6 +15247,20 @@
       <c r="U166" t="inlineStr"/>
       <c r="V166" t="inlineStr"/>
       <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t># The Railway Man - Viewer Needs Met
+**The Railway Man** satisfies viewers' desires for:
+- **Emotional catharsis** through a powerful story of trauma and healing
+- **Historical education** about WWII POW experiences and the Thai-Burma Railway
+- **Moral complexity** exploring themes of forgiveness, revenge, and reconciliation
+- **Strong performances** from Colin Firth and Stellan Skarsgård
+- **Romance and human connection** as a subplot offering hope
+- **Justice and closure** as the protagonist confronts his past tormentor
+- **Inspiration** showing the possibility of overcoming deep psychological wounds
+The film appeals to audiences interested in war dramas, true stories, and character-driven narratives about resilience and redemption.</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -13940,6 +15323,11 @@
       <c r="U167" t="inlineStr"/>
       <c r="V167" t="inlineStr"/>
       <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>"Bob the Builder: Animal Adventures" meets young children's desires for entertainment featuring friendly characters, simple problem-solving stories, and positive messages about teamwork and helping others. The animal theme appeals to kids' natural interest in creatures while providing educational content about construction, cooperation, and caring for animals in an accessible, non-threatening format that parents trust for preschool-aged viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14025,6 +15413,11 @@
       <c r="U168" t="inlineStr"/>
       <c r="V168" t="inlineStr"/>
       <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>"A Madea Christmas" meets viewers' desires for lighthearted holiday entertainment, family-oriented comedy, and feel-good messages about forgiveness, community unity, and Christmas spirit. The film appeals to fans of Tyler Perry's Madea character who enjoy physical comedy and cultural humor, while also providing themes of overcoming prejudice and celebrating togetherness that resonate during the holiday season.</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14094,6 +15487,13 @@
       <c r="U169" t="inlineStr"/>
       <c r="V169" t="inlineStr"/>
       <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t># Summary
+*The Gospel of Matthew* (1964) meets viewers' desires for:
+**Spiritual/Religious fulfillment** - Provides a faithful, reverent presentation of Scripture for believers seeking connection with Christ's life and teachings. **Artistic/Aesthetic appreciation** - Offers stark, beautiful black-and-white cinematography and neorealist style that appeals to cinephiles. **Educational value** - Serves as an accessible visual introduction to biblical narrative for those seeking to understand Christian foundations. **Emotional resonance** - Delivers moments of compassion, suffering, and transcendence that satisfy needs for meaningful, contemplative cinema. **Authenticity** - Uses direct biblical text and non-professional actors to create an unadorned, historically grounded experience that counters Hollywood spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14179,6 +15579,20 @@
       <c r="U170" t="inlineStr"/>
       <c r="V170" t="inlineStr"/>
       <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires I, Frankenstein Meets
+**I, Frankenstein** appeals to viewers seeking:
+- **Action-packed entertainment** with extensive fight sequences and visual effects
+- **Fantasy/supernatural escapism** featuring demons, gargoyles, and immortal creatures
+- **Familiar mythology reimagined** through a dark, modern twist on Mary Shelley's classic
+- **Simple good-vs-evil narratives** with clear heroic journeys and minimal moral complexity
+- **Visual spectacle** with CGI battles and gothic aesthetics
+- **Power fantasy** centered on an nearly indestructible protagonist with superhuman abilities
+- **Short runtime thrill** (92 minutes) for quick, undemanding viewing
+The film essentially serves viewers wanting a straightforward supernatural action movie with recognizable IP and blockbuster-style presentation.</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14252,6 +15666,19 @@
       <c r="U171" t="inlineStr"/>
       <c r="V171" t="inlineStr"/>
       <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t># Care Bears: The Care-A-Thon Games - Viewer Needs Met
+This film meets young children's desires for:
+- **Positive social-emotional learning** through themes of teamwork, friendship, and caring for others
+- **Colorful, gentle entertainment** with bright animation and non-threatening content appropriate for preschoolers
+- **Moral guidance** presenting clear lessons about cooperation, kindness, and helping friends
+- **Familiar characters** that provide comfort and predictability for young fans of the Care Bears franchise
+- **Family-friendly viewing** that parents can trust as safe, wholesome content without violence or scary elements
+- **Light conflict resolution** showing how to overcome challenges through caring and working together
+The film primarily serves parents seeking educational entertainment that reinforces prosocial values for children ages 2-6.</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14337,6 +15764,13 @@
       <c r="U172" t="inlineStr"/>
       <c r="V172" t="inlineStr"/>
       <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t># The Single Moms Club - Viewer Desires and Needs Met
+**The Single Moms Club** (2014) meets several key viewer desires:
+**Representation and Validation**: Single mothers see their struggles, challenges, and triumphs reflected on screen, providing a sense of being seen and understood. **Community and Connection**: The film fulfills the need for stories about friendship, support networks, and women helping each other through difficult times. **Escapism with Relatability**: Offers lighthearted entertainment while addressing real issues like financial stress, dating as a parent, and work-life balance. **Empowerment**: Provides uplifting messages about female strength, resilience, and the ability to overcome obstacles. **Romance and Hope**: Includes romantic subplots that offer wish fulfillment and optimism about finding love while raising children alone. **Comedy Relief**: Delivers humor and feel-good moments that provide stress relief for audiences dealing with similar real-life pressures.</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14406,6 +15840,13 @@
       <c r="U173" t="inlineStr"/>
       <c r="V173" t="inlineStr"/>
       <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t># Alpha and Omega 3: The Great Wolf Games - Viewer Appeal Summary
+This direct-to-video animated film primarily meets the needs of:
+**Young children (ages 4-8)** seeking familiar characters and simple entertainment. The film provides colorful animation, anthropomorphic animal characters, slapstick humor, and straightforward storylines about friendship and teamwork. **Parents** looking for inexpensive, readily available home entertainment that keeps young children occupied with G-rated content featuring positive messages about family values, cooperation, and perseverance. **Fans of the franchise** who desire continuation of the Alpha and Omega series, offering comfort through recognizable characters and predictable story structures. The film serves as accessible, undemanding viewing that requires minimal parental supervision while delivering conventional moral lessons in an animated animal adventure format.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14491,6 +15932,18 @@
       <c r="U174" t="inlineStr"/>
       <c r="V174" t="inlineStr"/>
       <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires Draft Day Fulfills
+**Draft Day** meets viewers' desires for:
+1. **Behind-the-scenes access** - Satisfies curiosity about the secretive NFL draft process and high-stakes sports management decisions
+2. **Tension and suspense** - Delivers time-pressure drama through the ticking clock of draft day with career-defining choices
+3. **Underdog triumph** - Provides the satisfying narrative of a struggling GM proving doubters wrong through cleverness rather than resources
+4. **Insider expertise** - Appeals to sports fans who want to feel knowledgeable about draft strategy, trades, and team-building
+5. **Wish fulfillment** - Lets viewers fantasize about being the mastermind making crucial decisions that affect a beloved sports franchise
+6. **Emotional stakes** - Balances professional drama with personal conflict (family, relationships) for broader appeal beyond just sports fans</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14576,6 +16029,20 @@
       <c r="U175" t="inlineStr"/>
       <c r="V175" t="inlineStr"/>
       <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Joe" (2013)
+The film "Joe" satisfies viewers seeking:
+- **Gritty realism** and authentic portrayals of working-class Southern life
+- **Complex character studies** exploring moral ambiguity and redemption
+- **Raw, intense performances** (particularly Nicolas Cage's comeback role)
+- **Father-figure narratives** examining masculinity and mentorship
+- **Social commentary** on poverty, abuse, and survival in rural America
+- **Slow-burn tension** building toward violent catharsis
+- **Authentic atmosphere** over conventional plot structure
+The film appeals to audiences interested in dark, character-driven indie dramas that don't offer easy answers or conventional heroism.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14653,6 +16120,18 @@
       <c r="U176" t="inlineStr"/>
       <c r="V176" t="inlineStr"/>
       <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t># Summary
+**Burning Blue** (2013) meets viewer desires for:
+- **LGBTQ+ representation** - exploring gay identity in the restrictive military environment of "Don't Ask, Don't Tell"
+- **Forbidden romance drama** - the tension and risk of a secret relationship between naval aviators
+- **Military thriller elements** - investigating mysterious aircraft accidents creates suspense
+- **Social justice themes** - examining institutionalized discrimination and personal integrity vs. duty
+- **Character-driven storytelling** - intimate psychological exploration of identity, shame, and courage under pressure
+The film appeals to audiences seeking thoughtful LGBTQ+ narratives set against high-stakes professional and moral conflicts.</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14734,6 +16213,11 @@
       <c r="U177" t="inlineStr"/>
       <c r="V177" t="inlineStr"/>
       <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>"They Came Together" meets viewer desires for comedy that satirizes romantic comedy clichés and conventions. It appeals to audiences who enjoy self-aware, meta-humor and parody films that mock the predictable tropes of the rom-com genre while simultaneously delivering laughs through absurdist comedy and over-the-top performances from its cast, including Paul Rudd and Amy Poehler.</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -14795,6 +16279,13 @@
       <c r="U178" t="inlineStr"/>
       <c r="V178" t="inlineStr"/>
       <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t># Alpha and Omega: The Legend of the Saw Tooth Cave - Viewer Appeal Summary
+This animated film meets several viewer desires:
+**Family Entertainment**: Provides safe, child-appropriate content parents can watch with young children without concern. **Adventure and Excitement**: Delivers action-packed sequences and suspenseful moments that keep young audiences engaged. **Familiar Characters**: Continues a franchise with established characters that existing fans want to see more of. **Humor**: Offers lighthearted comedy and slapstick moments aimed at entertaining children. **Positive Messages**: Reinforces themes of teamwork, courage, family bonds, and problem-solving that parents appreciate. **Accessible Viewing**: Serves as easy, undemanding entertainment requiring minimal attention or emotional investment—ideal for casual family movie time or keeping children occupied.</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -14880,6 +16371,11 @@
       <c r="U179" t="inlineStr"/>
       <c r="V179" t="inlineStr"/>
       <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>"My Man Is a Loser" is a romantic comedy that appeals to viewers seeking light entertainment about relationship struggles and male friendship. It meets the desire for wish-fulfillment scenarios where struggling husbands learn to rekindle romance with their wives, offers comedic relief through awkward situations, and provides reassurance that marital problems can be overcome with effort and outside help. The film caters to audiences looking for accessible, low-stakes comedy about relatable relationship dynamics without requiring deep emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -14965,6 +16461,21 @@
       <c r="U180" t="inlineStr"/>
       <c r="V180" t="inlineStr"/>
       <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t># A Most Wanted Man: Viewer Desires and Needs Met
+**A Most Wanted Man** satisfies viewers seeking:
+- **Intelligent espionage thriller**: A cerebral, realistic spy story without action clichés
+- **Moral complexity**: Exploration of ethical ambiguities in counter-terrorism and intelligence work
+- **Character-driven drama**: Nuanced performances, particularly Philip Seymour Hoffman's final lead role
+- **Timely relevance**: Commentary on post-9/11 security policies, surveillance, and civil liberties
+- **Atmospheric tension**: Slow-burn suspense that rewards patient viewers
+- **Critique of bureaucracy**: Examination of interagency conflicts and political cynicism
+- **Literary adaptation**: Faithful rendering of John le Carré's sophisticated storytelling
+- **European perspective**: German setting offering a non-American viewpoint on global security
+The film appeals to audiences who prefer thought-provoking dramas over conventional thrillers.</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15050,6 +16561,21 @@
       <c r="U181" t="inlineStr"/>
       <c r="V181" t="inlineStr"/>
       <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t># The Expendables 3: Viewer Desires and Needs Met
+**The Expendables 3** appeals to audiences seeking:
+- **Nostalgia**: Features action stars from the 1980s-90s (Stallone, Schwarzenegger, Lundgren, Snipes), fulfilling longing for classic action cinema
+- **Escapism**: Over-the-top action sequences and stunts provide relief from everyday reality
+- **Spectacle**: Large-scale explosions, gunfights, and set pieces satisfy desire for visual excitement
+- **Simplicity**: Straightforward good-vs-evil plot offers uncomplicated entertainment
+- **Male bonding/camaraderie**: Team dynamics appeal to viewers valuing loyalty and brotherhood
+- **Power fantasy**: Heroic characters overcoming overwhelming odds fulfills wish for strength and capability
+- **Familiar comfort**: Delivers expected genre conventions without surprises, meeting desire for predictable entertainment
+- **Star power**: Ensemble cast of recognizable faces provides celebrity appeal and novelty of seeing icons together
+The film primarily serves viewers wanting unchallenging, testosterone-driven action entertainment with nostalgic appeal.</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -15135,6 +16661,19 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Leprechaun: Origins
+**Leprechaun: Origins** appeals to viewers seeking:
+- **Horror creature feature thrills** - A dark, monster-focused slasher with a menacing antagonist
+- **Gore and violence** - Graphic kills and brutal practical effects for horror fans
+- **Simple escapist entertainment** - Straightforward survival horror without complex plots
+- **Franchise curiosity** - Interest in seeing a grittier reboot of the Leprechaun series
+- **WWE wrestling fan crossover** - Features wrestler Dylan "Hornswoggle" Postl in the title role
+- **Low-budget horror nostalgia** - Appeals to fans of direct-to-video creature features and B-movies
+The film serves audiences looking for visceral, no-frills monster horror rather than the campy tone of earlier Leprechaun films.</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15192,6 +16731,19 @@
       <c r="U183" t="inlineStr"/>
       <c r="V183" t="inlineStr"/>
       <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t># Summary
+**SPYMASTER: John le Carré in Hamburg** meets viewer desires for:
+- **Literary insight**: Behind-the-scenes look at how le Carré's espionage experiences shaped his writing
+- **Historical context**: Understanding of Cold War espionage and its influence on contemporary spy fiction
+- **Biographical curiosity**: Personal story of le Carré's time as an actual intelligence officer in Hamburg
+- **Authenticity**: Connection between real spy craft and the acclaimed novels that emerged from it
+- **Cultural appreciation**: Exploration of how a specific place (Hamburg) influenced iconic thriller literature
+- **Intellectual engagement**: Deeper understanding of the intersection between lived experience and creative work in the spy genre
+The film appeals to fans of le Carré's work, espionage history enthusiasts, and those interested in the creative process of acclaimed writers.</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15273,6 +16825,18 @@
       <c r="U184" t="inlineStr"/>
       <c r="V184" t="inlineStr"/>
       <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t># Summary
+"What We Did on Our Holiday" meets viewers' desires for heartwarming family comedy that balances humor with emotional depth. The film appeals to audiences seeking:
+- **Relatable family dysfunction** - portraying the chaos and tensions of imperfect families in an honest yet comedic way
+- **Child-centered perspective** - offering refreshing honesty through children's unfiltered observations about adult problems
+- **Feel-good escapism** - set against beautiful Scottish Highland scenery
+- **Emotional catharsis** - blending laughter with poignant moments about grief, family bonds, and life's fragility
+- **Authentic British humor** - featuring witty dialogue and situational comedy that feels genuine rather than formulaic
+The film satisfies those wanting a comedy that doesn't shy away from real issues like divorce, aging, and death, while ultimately affirming family connections and life's joyful moments.</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15358,6 +16922,18 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t># Summary
+**Cooties** (2014) meets viewer desires for horror-comedy entertainment by combining zombie apocalypse thrills with dark humor. The film satisfies audiences seeking:
+- **Gore and grotesque imagery** - infected children as monsters provide shocking violence
+- **Nostalgic callbacks** - reunites 80s/90s comedy actors and references classic horror
+- **Satirical social commentary** - parodies school dynamics, hipster culture, and adult anxieties about children
+- **Irreverent humor** - subverts the typical "protect the children" narrative by making kids the villains
+- **Escapist fun** - delivers a low-stakes, B-movie experience that doesn't take itself seriously
+The film appeals to fans of campy horror who enjoy self-aware genre exercises that blend scares with comedic absurdity.</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15443,6 +17019,11 @@
       <c r="U186" t="inlineStr"/>
       <c r="V186" t="inlineStr"/>
       <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>The film "Addicted" (2014) meets viewer desires for erotic thriller entertainment, exploring themes of sexual addiction, forbidden desire, and marital infidelity. It appeals to audiences seeking steamy romance, relationship drama, and the psychological tension of a successful woman risking everything for passion. The film caters to those interested in provocative storylines about female sexuality and the consequences of obsessive behavior.</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15528,6 +17109,11 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
       <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>"Dear White People" meets viewers' desires for sharp social commentary on race relations, representation of Black college experiences, and intelligent satire that challenges both liberal and conservative perspectives on identity politics. It provides catharsis for audiences frustrated with racial microaggressions and offers educational value through its witty examination of systemic racism, cultural appropriation, and the complexities of navigating predominantly white institutions. The film also satisfies those seeking diverse storytelling that balances humor with serious cultural critique.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15613,6 +17199,11 @@
       <c r="U188" t="inlineStr"/>
       <c r="V188" t="inlineStr"/>
       <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>"See No Evil 2" meets viewer desires for slasher horror thrills, featuring gore, suspense, and a hulking supernatural killer stalking victims in a claustrophobic morgue setting. It appeals to fans seeking visceral scares, creative death scenes, and the guilty pleasure of a straightforward survival horror film with minimal plot complexity.</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15698,6 +17289,11 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>"Jessabelle" meets viewers' desires for supernatural horror thrills, including ghost story scares, Southern Gothic atmosphere, mystery-solving suspense, and themes of uncovering dark family secrets. The film appeals to audiences seeking jump scares, occult elements involving voodoo and tarot cards, and a twist ending that recontextualizes the entire narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -15783,6 +17379,13 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by The Hunger Games: Mockingjay - Part 1
+**The Hunger Games: Mockingjay - Part 1** satisfies several key viewer needs:
+**Escapism and spectacle** - The dystopian world offers an immersive break from reality with striking visuals and production design. **Emotional catharsis** - The film provides outlets for processing feelings about oppression, trauma, and resistance through Katniss's journey. **Empowerment fantasy** - Viewers experience vicarious strength through watching ordinary people challenge authoritarian power structures. **Social commentary** - It fulfills the desire to engage with relevant themes like propaganda, media manipulation, and political resistance. **Character investment** - Continuation of beloved characters' arcs satisfies fans' emotional connection to the ongoing story. **Moral clarity** - The clear good vs. evil conflict provides satisfying narrative structure in an uncertain world. **Community and belonging** - Shared cultural experience with other fans creates social connection and collective meaning-making.</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -15864,6 +17467,11 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
       <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>"Dying of the Light" (2014) appeals to viewers seeking a thriller about a CIA agent racing against time while battling dementia, offering Nicolas Cage fans action and suspense, those interested in espionage stories, audiences drawn to themes of personal decline and professional redemption, and viewers who appreciate revenge narratives where an aging protagonist pursues a terrorist nemesis from his past.</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -15949,6 +17557,11 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>"Wild Card" meets viewer desires for action-packed entertainment through Jason Statham's signature fight sequences and tough-guy persona. The film appeals to those seeking a straightforward revenge thriller with casino-set Las Vegas glamour, gambling tension, and stylized violence. It satisfies audiences looking for a lean, no-nonsense action vehicle featuring a morally ambiguous protagonist navigating the criminal underworld, combining elements of neo-noir atmosphere with visceral hand-to-hand combat scenes.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -16030,6 +17643,18 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Spare Parts"
+"Spare Parts" (2015) satisfies viewers seeking an inspirational underdog story based on true events. The film meets desires for:
+- **Feel-good triumph narratives** - Following four undocumented Latino students who overcome economic and social obstacles to compete in a national robotics competition
+- **Representation and diversity** - Showcasing Latino immigrant experiences and challenges
+- **Educational inspiration** - Highlighting STEM education and the transformative power of dedicated teaching
+- **Social relevance** - Addressing immigration issues and the pursuit of the American Dream
+- **David vs. Goliath satisfaction** - Watching disadvantaged high school students compete against well-funded college teams like MIT
+The film appeals to audiences who enjoy heartwarming, socially conscious stories about perseverance, mentorship, and achieving success against the odds.</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -16115,6 +17740,11 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
       <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>"Mortdecai" appeals to viewers seeking light escapist entertainment through its combination of art-world heist comedy, slapstick humor, and eccentric characters. It satisfies desires for visually stylish period aesthetics, Johnny Depp's quirky comedic performance, and a breezy caper plot that doesn't require serious intellectual engagement—offering mindless fun and glamorous international settings for those wanting undemanding entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -16200,6 +17830,19 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t># The Lazarus Effect: Viewer Desires Met
+**The Lazarus Effect** satisfies viewers seeking:
+- **Supernatural horror thrills** - Jump scares and creepy atmosphere for genre fans
+- **Sci-fi concepts** - Exploration of reanimation and playing God themes
+- **Ethical debates** - Questions about the consequences of defying death and scientific boundaries
+- **Quick entertainment** - A brisk 83-minute runtime for casual viewing
+- **Familiar faces** - Stars Olivia Wilde and Mark Duplass for recognizable appeal
+- **Tension and suspense** - Escalating paranormal danger and survival stakes
+- **Cautionary tale satisfaction** - The fulfillment of seeing hubris punished in classic horror tradition</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16285,6 +17928,21 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Child 44
+**Child 44** appeals to viewers seeking:
+- **Historical intrigue**: Exploration of Stalinist-era Soviet Union and its oppressive regime
+- **Crime thriller elements**: A serial killer investigation that defies official denial of crime under communism
+- **Moral complexity**: Exploration of loyalty, truth, and justice in a totalitarian system
+- **Suspense and tension**: Cat-and-mouse pursuit amid political danger
+- **Period drama atmosphere**: Immersive Cold War setting with production design and costumes
+- **Underdog protagonist**: A disgraced officer fighting against both a killer and the system
+- **Social commentary**: Critique of authoritarianism and state-enforced lies
+- **Mystery solving**: Piecing together clues in a hostile environment where investigation itself is forbidden
+The film satisfies audiences interested in dark historical thrillers that combine crime investigation with political oppression.</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16366,6 +18024,18 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>"Last Knights" meets viewer desires for:
+**Honor and loyalty themes** - Appeals to audiences who appreciate stories about unwavering devotion and moral codes
+**Revenge narrative** - Satisfies the desire to see justice served and wrongs avenged
+**Medieval/feudal action** - Provides sword-fighting spectacle and martial combat for action enthusiasts
+**Ensemble cast appeal** - Features recognizable stars like Clive Owen and Morgan Freeman
+**Underdog story** - Fulfills the wish to see a small group overcome a powerful, corrupt system
+**Sacrifice and redemption** - Offers emotional weight through characters choosing duty over personal safety
+**Visual spectacle** - Delivers production design and battle sequences for those seeking cinematic scope</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16451,6 +18121,18 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t># Summary
+**The Age of Adaline** meets viewers' desires for:
+- **Romantic escapism**: A timeless love story with emotional depth and complications
+- **Fantasy fulfillment**: The allure of eternal youth and beauty without consequences (until the plot demands them)
+- **Nostalgia**: Glimpses of different historical eras through Adaline's century-long life
+- **Moral reflection**: Contemplation of immortality's costs—loneliness, loss, and inability to form lasting connections
+- **Aesthetic pleasure**: Beautiful cinematography, costumes, and an elegant protagonist
+- **Emotional catharsis**: The tension between self-preservation and vulnerability in love, resolved through sacrifice and redemption</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16536,6 +18218,16 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>"Maggie" (2015) meets viewers' desires for:
+1. **Intimate zombie drama** - Offers a character-driven, emotional take on the zombie genre rather than action/horror
+2. **Arnold Schwarzenegger in a dramatic role** - Satisfies curiosity to see the action star in a subdued, paternal performance
+3. **Exploration of grief and loss** - Addresses the emotional process of watching a loved one deteriorate from terminal illness (metaphorically through zombie infection)
+4. **Slow-burn, atmospheric storytelling** - Appeals to audiences seeking contemplative, art-house approach to genre filmmaking
+5. **Father-daughter relationship focus** - Centers on familial love and the lengths parents go to protect their children</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16605,6 +18297,19 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Consumed"
+**Note:** There are multiple films titled "Consumed." Assuming the 2015 thriller about GMO foods:
+The film meets desires for:
+- **Conspiracy thriller entertainment** - Appeals to viewers who enjoy investigative mysteries with corporate villains
+- **Health/food safety concerns** - Addresses anxieties about GMOs, corporate agriculture, and food system transparency
+- **Activism validation** - Satisfies viewers seeking content that questions big corporations and supports consumer advocacy
+- **Parent protection narratives** - Features a mother investigating causes of her son's illness, resonating with parental protective instincts
+- **David vs. Goliath stories** - Provides satisfaction through ordinary people challenging powerful institutions
+The film essentially serves viewers interested in health conspiracies, anti-corporate sentiment, and food industry skepticism.</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16678,6 +18383,11 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>"Twilight Storytellers: The Mary Alice Brandon File" meets viewer desires for deeper backstory and origin stories of beloved characters from the Twilight universe. It satisfies fans' curiosity about Alice Cullen's mysterious human past, including her time in an asylum and transformation into a vampire—details only briefly mentioned in the main series. The film appeals to those seeking darker, more mature content within the Twilight world, exploring themes of mental illness, medical mistreatment, and identity that go beyond the main saga's romantic focus.</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -16743,6 +18453,11 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
       <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>"Twilight Storytellers: We've Met Before" is a fan-made short film that meets viewers' desires for expanded Twilight universe content, exploring the backstory of minor characters Garrett and Kate. It satisfies fans' interests in romantic relationships within the vampire world, provides deeper lore about the Denali coven, and offers additional content beyond the main saga while maintaining the franchise's signature themes of eternal love and supernatural romance.</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -16828,6 +18543,12 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
       <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t># Summary
+**The Vatican Tapes** meets viewer desires for supernatural horror and religious terror. It appeals to audiences seeking demonic possession scares, found-footage style tension, exorcism drama, and Catholic Church mythology. The film satisfies those who enjoy jump scares, apocalyptic stakes, and the familiar tropes of spiritual warfare between good and evil, offering a visceral thrill experience within the paranormal horror genre.</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -16901,6 +18622,11 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>"Alpha and Omega: Family Vacation" meets viewers' desires for light family entertainment, particularly targeting young children with its simple storyline about wolf pups on an adventure. The film appeals to parents seeking non-violent, easy-to-follow content for kids, while offering themes of family bonding and working together. It satisfies the need for inexpensive, accessible animated content that can occupy children's attention without requiring parental concern about inappropriate material.</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -16986,6 +18712,11 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr"/>
       <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>"Brothers" meets viewers' desires for intense emotional drama, exploring themes of family loyalty, the psychological impact of war and PTSD, moral complexity in extreme situations, and the strain trauma places on relationships. It appeals to those seeking serious, character-driven stories about sacrifice, guilt, and the challenges of homecoming for veterans.</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -17071,6 +18802,20 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr"/>
       <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t># American Ultra: Viewer Desires Met
+**American Ultra** (2015) satisfies viewers seeking:
+- **Action-comedy escapism** - Fast-paced violence mixed with humor provides entertaining thrills
+- **Underdog/empowerment fantasy** - A slacker protagonist discovers hidden abilities and fights powerful forces
+- **Romance amid chaos** - The central love story adds emotional stakes to the action
+- **Conspiracy thriller elements** - Government experiments and cover-ups appeal to those who enjoy paranoid storylines
+- **Stylized violence** - Creative, over-the-top fight sequences for action enthusiasts
+- **Countercultural appeal** - A stoner hero challenging authority resonates with anti-establishment sentiment
+- **Wish fulfillment** - The idea that an ordinary person might secretly be extraordinary
+The film combines genre pleasures—comedy, action, romance, and thriller—to create light, disposable entertainment for audiences wanting an unconventional action movie with humor and heart.</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -17156,6 +18901,11 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr"/>
       <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>"Chain of Command" (1994) meets viewer desires for action-packed military entertainment, featuring combat sequences, espionage thrills, and a straightforward good-vs-evil narrative. The film appeals to audiences seeking escapist entertainment with a heroic protagonist fighting against terrorists, satisfying needs for patriotic themes, physical spectacle, and clear moral resolution typical of 1990s direct-to-video action films.</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17241,6 +18991,17 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>**12 Rounds 3: Lockdown** meets viewer desires for:
+- **Action-packed entertainment**: Delivers intense fight sequences, shootouts, and chase scenes
+- **Underdog hero narrative**: Features a determined protagonist fighting against corrupt authority
+- **Escapist thrills**: Provides a straightforward, high-stakes scenario with clear good vs. evil dynamics
+- **Justice and revenge satisfaction**: Offers catharsis through a hero exposing corruption and fighting back
+- **Suspenseful pacing**: Creates tension through time pressure and confined setting challenges
+- **Accessible viewing**: Requires no prior knowledge of the franchise; offers uncomplicated, visceral entertainment</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17298,6 +19059,19 @@
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
       <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t># Summary
+**Care Bears: Mystery in Care-A-Lot** meets young viewers' desires for:
+- **Comfort and emotional security** through positive, nurturing characters
+- **Simple problem-solving engagement** via age-appropriate mystery elements
+- **Moral guidance** about friendship, cooperation, and emotional expression
+- **Predictable, safe entertainment** with no frightening content
+- **Identification with relatable feelings** as characters navigate conflicts and emotions
+- **Parent-approved content** that caregivers trust for educational and emotional value
+The film provides reassurance and gentle life lessons in a colorful, non-threatening format designed for preschool audiences.</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -17383,6 +19157,20 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Sicario
+**Sicario** satisfies audiences seeking:
+- **Intense thriller experience**: Relentless tension and suspense throughout
+- **Moral complexity**: Exploration of ethical ambiguity in the war on drugs without easy answers
+- **Atmospheric cinematography**: Visually striking scenes that create dread and beauty
+- **Strong performances**: Compelling acting, particularly from Emily Blunt, Benicio del Toro, and Josh Brolin
+- **Realistic portrayal**: Gritty, authentic depiction of drug cartel violence and covert operations
+- **Intellectual engagement**: Questions about justice, legality, and the cost of fighting evil with dark methods
+- **Visceral action**: Well-crafted, purposeful action sequences that serve the story rather than dominate it
+The film appeals to viewers who appreciate sophisticated, thought-provoking thrillers that challenge comfortable notions of right and wrong.</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -17468,6 +19256,11 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
       <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>The film *Stonewall* (2015) aims to meet viewers' desires for historical drama about LGBTQ+ rights by depicting the 1969 Stonewall riots, a pivotal moment in the gay liberation movement. It appeals to audiences seeking inspirational narratives about marginalized communities fighting for equality, coming-of-age stories within queer contexts, and representation of LGBTQ+ history on screen. However, the film was controversial for centering a fictional white cisgender protagonist rather than the transgender women and people of color who were central to the actual events, limiting its effectiveness in meeting the need for authentic historical representation.</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17529,6 +19322,13 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t># Summary
+*Bloody Wasteland: The Making of Turbo Kid* meets viewer desires for:
+**Behind-the-scenes insight** - Fans of *Turbo Kid* get an in-depth look at how the cult film was created, satisfying curiosity about practical effects, production challenges, and creative decisions. **Nostalgia and genre appreciation** - Appeals to enthusiasts of 1980s-inspired action, DIY filmmaking, and retro-futuristic aesthetics who want to understand the film's homage to that era. **Filmmaking education** - Aspiring filmmakers and cinephiles learn about low-budget independent production techniques, special effects creation, and the passion required to bring unconventional visions to life. **Community connection** - Provides fans a deeper connection to the filmmakers and cast, fostering appreciation for the dedication behind cult cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17598,6 +19398,11 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>"Game Changer: The Legacy of Saw" is a documentary that meets viewers' desires for behind-the-scenes insight into the making of the influential "Saw" horror franchise. It appeals to fans seeking to understand the creative process, the franchise's cultural impact on horror cinema, and nostalgic appreciation for how the low-budget original film revolutionized the torture-horror subgenre. The documentary satisfies curiosity about the filmmakers' journey and the series' lasting influence on modern horror.</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -17683,6 +19488,20 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by The Last Witch Hunter
+**The Last Witch Hunter** appeals to viewers seeking:
+- **Escapist fantasy action** - Delivers supernatural battles, magic, and creature effects for pure entertainment
+- **Star power** - Features Vin Diesel in a charismatic, immortal hero role for his established fanbase
+- **Dark urban fantasy** - Satisfies appetite for modern-world magic and secret supernatural societies
+- **Straightforward heroism** - Provides a clear good-vs-evil narrative without moral ambiguity
+- **Visual spectacle** - Offers CGI effects and stylized action sequences
+- **Power fantasy** - Centers on an nearly invincible protagonist with special abilities
+- **World-building intrigue** - Introduces a hidden magical order and centuries of lore for franchise-hungry audiences
+The film serves as accessible, low-commitment entertainment for action-fantasy fans wanting a popcorn movie experience.</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -17768,6 +19587,19 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
       <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by The Hunger Games: Mockingjay - Part 2
+**The Hunger Games: Mockingjay - Part 2** satisfies several key viewer desires:
+1. **Closure and Resolution** - Completes the story arc, providing answers to how the rebellion ends and Katniss's fate
+2. **Action and Spectacle** - Delivers intense combat sequences, deadly traps, and visual effects that provide excitement and entertainment
+3. **Emotional Catharsis** - Allows viewers to experience the costs of war, revenge, loss, and ultimately hope and healing
+4. **Moral Complexity** - Explores themes of power, propaganda, and the ethical ambiguity of revolution, satisfying those seeking deeper meaning
+5. **Romance Resolution** - Concludes the love triangle between Katniss, Peeta, and Gale
+6. **Justice and Empowerment** - Depicts the overthrow of tyranny and shows a young woman as a powerful agent of change, appealing to desires for fairness and representation
+7. **Escapism** - Provides immersion in a dyst</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -17845,6 +19677,20 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t># Viewer Desires/Needs Met by "Norm of the North"
+**Norm of the North** appeals to viewers seeking:
+- **Family-friendly entertainment** - Simple, safe content for young children
+- **Environmental messaging** - A story about protecting Arctic habitats from corporate development
+- **Animal protagonist appeal** - A talking polar bear as the main character
+- **Light comedy** - Slapstick humor and physical gags aimed at children
+- **Underdog story** - Following a hero who fights against more powerful antagonists
+- **Easy viewing** - Uncomplicated plot requiring minimal attention
+- **Escapism** - Colorful animation and fantastical elements
+The film primarily targets parents looking for G-rated content to occupy young children, rather than audiences seeking sophisticated storytelling or animation quality.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -17930,6 +19776,11 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>"Dirty Grandpa" appeals to viewers seeking raunchy, irreverent comedy and escapist entertainment. It satisfies desires for shock humor, transgressive behavior, and watching established actors like Robert De Niro play against type in outrageous scenarios. The film caters to audiences wanting mindless fun, sexual humor, and a break from more serious or demanding cinema, while also offering a formulaic story about breaking free from social constraints and embracing spontaneity.</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -18015,6 +19866,19 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs "Exposed" Meets
+**Exposed** (2016) appeals to viewers seeking:
+1. **Mystery and suspense** - The dual narrative structure (police investigation + spiritual visions) creates intrigue
+2. **Social commentary** - Addresses police corruption, immigration issues, and urban poverty
+3. **Spiritual/supernatural elements** - Features religious visions and demonic imagery for those interested in faith-based themes
+4. **Crime thriller elements** - Detective story with undercover cop murder investigation
+5. **Emotional drama** - Family relationships and personal struggles provide emotional depth
+6. **Star power** - Keanu Reeves draws his fanbase despite limited screen time
+The film attempts to satisfy multiple audience segments simultaneously, though its fragmented narrative style may only partially fulfill these desires for most viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -18100,6 +19964,19 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "The Choice"
+"The Choice" (2016) meets viewers' desires for romantic escapism, emotional catharsis, and reassurance about enduring love. The film appeals to audiences seeking:
+- **Emotional connection** through a passionate romance story
+- **Escapism** via picturesque coastal settings and an idealized love story
+- **Dramatic tension** from relationship obstacles and a life-altering crisis
+- **Comfort** in themes of commitment, faith, and love conquering adversity
+- **Nostalgia** for Nicholas Sparks' signature romantic formula
+- **Hope** that true love can survive even the most difficult circumstances
+The film provides a cathartic experience for viewers who enjoy tearjerker romances with uplifting resolutions.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -18185,6 +20062,19 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t># Gods of Egypt: Viewer Desires Met
+**Gods of Egypt** appeals to viewers seeking:
+- **Spectacular visual escapism** through elaborate CGI fantasy worlds and mythological settings
+- **Action-adventure entertainment** with epic battles, superhuman combat, and large-scale spectacle
+- **Mythological curiosity** about Egyptian gods and legends brought to life on screen
+- **Simple hero's journey storytelling** with clear good vs. evil conflicts requiring minimal emotional investment
+- **Eye candy and production design** featuring golden palaces, transforming gods, and fantastical creatures
+- **Popcorn entertainment** that prioritizes fun and spectacle over narrative depth or historical accuracy
+The film primarily serves audiences looking for light, visually-driven fantasy adventure rather than sophisticated storytelling or cultural authenticity.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18270,6 +20160,11 @@
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>"Allegiant" appeals to viewers seeking young adult dystopian action and adventure, providing closure to fans invested in the Divergent series and its characters. The film satisfies desires for romantic subplots, visual spectacle with futuristic technology and settings, and themes of rebellion against oppressive systems.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -18355,6 +20250,11 @@
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>"The Perfect Match" meets viewers' desires for romantic escapism, wish fulfillment through an attractive cast and glamorous lifestyle, light entertainment without demanding deep thought, and the comforting formula of a romantic comedy where initial player/commitment-phobe characters eventually find true love. It provides easy-watching entertainment with aspirational romance and humor.</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -18428,6 +20328,11 @@
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>Natural Born Pranksters meets viewers' desires for shock value, outrageous humor, and vicarious thrills through elaborate practical jokes and stunts. It appeals to fans of YouTube prank culture who seek edgy, boundary-pushing comedy and the adrenaline of watching others be surprised or embarrassed in public settings. The film also satisfies curiosity about internet celebrities and offers escapist entertainment through over-the-top scenarios that viewers wouldn't experience in everyday life.</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -18513,6 +20418,20 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Criminal" (2016)
+The film "Criminal" satisfies viewers seeking:
+- **High-octane action** with intense chase sequences, fight scenes, and explosive set pieces
+- **Sci-fi thriller elements** through its mind-transfer premise that explores memory implantation
+- **Moral complexity** as the protagonist shifts from ruthless criminal to reluctant hero
+- **Star power** featuring Kevin Costner, Gary Oldman, and Tommy Lee Jones
+- **Espionage intrigue** with CIA operations and international threats
+- **Emotional depth** showing a hardened criminal developing humanity through borrowed memories
+- **Escapist entertainment** blending psychological drama with popcorn action
+The film appeals to audiences wanting a fast-paced, brain-meets-brawn thriller with redemption themes.</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -18598,6 +20517,13 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by "A Hologram for the King"
+The film satisfies viewers seeking:
+**Escapism and exotic setting** - The Saudi Arabian desert landscape provides visual novelty and cultural immersion. **Relatable midlife crisis narrative** - Tom Hanks' struggling salesman resonates with audiences facing economic anxiety, career disappointment, and questions of relevance. **Gentle comedy-drama balance** - Offers light humor without demanding intensity, appealing to those wanting accessible entertainment. **Themes of reinvention and hope** - Meets the need for optimistic storytelling about second chances and personal transformation. **Cultural curiosity** - Provides a Western perspective on Middle Eastern business culture and daily life. **Tom Hanks' star appeal** - His everyman likability satisfies fans seeking his characteristic warmth and authenticity. The film serves viewers wanting thoughtful but undemanding drama about finding purpose and connection in unfamiliar circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -18671,6 +20597,11 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>"Alpha and Omega: Dino Digs" meets viewer desires for family-friendly entertainment, featuring talking animals, adventure, and humor aimed at young children. It provides lighthearted escapism with simple storylines about friendship and teamwork, appealing to kids who enjoy animated animal characters and dinosaur-related themes. The film offers parents an inexpensive, accessible viewing option to keep children entertained with non-threatening content.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -18756,6 +20687,20 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Now You See Me 2
+**Now You See Me 2** satisfies viewers' desires for:
+- **Escapist entertainment** through spectacular magic tricks and impossible heists
+- **Intellectual engagement** via puzzles, plot twists, and "figure it out" mysteries
+- **Wish fulfillment** by showing underdogs outsmarting powerful villains and corrupt systems
+- **Visual spectacle** with elaborate illusions and fast-paced action sequences
+- **Social bonding** through ensemble cast chemistry and team dynamics
+- **Justice and revenge** as protagonists expose wrongdoing and turn the tables on antagonists
+- **Surprise and unpredictability** with reveals that challenge audience expectations
+The film appeals to those seeking clever, light-hearted thriller entertainment that rewards attention while providing popcorn-movie fun.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -18841,6 +20786,19 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Nerve"
+**Nerve** satisfies viewers' desires for:
+- **Vicarious thrills and risk-taking** - experiencing dangerous dares without real consequences
+- **Escapist entertainment** - fast-paced action and suspense in a stylized digital world
+- **Social media validation fantasy** - exploring fame, attention, and online identity
+- **Youth empowerment narratives** - watching a shy protagonist transform and take control
+- **Tech-age relevance** - engaging with contemporary concerns about privacy, anonymity, and internet culture
+- **Romantic tension** - chemistry between attractive leads amid high-stakes scenarios
+- **Cautionary satisfaction** - seeing consequences of reckless online behavior while being entertained</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -18926,6 +20884,11 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>"Skiptrace" meets viewers' desires for lighthearted action-comedy entertainment through its buddy-cop formula pairing Jackie Chan and Johnny Knoxville. The film delivers familiar Chan-style martial arts sequences, physical comedy, fish-out-of-water humor from cultural clashes, and a formulaic but feel-good adventure across China. It appeals to audiences seeking undemanding escapist entertainment with charismatic stars, exotic locations, and a mix of action and laughs without requiring deep emotional or intellectual investment.</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -19011,6 +20974,14 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
       <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by Hell or High Water
+**Hell or High Water** satisfies several key viewer desires:
+1. **Moral complexity** - The film presents sympathetic bank robbers with understandable motivations, allowing audiences to explore ethical gray areas rather than simple good vs. evil. 2. **Economic anxiety resonance** - It taps into contemporary frustrations about wealth inequality, predatory banking, and rural economic decline, giving viewers catharsis through vicarious rebellion against "the system."
+3. **Neo-Western aesthetic** - Delivers the satisfaction of classic Western archetypes (outlaws, lawmen, frontier justice) updated for modern America. 4. **Brotherhood and loyalty** - Fulfills emotional needs through the strong sibling bond and sacrificial love between the brothers. 5. **Intelligent crime thriller** - Provides tension and suspense through a well-crafted heist narrative with strategic planning rather than mindless action. 6. **Authentic sense of place** - Offers cultural exploration of a rarely-depicted part of America (West Texas), satisfying curiosity about regional identity and working-class struggles. The film essentially meets desires</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -19096,6 +21067,11 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
       <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>"Blood Father" meets viewers' desires for intense action, redemption narratives, and gritty crime thrillers. It appeals to those seeking a straightforward revenge story with visceral violence, a hardened anti-hero protecting his daughter, and Mel Gibson's return to a familiar tough-guy role. The film satisfies audiences who enjoy B-movie aesthetics, fast-paced plotting, and themes of parental sacrifice and second chances within an uncompromising, brutal underworld setting.</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -19177,6 +21153,11 @@
       <c r="U232" t="inlineStr"/>
       <c r="V232" t="inlineStr"/>
       <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>"Brotherhood" (depending on which film you're referring to) typically meets viewers' desires for intense drama, exploration of loyalty and family bonds, moral complexity, and gritty realism. The film often appeals to those seeking stories about sacrifice, the consequences of violence, brotherhood/camaraderie under pressure, and characters facing difficult ethical choices. It satisfies needs for emotionally powerful storytelling and examination of masculinity, duty, and the bonds that both unite and complicate relationships between men in extreme circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19258,6 +21239,19 @@
       <c r="U233" t="inlineStr"/>
       <c r="V233" t="inlineStr"/>
       <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "No Manches Frida"
+**No Manches Frida** satisfies viewers' desires for:
+1. **Light escapism and comedy** - The film delivers slapstick humor and comedic situations that provide stress-free entertainment
+2. **Romantic wish-fulfillment** - Features a love story between unlikely partners (ex-con teacher and uptight colleague)
+3. **Cultural connection** - Offers Mexican audiences relatable characters, settings, and humor rooted in their cultural context
+4. **Underdog redemption** - Appeals to viewers who enjoy stories about flawed protagonists getting second chances and personal transformation
+5. **Nostalgic school setting** - Taps into universal memories and experiences of high school dynamics
+6. **Easy viewing experience** - Provides predictable, formulaic entertainment that requires minimal emotional or intellectual investment
+The film primarily serves audiences seeking accessible, culturally-specific comedy rather than challenging or innovative cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19343,6 +21337,13 @@
       <c r="U234" t="inlineStr"/>
       <c r="V234" t="inlineStr"/>
       <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t># Blair Witch Viewer Appeal Summary
+**Blair Witch** (1999) meets several key viewer desires:
+**Fear and Thrill-Seeking**: Delivers genuine scares and suspense through psychological horror rather than gore, satisfying audiences craving authentic terror. **Immersive Realism**: The found-footage style creates a documentary-like authenticity that makes viewers feel like witnesses to real events, enhancing engagement. **Mystery and the Unknown**: Taps into fascination with the supernatural, folklore, and unsolved mysteries, leaving much to imagination. **Vicarious Experience**: Allows safe exploration of dangerous, frightening situations from the comfort of a theater seat. **Cultural Participation**: Became a phenomenon that viewers wanted to experience and discuss as part of a shared cultural moment. **Low-Budget Authenticity**: Offered an alternative to polished Hollywood horror, appealing to audiences seeking raw, unfiltered storytelling. The film essentially satisfies the desire for innovative, psychologically disturbing horror that feels uncomfortably real.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19416,6 +21417,11 @@
       <c r="U235" t="inlineStr"/>
       <c r="V235" t="inlineStr"/>
       <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>"Elephant Kingdom" meets viewers' desires for family-friendly adventure entertainment, combining wildlife documentary elements with a narrative story. It appeals to those interested in elephant conservation, African landscapes, and heartwarming animal stories. The film satisfies needs for educational content about wildlife while providing an accessible, feel-good viewing experience suitable for children and adults who enjoy nature-themed films with environmental messages.</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19497,6 +21503,11 @@
       <c r="U236" t="inlineStr"/>
       <c r="V236" t="inlineStr"/>
       <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>"End of a Gun" meets viewer desires for straightforward action entertainment, featuring gunfights, car chases, and physical confrontations. It appeals to fans of Steven Seagal's signature tough-guy persona and delivers a simple revenge/vigilante narrative with minimal complexity. The film satisfies those seeking undemanding, B-movie action with a recognizable star, providing escapist violence and a clear good-versus-evil storyline without requiring emotional investment or deep thought.</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -19582,6 +21593,11 @@
       <c r="U237" t="inlineStr"/>
       <c r="V237" t="inlineStr"/>
       <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>"Dirty 30" meets viewer desires for lighthearted escapism and female friendship celebration. The comedy appeals to audiences seeking relatable stories about turning 30, navigating life transitions, and maintaining close friendships through wild adventures. It satisfies needs for female-centered humor, nostalgia for carefree partying, and feel-good entertainment that doesn't require deep emotional investment—offering a fun, breezy watch for those wanting to laugh at the chaos of adulting while celebrating female bonds.</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19667,6 +21683,13 @@
       <c r="U238" t="inlineStr"/>
       <c r="V238" t="inlineStr"/>
       <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t># Viewer Needs Met by Deepwater Horizon
+**Deepwater Horizon** satisfies several key viewer desires:
+**Spectacle and Action** - The film delivers intense disaster sequences and visual effects showing the catastrophic oil rig explosion, appealing to audiences seeking thrilling, large-scale action. **Real-life Drama** - Based on the 2010 BP oil spill disaster, it meets the desire for true stories and documentary-style realism about significant historical events. **Heroism and Survival** - The film showcases ordinary workers becoming heroes under extreme circumstances, fulfilling the need for inspirational stories of human courage and resilience. **Emotional Catharsis** - Through depicting tragedy and loss, it provides an outlet for processing collective grief about the disaster and its victims. **Social Awareness** - The film addresses corporate negligence and environmental catastrophe, satisfying viewers interested in social justice and accountability themes. **Technical Appreciation** - For some audiences, it offers insight into the complex operations of offshore drilling and industrial work environments.</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -19732,6 +21755,17 @@
       <c r="U239" t="inlineStr"/>
       <c r="V239" t="inlineStr"/>
       <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>**L.O.R.D: Legend of Ravaging Dynasties** appeals to viewers seeking:
+- **Visual spectacle**: The film offers elaborate CGI fantasy worlds, magical effects, and stylized anime-inspired aesthetics
+- **Escapist fantasy**: A completely imaginative universe with supernatural powers, elemental magic, and epic battles
+- **Youth-oriented drama**: Features beautiful young characters, coming-of-age themes, and emotional conflicts about loyalty and destiny
+- **Chinese fantasy genre fans**: Delivers a wuxia-influenced story adapted from popular Chinese author Guo Jingming's work
+- **Action and spectacle**: Provides large-scale magical combat sequences and dramatic confrontations between powerful warriors
+The film primarily satisfies desires for eye candy, fantastical escapism, and melodramatic storytelling in a heavily stylized visual package.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -19817,6 +21851,18 @@
       <c r="U240" t="inlineStr"/>
       <c r="V240" t="inlineStr"/>
       <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t># Summary
+*Middle School: The Worst Years of My Life* meets viewers' desires for:
+- **Nostalgia and relatability** - depicting universal middle school struggles like fitting in, dealing with authority, and finding identity
+- **Wish fulfillment** - showing a creative kid rebelling against oppressive school rules in imaginative ways
+- **Empowerment** - demonstrating that individuality and creativity matter more than conformity
+- **Humor and escapism** - providing comedy through the protagonist's pranks and animated fantasy sequences
+- **Emotional connection** - addressing deeper themes like grief, family dynamics, and self-acceptance that resonate with both kids and parents
+- **Validation** - reassuring young viewers that feeling like an outsider is normal and that challenging unfair systems is worthwhile</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -19902,6 +21948,20 @@
       <c r="U241" t="inlineStr"/>
       <c r="V241" t="inlineStr"/>
       <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Hacksaw Ridge
+**Hacksaw Ridge** satisfies several key viewer needs:
+- **Heroism and inspiration**: The true story of Desmond Doss provides an uplifting tale of courage and conviction against overwhelming odds
+- **Moral validation**: Appeals to viewers seeking stories about standing firm in one's beliefs despite opposition
+- **Intense action**: Delivers visceral, graphic battle sequences that satisfy audiences seeking war film spectacle
+- **Emotional catharsis**: Combines brutal violence with redemptive heroism, offering emotional release
+- **Faith-based content**: Meets the desire for positive religious representation in mainstream cinema
+- **Underdog triumph**: Fulfills the universal appeal of seeing a ridiculed outsider prove doubters wrong
+- **Historical interest**: Satisfies viewers interested in WWII stories and lesser-known true events
+The film balances brutal realism with inspiring idealism, appealing to both action enthusiasts and those seeking meaningful, values-driven storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -19987,6 +22047,19 @@
       <c r="U242" t="inlineStr"/>
       <c r="V242" t="inlineStr"/>
       <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t># Summary
+**American Pastoral** meets viewer desires for:
+- **Serious dramatic storytelling** - exploring the collapse of the American Dream and family tragedy
+- **Literary adaptation** - bringing Philip Roth's acclaimed novel to screen for literature enthusiasts
+- **Historical reflection** - examining 1960s social upheaval, Vietnam War protests, and generational conflict
+- **Strong performances** - featuring Ewan McGregor and Jennifer Connelly in emotionally complex roles
+- **Moral complexity** - grappling with themes of idealism, radicalization, and parental responsibility
+- **Nostalgia and loss** - depicting the destruction of post-war American optimism and innocence
+The film appeals to audiences seeking substantive, thought-provoking cinema about family dynamics and American identity during a turbulent era.</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -20068,6 +22141,18 @@
       <c r="U243" t="inlineStr"/>
       <c r="V243" t="inlineStr"/>
       <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires Does "Boo! A Madea Halloween" Meet? **Boo! A Madea Halloween** satisfies several key viewer desires:
+1. **Escapist Comedy** - Offers lighthearted entertainment and laughter through Tyler Perry's beloved Madea character and her signature humor
+2. **Comfort Food Entertainment** - Provides familiar, predictable comedy for fans of the franchise who enjoy Madea's recurring antics
+3. **Family-Friendly Scares** - Delivers Halloween-themed thrills without genuine terror, making it accessible for viewers wanting seasonal content without horror intensity
+4. **Moral Messaging** - Appeals to audiences seeking stories about parenting, discipline, and life lessons wrapped in comedy
+5. **Cultural Representation** - Serves African American audiences with culturally specific humor and relatable family dynamics
+6. **Multigenerational Appeal** - Bridges age gaps with content that parents and older teens can watch together during the Halloween season
+The film essentially meets the need for accessible, culturally resonant comedy with light seasonal theming and family values.</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -20141,6 +22226,20 @@
       <c r="U244" t="inlineStr"/>
       <c r="V244" t="inlineStr"/>
       <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t># Alpha and Omega: The Big Fureeze - Viewer Desires Met
+**Alpha and Omega: The Big Fureeze** appeals to young children and families by providing:
+- **Simple, lighthearted entertainment** with talking wolves and forest animals
+- **Family-friendly humor** suitable for all ages
+- **Themes of teamwork and problem-solving** as characters work together to survive winter challenges
+- **Seasonal/holiday content** centered around winter and community celebration
+- **Familiar characters** for fans of the Alpha and Omega franchise
+- **Non-threatening conflict** that resolves positively, offering comfort viewing
+- **Colorful animation** designed to hold children's attention
+The film serves as easy, undemanding content for parents seeking safe viewing options for elementary-aged children, particularly during winter months or holiday breaks.</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -20226,6 +22325,13 @@
       <c r="U245" t="inlineStr"/>
       <c r="V245" t="inlineStr"/>
       <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t># Patriots Day: Viewer Desires and Needs Met
+**Patriots Day** (2016) satisfies several key viewer desires:
+**Emotional catharsis** - The film provides closure and collective healing regarding the 2013 Boston Marathon bombing through dramatization of the tragedy and its resolution. **Heroism and resilience** - Viewers witness ordinary people and first responders displaying courage, satisfying the desire to see human goodness triumph over evil. **Patriotic affirmation** - The film reinforces American values of community strength and unity in crisis, appealing to national pride. **Justice fulfillment** - The depiction of the bombers' capture satisfies the need to see wrongdoers held accountable. **Understanding and meaning-making** - It helps audiences process a traumatic national event by providing narrative structure and context to chaotic real-world violence. **Tribute and remembrance** - The film honors victims and survivors, meeting the desire to commemorate and respect those affected.</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -20311,6 +22417,20 @@
       <c r="U246" t="inlineStr"/>
       <c r="V246" t="inlineStr"/>
       <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Arsenal"
+**Arsenal** (2017) appeals to viewers seeking:
+- **Action and violence**: Features intense gunfights, brutal confrontations, and revenge-driven combat
+- **Crime thriller elements**: Mob storylines, kidnapping plot, and underworld dynamics
+- **Familiar faces**: Stars Nicolas Cage and John Cusack, attracting fans of these actors
+- **Straightforward revenge narrative**: Simple good vs. evil story with clear motivations
+- **Gritty, dark atmosphere**: Raw urban crime setting with morally compromised characters
+- **Brotherly loyalty themes**: Emotional core involving sibling bonds and redemption
+- **Low-budget action fix**: Satisfies appetite for direct-to-video style crime action without requiring deep engagement
+The film primarily serves viewers looking for accessible, violent entertainment with recognizable actors in a conventional crime-revenge framework.</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -20396,6 +22516,20 @@
       <c r="U247" t="inlineStr"/>
       <c r="V247" t="inlineStr"/>
       <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t># The Shack: Viewer Desires and Needs Met
+**The Shack** addresses several key viewer desires:
+1. **Spiritual comfort and healing** - Provides reassurance about God's nature and presence during suffering
+2. **Grief processing** - Offers a framework for understanding and coping with traumatic loss
+3. **Theological answers** - Addresses difficult questions about evil, pain, and divine justice in accessible ways
+4. **Emotional catharsis** - Creates space for viewers to process their own pain through the protagonist's journey
+5. **Hope and reconciliation** - Delivers messages of forgiveness, redemption, and restoration
+6. **Connection with the divine** - Presents an intimate, relational portrayal of God that feels personal and approachable
+7. **Validation of suffering** - Acknowledges deep pain while suggesting meaning and purpose can emerge from tragedy
+The film primarily serves viewers seeking spiritual reassurance during difficult times and those wrestling with faith questions about suffering.</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -20481,6 +22615,11 @@
       <c r="U248" t="inlineStr"/>
       <c r="V248" t="inlineStr"/>
       <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>"How to Be a Latin Lover" meets viewers' desires for lighthearted escapism and wish-fulfillment through its rags-to-riches premise. It satisfies needs for comedic entertainment with physical humor and romantic situations, while also appealing to audiences seeking representation of Latino characters in mainstream comedy. The film offers feel-good family themes about personal growth and redemption, alongside the pleasure of watching a shallow protagonist learn life lessons, providing both laughter and emotional satisfaction without requiring deep engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20566,6 +22705,20 @@
       <c r="U249" t="inlineStr"/>
       <c r="V249" t="inlineStr"/>
       <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Power Rangers
+**Power Rangers** (2017) satisfies several key viewer desires:
+- **Nostalgia**: Appeals to fans of the original 1990s TV series with familiar characters, mythology, and iconography
+- **Escapist action/adventure**: Delivers superhero spectacle with giant monsters, martial arts, and robot combat
+- **Underdog empowerment**: Features misfit teenagers who discover hidden potential and become heroes
+- **Team dynamics and friendship**: Showcases diverse characters bonding and learning to work together
+- **Coming-of-age themes**: Addresses teenage struggles with identity, belonging, and responsibility
+- **Visual spectacle**: Provides CGI-heavy entertainment with colorful suits, creatures, and battle sequences
+- **Good vs. evil simplicity**: Offers straightforward heroic narrative with clear moral stakes
+The film targets both nostalgic adult fans and younger audiences seeking accessible superhero entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -20651,6 +22804,20 @@
       <c r="U250" t="inlineStr"/>
       <c r="V250" t="inlineStr"/>
       <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t># The Big Sick Viewer Desires/Needs Met
+**The Big Sick** satisfies viewers' desires for:
+- **Authentic romantic comedy**: A fresh take on the rom-com genre that feels genuine rather than formulaic
+- **Cross-cultural understanding**: Insight into Pakistani-American family dynamics and cultural expectations around arranged marriage
+- **Emotional catharsis**: A balance of humor and heartfelt drama surrounding serious illness that allows for both laughter and tears
+- **Relatable relationship struggles**: Honest portrayal of commitment fears, family pressure, and communication breakdowns in modern relationships
+- **True story appeal**: Based on real events from the lives of Kumail Nanjiani and Emily V. Gordon, adding emotional weight
+- **Character depth**: Multi-dimensional characters, particularly the relationship between the boyfriend and his girlfriend's parents during crisis
+- **Humor through pain**: Comedy that addresses difficult topics (illness, cultural conflict, family disappointment) without diminishing their seriousness
+- **Hope and resilience**: An ultimately uplifting story about love overcoming significant obstacles</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -20736,6 +22903,11 @@
       <c r="U251" t="inlineStr"/>
       <c r="V251" t="inlineStr"/>
       <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>"Unlocked" (2017) meets viewers' desires for high-stakes espionage thrills, featuring a CIA interrogator racing against time to prevent a biological attack on London. The film satisfies needs for suspenseful action, conspiracy intrigue, and the appeal of watching skilled professionals navigate dangerous double-crosses, while offering the star power of Noomi Rapace, Orlando Bloom, and Michael Douglas in a tense terrorism-prevention narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -20809,6 +22981,18 @@
       <c r="U252" t="inlineStr"/>
       <c r="V252" t="inlineStr"/>
       <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t># Alpha and Omega: Journey to Bear Kingdom - Viewer Appeal Summary
+**Alpha and Omega: Journey to Bear Kingdom** meets the desires of families seeking light, safe entertainment for young children. The film provides:
+- **Child-friendly adventure** with talking animals and minimal conflict
+- **Simple moral lessons** about family, bravery, and cooperation
+- **Colorful animation** appealing to preschool and early elementary audiences
+- **Familiar characters** for fans of the Alpha and Omega franchise
+- **Low-stakes entertainment** that parents can use as easy background viewing or to occupy children without concern for inappropriate content
+The film primarily serves as accessible, undemanding content for very young viewers rather than offering sophisticated storytelling or animation quality that might appeal to broader family audiences or animation enthusiasts.</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -20894,6 +23078,19 @@
       <c r="U253" t="inlineStr"/>
       <c r="V253" t="inlineStr"/>
       <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t># Summary
+**All Eyez on Me** (2017) meets viewer desires for:
+1. **Biographical insight** - Fans seeking to understand Tupac Shakur's life, struggles, and legacy
+2. **Nostalgia** - Those wanting to revisit 1990s hip-hop culture and its Golden Age
+3. **Inspiration** - Audiences drawn to stories of artistic ambition and overcoming adversity
+4. **Cultural representation** - Viewers seeking authentic portrayals of Black experiences and systemic challenges
+5. **Entertainment** - Fans of music biopics wanting dramatic storytelling combined with iconic hip-hop performances
+6. **Emotional connection** - Those seeking to commemorate or feel closer to Tupac's enduring influence on music and social justice
+The film primarily serves hip-hop enthusiasts and those interested in understanding one of rap's most influential and complex figures.</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -20967,6 +23164,11 @@
       <c r="U254" t="inlineStr"/>
       <c r="V254" t="inlineStr"/>
       <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "The Power of the Present" in my knowledge base. This title could refer to a documentary about mindfulness, a spiritual/self-help film, or content related to living in the moment, but without confirmed details about this specific film, I cannot accurately describe what viewer needs it meets. If you could provide additional context (release year, director, or subject matter), I might be able to offer more insight.</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -21052,6 +23254,18 @@
       <c r="U255" t="inlineStr"/>
       <c r="V255" t="inlineStr"/>
       <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t># Summary
+**American Assassin** meets viewer desires for:
+1. **Action and escapism** - High-octane sequences, combat training montages, and explosive set pieces provide adrenaline-fueled entertainment
+2. **Revenge fantasy** - The protagonist's journey from trauma victim to deadly operative satisfies audiences seeking cathartic vengeance narratives
+3. **Wish fulfillment** - Transformation of an ordinary person into an elite special operative appeals to power fantasies
+4. **Clear moral framework** - Straightforward good vs. evil storyline with terrorists as villains provides moral certainty
+5. **Mentorship dynamic** - The student-teacher relationship between protagonist and handler offers emotional grounding amid the action
+6. **Geopolitical thriller elements** - Espionage and international intrigue appeal to audiences interested in spy fiction and global conflict narratives</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -21137,6 +23351,13 @@
       <c r="U256" t="inlineStr"/>
       <c r="V256" t="inlineStr"/>
       <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t># The Glass Castle: Viewer Desires and Needs Met
+**The Glass Castle** (2017) fulfills several key viewer desires:
+**Emotional catharsis** - The film provides a powerful outlet for processing complex family dynamics, childhood trauma, and the struggle to reconcile love for flawed parents. **Inspiration and resilience** - Viewers witness Jeannette Walls' journey from poverty to success, satisfying the need for hope and proof that difficult circumstances can be overcome. **Validation of experience** - For those with unconventional or dysfunctional upbringings, the film offers recognition and normalization of their struggles. **Understanding and forgiveness** - The story explores themes of compassion for imperfect parents, helping viewers grapple with their own family conflicts and the complexity of loving deeply flawed people. **Authentic storytelling** - Based on a true story, it meets the desire for genuine, unvarnished narratives about real human experience rather than idealized family portrayals.</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -21222,6 +23443,21 @@
       <c r="U257" t="inlineStr"/>
       <c r="V257" t="inlineStr"/>
       <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by The Hitman's Bodyguard
+**The Hitman's Bodyguard** satisfies audiences seeking:
+- **Escapist action-comedy entertainment** - high-octane stunts, chases, and explosions combined with humor
+- **Buddy comedy dynamics** - the appeal of watching mismatched characters forced to work together and develop unlikely friendship
+- **Star power chemistry** - the charisma of Ryan Reynolds and Samuel L. Jackson playing off each other
+- **Vicarious thrills** - experiencing danger and adventure from safety
+- **Comedic relief from violence** - action sequences balanced with profanity-laced banter and physical comedy
+- **Simple narrative satisfaction** - straightforward good vs. evil plot with redemption arc
+- **Power fantasy** - watching skilled protagonists overcome overwhelming odds
+- **Nostalgia for classic action-buddy films** - echoes of 1980s-90s action-comedy pairings
+The film provides undemanding, fun entertainment that doesn't require emotional investment or deep thought.</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -21307,6 +23543,12 @@
       <c r="U258" t="inlineStr"/>
       <c r="V258" t="inlineStr"/>
       <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t># Summary
+Leatherface meets viewer desires for visceral horror thrills, shock value, and adrenaline through extreme violence and gore. It satisfies curiosity about the origin story of an iconic horror villain, appeals to fans seeking transgressive content that pushes boundaries, and provides cathartic release through controlled fear in a safe environment. The film also fulfills the desire for suspenseful entertainment and the psychological fascination with understanding what creates a monster.</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -21388,6 +23630,19 @@
       <c r="U259" t="inlineStr"/>
       <c r="V259" t="inlineStr"/>
       <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Maze"
+"Maze" (2017) satisfies viewers seeking an intense, true-story prison escape thriller set during Northern Ireland's Troubles. It meets desires for:
+- **Historical drama** based on the real 1983 IRA prison break from the Maze Prison
+- **Suspense and tension** through detailed escape planning and execution
+- **Political/conflict context** exploring the Northern Ireland conflict from a Republican perspective
+- **Character-driven narrative** focusing on relationships between prisoners and guards
+- **Moral complexity** examining loyalty, duty, and the human cost of political violence
+- **Action and thriller elements** with high-stakes escape sequences
+The film appeals to audiences interested in Irish history, political thrillers, and true crime stories while providing both entertainment and insight into a significant historical event.</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -21473,6 +23728,13 @@
       <c r="U260" t="inlineStr"/>
       <c r="V260" t="inlineStr"/>
       <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by *Stronger*
+*Stronger* (2017) fulfills several key viewer needs:
+**Emotional catharsis** - The film provides a space to process trauma and witness resilience through Jeff Bauman's recovery after the Boston Marathon bombing. **Inspiration and hope** - Viewers seeking uplifting narratives find motivation in the protagonist's determination to rebuild his life despite devastating injuries. **Authentic human drama** - The film satisfies desire for realistic, non-sanitized portrayals of disability, PTSD, and family dysfunction rather than simplistic "hero" narratives. **Connection to real events** - It meets the need to understand and memorialize a significant national tragedy through personal perspective. **Relationship dynamics** - The complex romantic and family relationships provide relatable emotional stakes beyond the central trauma story.</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -21554,6 +23816,20 @@
       <c r="U261" t="inlineStr"/>
       <c r="V261" t="inlineStr"/>
       <c r="W261" t="inlineStr"/>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t># My Little Pony: The Movie - Viewer Desires and Needs Met
+The film meets viewers' desires for:
+**Escapism and Fantasy** - Colorful, magical world offering relief from reality
+**Positive Messages** - Themes of friendship, teamwork, loyalty, and overcoming adversity through unity
+**Emotional Connection** - Relatable characters facing challenges that resonate with audiences, particularly children
+**Entertainment for Families** - Content suitable for young viewers while engaging enough for parents
+**Nostalgia** - Appeals to adult fans of the original franchise while introducing it to new generations
+**Visual Stimulation** - Bright animation, musical numbers, and adventure sequences
+**Inclusion and Acceptance** - Characters with diverse personalities working together, promoting tolerance
+**Comfort and Familiarity** - For existing fans, continuation of beloved characters and universe they already enjoy</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -21623,6 +23899,19 @@
       <c r="U262" t="inlineStr"/>
       <c r="V262" t="inlineStr"/>
       <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t># Hanazuki: Full of Treasures - Viewer Desires and Needs Met
+**Hanazuki: Full of Treasures** appeals to viewers through:
+- **Emotional exploration**: Validates children's feelings by personifying emotions through colors and treasures, helping young audiences understand and express their emotions
+- **Visual stimulation**: Bright, colorful animation and imaginative world-building that captivates younger viewers
+- **Empowerment themes**: Features a young female protagonist who solves problems and protects her moon, meeting desires for positive role models
+- **Friendship and community**: Demonstrates cooperation, conflict resolution, and the importance of relationships
+- **Escapism**: Offers a whimsical fantasy world that provides entertainment and imaginative play inspiration
+- **Moral lessons**: Delivers age-appropriate messages about responsibility, perseverance, and emotional intelligence in accessible formats
+The series primarily serves children seeking engaging content while giving parents educational entertainment that supports social-emotional development.</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -21708,6 +23997,11 @@
       <c r="U263" t="inlineStr"/>
       <c r="V263" t="inlineStr"/>
       <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>The film Jigsaw meets viewer desires for suspense and puzzle-solving through its mystery-thriller format, satisfies those seeking visceral thrills and gore through its franchise-signature elaborate traps, appeals to fans wanting continuity by expanding the Saw universe lore, and provides cathartic justice fantasies through its premise of punishing morally corrupt characters. The film also delivers plot twists and reveals that reward attentive viewers who enjoy piecing together clues.</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -21793,6 +24087,12 @@
       <c r="U264" t="inlineStr"/>
       <c r="V264" t="inlineStr"/>
       <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires/Needs *Marrowbone* Meets
+*Marrowbone* satisfies viewers seeking atmospheric gothic horror with emotional depth. It appeals to those who enjoy mystery-driven narratives with twists, family drama centered on sibling bonds and protection, and slow-burn psychological tension over jump scares. The film meets desires for visually striking period settings, themes of trauma and secrets, and stories that blend supernatural elements with human tragedy. It particularly resonates with audiences who appreciate melancholic, character-focused horror that prioritizes mood and storytelling over graphic violence.</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -21878,6 +24178,11 @@
       <c r="U265" t="inlineStr"/>
       <c r="V265" t="inlineStr"/>
       <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>"Last Flag Flying" meets viewers' desires for authentic male friendship, emotional catharsis around loss and grief, and thoughtful exploration of how war affects veterans across generations. The film appeals to those seeking mature, character-driven drama that examines themes of loyalty, redemption, and finding meaning after tragedy, while also offering moments of humor and warmth that balance its heavier subject matter. It satisfies audiences looking for nuanced performances and contemplative storytelling rather than action-driven narratives.</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -21963,6 +24268,19 @@
       <c r="U266" t="inlineStr"/>
       <c r="V266" t="inlineStr"/>
       <c r="W266" t="inlineStr"/>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t># Summary
+The film *Wonder* meets viewers' desires for:
+- **Emotional connection and empathy** - through Auggie's perspective on living with facial differences
+- **Inspirational storytelling** - showing courage, resilience, and personal growth
+- **Family values and belonging** - depicting unconditional love and support
+- **Anti-bullying messages** - addressing acceptance and kindness toward those who are different
+- **Hope and positivity** - providing an uplifting narrative about overcoming adversity
+- **Relatable struggles** - exploring universal themes of fitting in, friendship, and self-acceptance
+The film satisfies the need for feel-good, meaningful entertainment that encourages compassion and celebrates human dignity.</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -22048,6 +24366,11 @@
       <c r="U267" t="inlineStr"/>
       <c r="V267" t="inlineStr"/>
       <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>"Once Upon a Time at Christmas" is a horror-slasher film that appeals to viewers seeking dark, subversive entertainment that combines holiday themes with gore and violence. It satisfies desires for transgressive content that corrupts traditional Christmas imagery, appeals to horror fans who enjoy seasonal-themed slashers, and offers cathartic thrills through its villain couple dressed as Santa and Mrs. Claus committing brutal murders. The film meets needs for counter-programming against wholesome holiday movies and provides shock value entertainment for audiences drawn to exploitation and grindhouse-style cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -22133,6 +24456,11 @@
       <c r="U268" t="inlineStr"/>
       <c r="V268" t="inlineStr"/>
       <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>"Love Beats Rhymes" (2017) meets viewer desires for an inspirational story about a young woman pursuing her dreams in hip-hop while overcoming personal struggles. The film appeals to audiences seeking representation of Black female artists, authentic hip-hop culture, coming-of-age narratives, and themes of self-expression, resilience, and finding one's voice despite adversity. It satisfies needs for stories about artistic ambition, family dynamics, and empowerment through creativity.</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -22218,6 +24546,11 @@
       <c r="U269" t="inlineStr"/>
       <c r="V269" t="inlineStr"/>
       <c r="W269" t="inlineStr"/>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>"Winchester" meets viewer desires for supernatural horror entertainment, particularly appealing to those interested in haunted house stories based on true events. The film satisfies curiosity about the famous Winchester Mystery House and its eccentric heiress Sarah Winchester, while delivering jump scares, gothic atmosphere, and themes of guilt and redemption. It caters to audiences seeking accessible, PG-13 horror with historical intrigue and a mystery-solving narrative structure.</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -22303,6 +24636,19 @@
       <c r="U270" t="inlineStr"/>
       <c r="V270" t="inlineStr"/>
       <c r="W270" t="inlineStr"/>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by *The Forgiven*
+*The Forgiven* appeals to viewers seeking:
+- **Moral complexity and ethical dilemmas** - exploring guilt, consequences, and redemption after a fatal accident
+- **Cultural examination** - contrasting Western privilege with Moroccan society and values
+- **Character-driven drama** - focusing on a dissolving marriage and personal reckonings
+- **Atmospheric storytelling** - offering striking desert landscapes and tense, slow-burn narrative
+- **Social commentary** - critiquing wealth, entitlement, and post-colonial dynamics
+- **Prestige cinema** - featuring strong performances and literary adaptation (based on Lawrence Osborne's novel)
+The film satisfies audiences interested in thoughtful, adult-oriented dramas that provoke reflection on accountability and cultural collision.</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -22388,6 +24734,11 @@
       <c r="U271" t="inlineStr"/>
       <c r="V271" t="inlineStr"/>
       <c r="W271" t="inlineStr"/>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>"Acrimony" meets viewers' desires for emotional catharsis through a revenge narrative, offering satisfaction in seeing a wronged woman's rage validated. It appeals to audiences interested in relationship drama, exploring themes of betrayal, sacrifice, and the consequences of unreciprocated loyalty. The film also provides melodramatic entertainment and allows viewers to vicariously experience extreme emotional responses to infidelity and exploitation in marriage.</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -22473,6 +24824,11 @@
       <c r="U272" t="inlineStr"/>
       <c r="V272" t="inlineStr"/>
       <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>"Krystal" (2017) meets viewer desires for coming-of-age romantic comedies with an unconventional twist. The film appeals to audiences seeking heartfelt stories about personal growth, overcoming obstacles (the protagonist joins AA to get closer to his crush despite not being an alcoholic), and awkward but earnest young love. It satisfies those who enjoy quirky indie comedies with eccentric characters, underdog protagonists, and narratives about finding yourself while pursuing romance in unexpected places.</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -22554,6 +24910,19 @@
       <c r="U273" t="inlineStr"/>
       <c r="V273" t="inlineStr"/>
       <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Traffik"
+"Traffik" (2018) appeals to viewers seeking:
+- **Suspense and thrills** through its action-packed narrative about a couple fighting human traffickers
+- **Social awareness** by exposing the real-world issue of sex trafficking
+- **Empowerment themes** as protagonists resist and fight back against criminals
+- **Tension and danger** in a cat-and-mouse survival scenario
+- **Moral satisfaction** from seeing villains confronted and victims potentially rescued
+- **Romantic drama** elements within the central couple's relationship tested under extreme circumstances
+The film combines entertainment with social consciousness, allowing viewers to experience excitement while feeling informed about an important humanitarian issue.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -22635,6 +25004,11 @@
       <c r="U274" t="inlineStr"/>
       <c r="V274" t="inlineStr"/>
       <c r="W274" t="inlineStr"/>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>"The Con Is On" (2018) meets viewer desires for lighthearted escapism through a comedic caper about con artists on the run. It appeals to audiences seeking easy entertainment with recognizable stars (Uma Thurman, Tim Roth), glamorous settings, and a playful heist premise that doesn't require serious intellectual engagement. The film caters to those wanting a breezy, low-stakes comedy with elements of crime and deception.</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -22716,6 +25090,18 @@
       <c r="U275" t="inlineStr"/>
       <c r="V275" t="inlineStr"/>
       <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t># Summary
+*The Professor* (2018) meets viewer desires for cathartic wish-fulfillment and dark comedy by depicting a terminally ill college professor who abandons social conventions and responsibilities. The film appeals to audiences seeking:
+- **Liberation fantasies** - watching someone break free from societal expectations and "say what they really think"
+- **Rebellion against authority** - the protagonist challenges academic bureaucracy and political correctness
+- **Existential exploration** - confronting mortality and finding authenticity in life's final chapter
+- **Provocative humor** - enjoying politically incorrect jokes and boundary-pushing behavior without personal consequences
+- **Underdog satisfaction** - seeing a disillusioned everyman character reclaim agency and joy
+The film provides escapist entertainment for viewers frustrated with conformity and seeking vicarious experiences of radical honesty and hedonistic freedom.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -22801,6 +25187,20 @@
       <c r="U276" t="inlineStr"/>
       <c r="V276" t="inlineStr"/>
       <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t># The Yellow Birds - Viewer Desires Met
+**The Yellow Birds** meets viewer desires for:
+- **Authentic war experience**: Provides a raw, intimate portrayal of the psychological toll of combat in Iraq
+- **Emotional depth**: Explores trauma, guilt, and PTSD with sensitivity and complexity
+- **Strong performances**: Features compelling acting from Alden Ehrenreich, Tye Sheridan, and Jennifer Aniston
+- **Moral complexity**: Examines the burden of promises made in war and the difficulty of survivor's guilt
+- **Literary adaptation appreciation**: Appeals to fans of Kevin Powers' acclaimed novel
+- **Anti-war perspective**: Offers a critical, humanistic view of modern warfare's effects on young soldiers
+- **Character-driven drama**: Focuses on internal struggles rather than action sequences
+The film satisfies viewers seeking thoughtful, character-focused war dramas that prioritize psychological realism over spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -22882,6 +25282,20 @@
       <c r="U277" t="inlineStr"/>
       <c r="V277" t="inlineStr"/>
       <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Escape Plan 2: Hades
+**Escape Plan 2: Hades** appeals to viewers seeking:
+- **Action-packed entertainment** with fight sequences and prison break scenarios
+- **Escapist thrills** through a high-tech prison setting and survival challenges
+- **Familiar franchise continuation** for fans of the original film
+- **Straightforward plot** requiring minimal emotional investment
+- **Genre comfort** in the action/thriller prison break category
+- **Nostalgic appeal** through connection to 1980s-90s action film aesthetics
+- **Low-stakes viewing** suitable for casual, undemanding entertainment
+The film primarily satisfies desires for uncomplicated action spectacle rather than narrative depth or character development.</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -22967,6 +25381,11 @@
       <c r="U278" t="inlineStr"/>
       <c r="V278" t="inlineStr"/>
       <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>"Uncle Drew" meets viewers' desires for feel-good entertainment, nostalgia, and underdog sports stories. The film delivers comedy through its premise of elderly basketball players (played by NBA legends in age makeup) competing in a street tournament, while satisfying fans' appreciation for basketball legends like Kyrie Irving, Shaquille O'Neal, and Reggie Miller. It provides themes of redemption, second chances, and proving that age doesn't limit ability, along with accessible humor and inspirational messages about teamwork and pursuing dreams that appeal to family audiences and sports fans.</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -23052,6 +25471,12 @@
       <c r="U279" t="inlineStr"/>
       <c r="V279" t="inlineStr"/>
       <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Sicario: Day of the Soldado
+The film satisfies viewers seeking intense action and suspense through its depictions of cross-border violence and covert operations. It appeals to audiences interested in morally complex narratives about the drug war, government tactics, and ethical ambiguity in law enforcement. The film also meets desires for gritty realism, political intrigue, and exploration of contemporary border security issues. Fans of the original Sicario find continuation of Benicio del Toro's compelling character, while action enthusiasts appreciate the tactical combat sequences and tense confrontations in lawless settings.</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -23137,6 +25562,11 @@
       <c r="U280" t="inlineStr"/>
       <c r="V280" t="inlineStr"/>
       <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>"Siberia" (2018) meets viewers' desires for visually stunning cinematography and atmospheric storytelling, appealing to those who appreciate slow-burn, contemplative cinema. The film satisfies needs for escapism through exotic locations, philosophical exploration of isolation and identity, and Keanu Reeves fans seeking his dramatic performance. It also appeals to audiences interested in noir-style thrillers with morally complex characters navigating dangerous situations in unfamiliar territory.</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -23222,6 +25652,19 @@
       <c r="U281" t="inlineStr"/>
       <c r="V281" t="inlineStr"/>
       <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t># Summary
+**Down a Dark Hall** meets viewers' desires for gothic atmospheric horror, supernatural mystery, and young adult coming-of-age themes. The film appeals to audiences seeking:
+- **Suspenseful mystery**: Uncovering dark secrets within an isolated boarding school
+- **Supernatural thrills**: Possession, ghostly presences, and occult elements
+- **Gothic atmosphere**: Creepy mansion setting with ominous mood and visual style
+- **Female-centered narrative**: Young women protagonists navigating danger and self-discovery
+- **Escapist fantasy**: A contained, heightened reality separate from everyday life
+- **Twist revelations**: Plot surprises about the school's true sinister purpose
+The film satisfies cravings for accessible horror that combines teen drama with paranormal scares in a visually striking setting.</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -23307,6 +25750,19 @@
       <c r="U282" t="inlineStr"/>
       <c r="V282" t="inlineStr"/>
       <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t># Summary
+**The Spy Who Dumped Me** meets viewer desires for escapist entertainment through action-comedy that combines espionage thrills with female friendship. It satisfies needs for:
+- **Empowerment fantasy** - ordinary women thrust into extraordinary spy adventures
+- **Humor and levity** - comedic relief through fish-out-of-water scenarios
+- **Wish fulfillment** - glamorous European locations and exciting danger without real consequences
+- **Relatable friendship dynamics** - authentic female bonding amid chaos
+- **Romantic intrigue** - spy romance elements and relationship drama
+- **Accessible action** - spy genre thrills without requiring prior franchise knowledge
+The film provides lighthearted entertainment that allows viewers to vicariously experience adventure while laughing at relatable characters navigating absurd situations.</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -23392,6 +25848,18 @@
       <c r="U283" t="inlineStr"/>
       <c r="V283" t="inlineStr"/>
       <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Mara" (2018)
+The horror film "Mara" satisfies viewers seeking:
+- **Supernatural horror thrills** - Features a demon from folklore that attacks during sleep paralysis
+- **Psychological tension** - Explores the terrifying boundary between nightmares and reality
+- **Mystery elements** - Follows a criminal psychologist investigating mysterious deaths
+- **Jump scares and atmosphere** - Delivers conventional horror movie frights and dark, unsettling visuals
+- **Relatable fear exploitation** - Taps into the common experience of sleep paralysis and nightmares
+- **Genre comfort** - Provides familiar horror movie conventions for fans of supernatural thrillers</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -23477,6 +25945,11 @@
       <c r="U284" t="inlineStr"/>
       <c r="V284" t="inlineStr"/>
       <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>"Little Italy" meets viewer desires for light romantic escapism through its predictable enemies-to-lovers storyline set against a colorful ethnic backdrop. The film appeals to audiences seeking uncomplicated feel-good entertainment with familiar rom-com tropes, food-centric imagery, and nostalgia for traditional Italian-American culture. It satisfies those wanting a low-stakes, easy-to-watch movie that requires minimal emotional investment while delivering comfort through genre conventions and a guaranteed happy ending.</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -23562,6 +26035,11 @@
       <c r="U285" t="inlineStr"/>
       <c r="V285" t="inlineStr"/>
       <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>"Kin" (2018) meets viewer desires for science fiction action spectacle, family bonding themes, and coming-of-age storytelling. It appeals to audiences seeking a blend of grounded crime drama with futuristic elements, offering escapist entertainment through its mysterious alien weapon premise while exploring themes of brotherhood, loyalty, and a young protagonist discovering his strength and identity amid dangerous circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -23635,6 +26113,11 @@
       <c r="U286" t="inlineStr"/>
       <c r="V286" t="inlineStr"/>
       <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>"Norm of the North: Keys to the Kingdom" meets basic viewer needs for lighthearted family entertainment, offering simple humor and colorful animation for young children. The film provides an easy-to-follow adventure story with environmental themes about protecting nature, along with unchallenging content that parents can use to occupy small children with minimal concern about inappropriate material.</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -23720,6 +26203,12 @@
       <c r="U287" t="inlineStr"/>
       <c r="V287" t="inlineStr"/>
       <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t># Summary
+The film *Reprisal* meets viewer desires for justice and catharsis through its revenge thriller narrative. It appeals to audiences seeking action-packed entertainment with a morally straightforward storyline where a protagonist confronts criminals who wronged him. The film satisfies the psychological need to see wrongdoers punished and victims empowered, while delivering suspenseful sequences and dramatic confrontations that provide escapist entertainment and emotional release.</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -23805,6 +26294,20 @@
       <c r="U288" t="inlineStr"/>
       <c r="V288" t="inlineStr"/>
       <c r="W288" t="inlineStr"/>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t># Hell Fest Viewer Desires/Needs
+**Hell Fest** (2018) appeals to viewers seeking:
+- **Seasonal Halloween atmosphere** - Delivers immersive haunted attraction settings perfect for autumn horror fans
+- **Slasher nostalgia** - Satisfies classic slasher film conventions with a masked killer stalking victims
+- **Amusement park thrills** - Combines horror with the vicarious experience of extreme haunted houses
+- **Social horror experience** - Features a group of friends in peril, ideal for communal viewing
+- **Hide-in-plain-sight tension** - Explores the fear of real danger disguised as entertainment
+- **Moderate scares without extreme gore** - Provides accessible horror thrills for mainstream audiences
+- **Escapist entertainment** - Offers straightforward, unpretentious horror fun without complex plotting
+The film essentially serves viewers wanting a fun, seasonal slasher that captures the haunted house experience.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -23870,6 +26373,11 @@
       <c r="U289" t="inlineStr"/>
       <c r="V289" t="inlineStr"/>
       <c r="W289" t="inlineStr"/>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Cursed: The True Nature of Hereditary." You may be thinking of the 2018 horror film "Hereditary" directed by Ari Gaster, which explores themes of family trauma, grief, and inescapable fate. That film meets viewer desires for psychological horror, unsettling atmosphere, strong performances (particularly Toni Collette's), and deeper commentary on how trauma and mental illness pass through generations. If you're referring to a different or related documentary, I don't have information about it in my knowledge base.</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -23947,6 +26455,19 @@
       <c r="U290" t="inlineStr"/>
       <c r="V290" t="inlineStr"/>
       <c r="W290" t="inlineStr"/>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Belleville Cop
+**Belleville Cop** (2018) satisfies viewers seeking:
+- **Light escapist entertainment** through fish-out-of-water comedy featuring a Moroccan cop navigating Parisian culture clashes
+- **Action-comedy thrills** with chase sequences, gunfights, and buddy-cop dynamics
+- **Cultural humor** derived from the contrast between a street-smart outsider and French sophistication
+- **Familiar genre comfort** following predictable but satisfying action-comedy formulas
+- **Star appeal** of Omar Sy and accessible mainstream French cinema
+- **Easy viewing** requiring minimal intellectual engagement—perfect for relaxation and laughs
+The film appeals to audiences wanting uncomplicated, comedic action with cross-cultural humor.</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -24032,6 +26553,20 @@
       <c r="U291" t="inlineStr"/>
       <c r="V291" t="inlineStr"/>
       <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t># Hunter Killer - Viewer Desires Met
+**Hunter Killer** satisfies audiences seeking:
+- **Action-packed military thriller entertainment** with submarine warfare and special operations sequences
+- **Patriotic/heroic narratives** featuring American military personnel saving the day
+- **Geopolitical tension and espionage** involving U.S.-Russia conflict scenarios
+- **Straightforward good vs. evil storytelling** with clear heroes and villains
+- **Technical military spectacle** showcasing naval technology and tactics
+- **Escapist entertainment** with high stakes and suspenseful rescue missions
+- **Masculine action** appealing to fans of naval/military fiction in the Tom Clancy tradition
+The film delivers conventional thriller satisfaction without moral ambiguity or complex politics.</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -24117,6 +26652,12 @@
       <c r="U292" t="inlineStr"/>
       <c r="V292" t="inlineStr"/>
       <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Air Strike"
+"Air Strike" appeals to viewers seeking large-scale wartime spectacle and action sequences, particularly those interested in World War II history from a Chinese perspective. The film satisfies desires for patriotic narratives showcasing Chinese resistance against Japanese invasion, features international star power (Bruce Willis), and delivers explosive aerial combat and disaster sequences. It meets needs for heroic sacrifice stories and dramatic wartime survival tales set during the bombing of Chongqing.</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -24202,6 +26743,19 @@
       <c r="U293" t="inlineStr"/>
       <c r="V293" t="inlineStr"/>
       <c r="W293" t="inlineStr"/>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t># Summary
+The film Robin Hood meets viewers' desires for:
+- **Justice and fairness**: Seeing the underdog fight against corruption and tyranny
+- **Escapism and adventure**: Exciting action sequences, swordplay, and daring heists
+- **Heroic fantasy**: A charismatic protagonist who embodies courage and moral righteousness
+- **Romance**: The love story between Robin and Marian
+- **Wish fulfillment**: Watching the rich and powerful get their comeuppance while the poor are uplifted
+- **Simplicity**: Clear good vs. evil narrative that's emotionally satisfying
+- **Nostalgia**: Connection to a beloved folk legend and cultural mythology</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -24287,6 +26841,11 @@
       <c r="U294" t="inlineStr"/>
       <c r="V294" t="inlineStr"/>
       <c r="W294" t="inlineStr"/>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>"The Super" (1991) meets viewer desires for wish-fulfillment comedy and social justice by depicting a slumlord forced to live in his own neglected building, satisfying audiences' need to see exploitation punished, the powerful humbled, and underprivileged tenants empowered. The film provides comedic entertainment while addressing real concerns about housing inequality and absentee landlords getting their comeuppance.</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -24372,6 +26931,18 @@
       <c r="U295" t="inlineStr"/>
       <c r="V295" t="inlineStr"/>
       <c r="W295" t="inlineStr"/>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Time Freak"
+"Time Freak" appeals to viewers seeking:
+- **Romantic comedy escapism** with a science fiction twist
+- **Wish-fulfillment fantasy** about fixing relationship mistakes and getting second chances
+- **Light-hearted entertainment** that explores time travel without heavy complexity
+- **Relatable relationship themes** about learning from past errors and personal growth
+- **Feel-good storytelling** with humor and heart, offering comfort that mistakes can lead to better outcomes
+The film satisfies desires for both genre entertainment (time travel) and emotional connection (romance and redemption).</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -24449,6 +27020,19 @@
       <c r="U296" t="inlineStr"/>
       <c r="V296" t="inlineStr"/>
       <c r="W296" t="inlineStr"/>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Blood Brother"
+"Blood Brother" fulfills viewers' desires for:
+- **Emotional catharsis** through its moving portrayal of compassion and sacrifice
+- **Inspiration and hope** by showcasing one man's dedication to caring for orphaned children with HIV/AIDS in India
+- **Authentic human connection** through intimate documentary storytelling
+- **Moral uplift** by demonstrating selfless service and love in action
+- **Social awareness** about global health crises and marginalized communities
+- **Spiritual meaning** for those seeking purpose-driven narratives about making a difference
+The film satisfies audiences looking for genuine, transformative stories that restore faith in humanity.</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -24534,6 +27118,11 @@
       <c r="U297" t="inlineStr"/>
       <c r="V297" t="inlineStr"/>
       <c r="W297" t="inlineStr"/>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>"Ben Is Back" meets viewers' desires for emotionally intense family dramas that explore addiction, redemption, and unconditional parental love. The film appeals to audiences seeking authentic portrayals of the opioid crisis's impact on families, suspenseful storytelling driven by a ticking-clock premise (one day/night), and powerful performances that showcase the complexities of recovery and relapse. It satisfies those looking for stories about forgiveness, maternal devotion, and the difficult realities of supporting loved ones struggling with substance abuse.</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -24619,6 +27208,12 @@
       <c r="U298" t="inlineStr"/>
       <c r="V298" t="inlineStr"/>
       <c r="W298" t="inlineStr"/>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t># Summary
+*Leprechaun Returns* meets viewer desires for nostalgic horror-comedy entertainment, providing campy fun through over-the-top gore, dark humor, and self-aware B-movie charm. It appeals to fans seeking lighthearted slasher thrills without serious scares, offering escapist entertainment through absurd kills, practical effects nostalgia, and the comfort of a familiar franchise formula. The film satisfies cravings for guilty pleasure horror that doesn't take itself seriously.</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -24704,6 +27299,18 @@
       <c r="U299" t="inlineStr"/>
       <c r="V299" t="inlineStr"/>
       <c r="W299" t="inlineStr"/>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Backtrace"
+**Backtrace** (2018) appeals to viewers seeking:
+- **Action-thriller entertainment** with heists, shootouts, and suspense
+- **Crime mystery elements** involving memory loss and hidden loot
+- **Star power** from recognizable actors like Sylvester Stallone and Matthew Modine
+- **Straightforward B-movie thrills** without demanding complex storytelling
+- **Escapist viewing** for fans of direct-to-video action films who want a quick, undemanding watch
+The film satisfies audiences looking for low-stakes, formulaic crime action rather than innovative or critically acclaimed cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -24789,6 +27396,11 @@
       <c r="U300" t="inlineStr"/>
       <c r="V300" t="inlineStr"/>
       <c r="W300" t="inlineStr"/>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>"Long Shot" meets viewer desires for romantic escapism, wish-fulfillment fantasy, and comedic entertainment. The film satisfies the need for feel-good storytelling through its unlikely romance between a powerful politician and an ordinary journalist, offering both laughs and optimism. It also appeals to audiences seeking social commentary wrapped in accessible humor, touching on political themes while maintaining a lighthearted tone that provides stress relief and emotional satisfaction through its ultimately uplifting message about authenticity and love.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -24874,6 +27486,11 @@
       <c r="U301" t="inlineStr"/>
       <c r="V301" t="inlineStr"/>
       <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>"Life Like" (2019) meets viewer desires for science fiction exploration of artificial intelligence and human-robot relationships, offering suspense and ethical questions about the boundaries between humans and lifelike androids. The film appeals to audiences interested in technological thrillers, moral dilemmas about AI consciousness, and the potential dangers of creating too-realistic artificial beings, while also providing elements of psychological tension and dark drama.</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -24959,6 +27576,20 @@
       <c r="U302" t="inlineStr"/>
       <c r="V302" t="inlineStr"/>
       <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t># Viewer Needs Met by John Wick: Chapter 3 - Parabellum
+**John Wick: Chapter 3 - Parabellum** satisfies viewers' desires for:
+- **Spectacular action and choreography**: Delivers expertly crafted, visually stunning fight sequences and gunplay
+- **Escapist entertainment**: Offers immersive world-building in a stylized criminal underworld with unique rules and mythology
+- **Justice and revenge**: Follows a sympathetic protagonist fighting against overwhelming odds
+- **Technical excellence**: Showcases masterful cinematography, stunt work, and production design
+- **Power fantasy**: Features an nearly unstoppable hero with exceptional skills
+- **Visceral thrills**: Provides intense, adrenaline-pumping sequences with creative violence
+- **Continuity and expansion**: Rewards franchise fans by deepening lore while remaining accessible to newcomers
+The film primarily appeals to action enthusiasts seeking high-quality, stylish entertainment with minimal complex narrative demands.</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -25036,6 +27667,11 @@
       <c r="U303" t="inlineStr"/>
       <c r="V303" t="inlineStr"/>
       <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>"Project Ithaca" appeals to viewers who enjoy science fiction thrillers with contained settings, alien mysteries, and survival scenarios. The film satisfies desires for puzzle-box narratives where strangers must work together to escape captivity aboard an alien spacecraft, combining elements of body horror, conspiracy theories, and action. It attracts audiences seeking B-movie entertainment with modest production values that focus on tension and paranoia rather than big-budget spectacle.</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -25113,6 +27749,11 @@
       <c r="U304" t="inlineStr"/>
       <c r="V304" t="inlineStr"/>
       <c r="W304" t="inlineStr"/>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>"Norm of the North: King Sized Adventure" meets viewer desires for family-friendly entertainment, particularly for young children. It provides lighthearted comedy, colorful animation, and simple moral lessons about friendship, responsibility, and environmentalism. The film offers parents an easy, non-threatening viewing option that keeps children entertained with slapstick humor and adventure while delivering safe, positive messages. It fulfills the need for accessible, low-stakes content that requires minimal parental guidance.</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -25190,6 +27831,11 @@
       <c r="U305" t="inlineStr"/>
       <c r="V305" t="inlineStr"/>
       <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Step Up: Year of the Dance." This doesn't appear to be part of the Step Up franchise. The Step Up movies include titles like "Step Up," "Step Up 2: The Streets," "Step Up 3D," "Step Up Revolution," and "Step Up: All In," but not one with "Year of the Dance" in the title. You may be thinking of a different film or possibly confusing the title with another dance movie.</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -25275,6 +27921,19 @@
       <c r="U306" t="inlineStr"/>
       <c r="V306" t="inlineStr"/>
       <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by Vivarium
+**Vivarium** appeals to viewers seeking:
+1. **Psychological horror and unease** - The film creates sustained discomfort through its surreal, trapped premise
+2. **Social commentary** - It offers critique of suburban conformity, consumerism, and societal expectations around domesticity and parenthood
+3. **Existential exploration** - Addresses themes of meaninglessness, entrapment in life's predetermined paths, and loss of agency
+4. **Visual/aesthetic intrigue** - Provides striking, artificial production design that reinforces themes of unnaturalness
+5. **Intellectual engagement** - Leaves room for interpretation and post-viewing discussion about its metaphorical meanings
+6. **Genre innovation** - Satisfies those seeking unconventional sci-fi/horror that defies easy categorization
+The film primarily serves viewers who appreciate thought-provoking, uncomfortable cinema over traditional narrative satisfaction.</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -25356,6 +28015,12 @@
       <c r="U307" t="inlineStr"/>
       <c r="V307" t="inlineStr"/>
       <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t># Summary
+*3 from Hell* meets viewer desires for extreme horror, visceral violence, and transgressive entertainment. Fans of Rob Zombie's work seek his signature gritty aesthetic, dark humor, and continuation of beloved characters from *The Devil's Rejects*. The film appeals to audiences craving shocking content, anti-hero narratives, exploitation cinema nostalgia, and unapologetic gore that pushes boundaries of mainstream horror. It satisfies desires for cathartic violence, counter-cultural rebellion, and the pleasure of watching charismatic villains defy death and authority.</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -25437,6 +28102,19 @@
       <c r="U308" t="inlineStr"/>
       <c r="V308" t="inlineStr"/>
       <c r="W308" t="inlineStr"/>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by Semper Fi
+**Semper Fi** appeals to viewers seeking:
+- **Brotherhood and loyalty themes** - explores bonds between Marines and family
+- **Moral dilemmas** - tackles questions of justice, duty, and personal sacrifice
+- **Action and tension** - delivers suspense through its prison break plot
+- **Emotional depth** - provides dramatic character development and personal stakes
+- **Military authenticity** - appeals to those interested in Marine Corps culture and values
+- **Underdog story** - satisfies desire for characters fighting against a flawed system
+The film meets needs for both visceral action entertainment and thoughtful drama about sacrifice and ethical complexity.</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -25522,6 +28200,18 @@
       <c r="U309" t="inlineStr"/>
       <c r="V309" t="inlineStr"/>
       <c r="W309" t="inlineStr"/>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t># Summary
+**Jexi** meets viewer desires for:
+- **Light romantic comedy entertainment** - A feel-good story about finding human connection
+- **Satirical commentary on phone addiction** - Explores society's over-dependence on technology in a humorous way
+- **Wish fulfillment fantasy** - Features an AI assistant that actually helps improve the protagonist's life (albeit through tough love)
+- **Escapist humor** - Crude, raunchy comedy providing stress relief through outrageous scenarios
+- **Relatable modern anxieties** - Addresses loneliness and social awkwardness in the digital age
+- **Underdog story** - Follows a socially inept character's journey to self-improvement and romance</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -25595,6 +28285,11 @@
       <c r="U310" t="inlineStr"/>
       <c r="V310" t="inlineStr"/>
       <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>"Arctic Dogs" meets viewers' desires for lighthearted family entertainment with colorful animation, slapstick humor, and a simple underdog story. It appeals to young children seeking adventure with talking animals, while providing parents with an inoffensive, predictable viewing experience that requires minimal emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -25680,6 +28375,19 @@
       <c r="U311" t="inlineStr"/>
       <c r="V311" t="inlineStr"/>
       <c r="W311" t="inlineStr"/>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t># The Courier - Viewer Desires Met
+**The Courier** satisfies viewers seeking:
+- **Cold War espionage thrills** - authentic spy craft and historical intrigue from the Cuban Missile Crisis era
+- **True story drama** - the compelling real-life account of businessman Greville Wynne and Soviet officer Oleg Penkovsky
+- **Character-driven tension** - focus on personal sacrifice and the transformation of an ordinary man into an unlikely hero
+- **Strong performances** - Benedict Cumberbatch's committed portrayal of physical and psychological deterioration
+- **Moral complexity** - exploration of loyalty, courage, and the human cost of intelligence work
+- **Period authenticity** - well-crafted 1960s atmosphere and historical detail without excessive action
+The film appeals to audiences who prefer thoughtful, restrained spy dramas over action-heavy thrillers.</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -25765,6 +28473,11 @@
       <c r="U312" t="inlineStr"/>
       <c r="V312" t="inlineStr"/>
       <c r="W312" t="inlineStr"/>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>"Berlin, I Love You" meets viewer desires for romantic escapism, cultural exploration of Berlin through multiple perspectives, and anthology-style storytelling that offers varied emotional experiences. The film appeals to audiences seeking glimpses of different types of love and human connection set against the backdrop of a cosmopolitan European city, similar to other films in the "Cities of Love" franchise.</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -25850,6 +28563,12 @@
       <c r="U313" t="inlineStr"/>
       <c r="V313" t="inlineStr"/>
       <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t># Summary
+"Trauma Center" meets viewer desires for action-thriller entertainment, featuring elements like suspense, violence, and a cat-and-mouse pursuit. The film appeals to audiences seeking straightforward genre entertainment with Bruce Willis, corrupt-cop conspiracies, witness-in-peril scenarios, and tension-building sequences. It satisfies needs for escapist entertainment, crime drama thrills, and the gratification of seeing justice served against villainous antagonists.</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -25935,6 +28654,20 @@
       <c r="U314" t="inlineStr"/>
       <c r="V314" t="inlineStr"/>
       <c r="W314" t="inlineStr"/>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t># Summary
+**Bombshell** (2019) meets viewer desires for:
+1. **Justice and accountability** - Audiences seeking validation that powerful abusers can be exposed and held responsible
+2. **Empowerment narratives** - Stories of women finding courage to speak truth to power
+3. **Insider access** - Behind-the-scenes look at Fox News and media industry culture
+4. **Topical relevance** - Content connected to #MeToo movement and workplace harassment discussions
+5. **Star power and performances** - Strong ensemble cast (Charlize Theron, Nicole Kidman, Margot Robbie) delivering emotional, award-worthy work
+6. **Righteous anger outlet** - Catharsis for viewers frustrated by systemic abuse and complicity
+7. **Political interest** - Insight into conservative media ecosystem and Roger Ailes scandal
+The film satisfies audiences wanting meaningful stories about real-world issues while providing entertainment value through compelling drama and performances.</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -26020,6 +28753,12 @@
       <c r="U315" t="inlineStr"/>
       <c r="V315" t="inlineStr"/>
       <c r="W315" t="inlineStr"/>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Primal"
+"Primal" satisfies audiences seeking visceral action and survival thrills through its premise of a big-game hunter and a captured jaguar forced to work together aboard a ship filled with deadly released animals and a political assassin. The film appeals to fans of Nicolas Cage's intense performances, delivers straightforward action entertainment without complex plotting, and provides escapist spectacle through its contained setting and man-versus-beast conflicts. It meets the desire for B-movie creature features with practical tension and violence.</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -26101,6 +28840,11 @@
       <c r="U316" t="inlineStr"/>
       <c r="V316" t="inlineStr"/>
       <c r="W316" t="inlineStr"/>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>"Vanguard" (2020) meets viewers' desires for high-octane action entertainment through its elaborate stunts, exotic international locations, and fast-paced chase sequences. The film provides escapist entertainment with Jackie Chan's signature blend of martial arts and comedy, while delivering straightforward heroic narratives where good triumphs over evil. It appeals to audiences seeking visually spectacular set pieces, including jet ski battles and luxury car chases, without requiring deep emotional investment or complex storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -26178,6 +28922,11 @@
       <c r="U317" t="inlineStr"/>
       <c r="V317" t="inlineStr"/>
       <c r="W317" t="inlineStr"/>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>**Norm of the North: Family Vacation** meets the desires of parents seeking inoffensive, easy-to-access entertainment for very young children (typically preschool to early elementary age). The film provides simple humor, colorful animation, familiar characters, and straightforward moral lessons about family and togetherness. It serves as a low-stakes viewing option that requires minimal parental supervision and keeps kids occupied for a brief period, though it doesn't aim to satisfy viewers seeking quality storytelling, sophisticated animation, or content that appeals to older audiences or adults.</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -26263,6 +29012,11 @@
       <c r="U318" t="inlineStr"/>
       <c r="V318" t="inlineStr"/>
       <c r="W318" t="inlineStr"/>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>"I Still Believe" meets viewers' desires for inspirational faith-based content, romantic love stories, and emotional catharsis through tragedy. It appeals to Christian audiences seeking films that reinforce their beliefs, fans of true stories about overcoming adversity, and those who enjoy tearjerker romances centered on young love tested by terminal illness. The film provides hope, spiritual affirmation, and an emotionally moving experience for viewers who want uplifting content that explores themes of faith, loss, and perseverance.</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -26344,6 +29098,12 @@
       <c r="U319" t="inlineStr"/>
       <c r="V319" t="inlineStr"/>
       <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t># Summary
+*Made in Italy* meets viewers' desires for heartwarming family reconciliation stories, beautiful Italian scenery as visual escapism, themes of healing from grief and loss, nostalgia for simpler times, and the appeal of watching a real-life father-son duo (Liam and Micheál Neeson) navigate an emotionally authentic relationship on screen. The film provides comfort through its gentle pacing, romantic Tuscan settings, and uplifting message about new beginnings after tragedy.</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -26429,6 +29189,11 @@
       <c r="U320" t="inlineStr"/>
       <c r="V320" t="inlineStr"/>
       <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>"Rogue" meets viewers' desires for suspenseful nature horror, featuring a giant crocodile terrorizing tourists in the Australian outback. The film satisfies audiences seeking creature-feature thrills, survival tension, beautiful yet dangerous wilderness cinematography, and visceral predator-versus-human confrontations with practical effects and jump scares.</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -26514,6 +29279,19 @@
       <c r="U321" t="inlineStr"/>
       <c r="V321" t="inlineStr"/>
       <c r="W321" t="inlineStr"/>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires/Needs Met by Antebellum
+**Antebellum** (2020) appeals to viewers seeking:
+- **Social commentary and awareness** - The film addresses systemic racism, historical trauma, and their modern manifestations
+- **Psychological thriller elements** - It provides suspense, mystery, and a twist ending that challenges viewer assumptions
+- **Genre-blending entertainment** - Combines horror, thriller, and science fiction elements for audiences seeking innovative storytelling
+- **Representation** - Features a Black female protagonist navigating both historical and contemporary racial violence
+- **Conversation starters** - Offers provocative content about America's racial legacy that sparks discussion and debate
+- **Escapism with purpose** - Delivers entertainment while encouraging reflection on serious social issues
+The film primarily attracts viewers interested in socially conscious horror/thriller content that explores racial injustice through a genre lens.</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -26599,6 +29377,12 @@
       <c r="U322" t="inlineStr"/>
       <c r="V322" t="inlineStr"/>
       <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t># Summary
+**Guest House** (2020) meets viewer desires for raunchy, lowbrow comedy through outrageous sexual humor, crude gags, and over-the-top party antics. It appeals to audiences seeking mindless escapism, slapstick physical comedy, and boundary-pushing jokes without requiring emotional investment or complex storytelling. The film caters to fans of Pauly Shore's comedy style and those looking for a light, no-stakes entertainment experience centered on wild behavior and absurd situations.</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -26664,6 +29448,20 @@
       <c r="U323" t="inlineStr"/>
       <c r="V323" t="inlineStr"/>
       <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t># First Cow: A Place in This World - Viewer Desires Met
+**First Cow** satisfies viewers seeking contemplative, humanistic storytelling about friendship, survival, and the American Dream. The film appeals to those who appreciate:
+- **Intimate character studies** exploring unlikely bonds between marginalized individuals
+- **Slow cinema** that rewards patient observation and subtle emotional beats
+- **Historical authenticity** depicting early frontier life with naturalistic detail
+- **Anti-capitalist themes** examining economic inequality and exploitation
+- **Quiet resistance narratives** where small acts of defiance carry moral weight
+- **Artistic cinematography** with painterly compositions in Academy ratio
+- **Empathetic portrayals** of gentle masculinity and tenderness between men
+The film meets the need for thoughtful, anti-commercial cinema that critiques capitalist structures while celebrating human connection, dignity, and resourcefulness in the face of systemic injustice.</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -26745,6 +29543,11 @@
       <c r="U324" t="inlineStr"/>
       <c r="V324" t="inlineStr"/>
       <c r="W324" t="inlineStr"/>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>"The Doorman" satisfies viewers seeking straightforward action entertainment with a female protagonist. It appeals to fans of Die Hard-style single-location thrillers, offering wish-fulfillment through a protective hero defending innocent people against criminals. The film meets desires for redemption narratives, physical combat sequences, and underdog triumph stories, while providing accessible, uncomplicated escapist entertainment that doesn't require deep emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -26830,6 +29633,20 @@
       <c r="U325" t="inlineStr"/>
       <c r="V325" t="inlineStr"/>
       <c r="W325" t="inlineStr"/>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Death of Me"
+"Death of Me" appeals to viewers seeking:
+- **Tropical thriller atmosphere** with exotic Southeast Asian setting
+- **Mystery and suspense** through a disorienting "what happened last night?" premise
+- **Horror elements** including cult rituals, body horror, and supernatural dread
+- **Couple-in-peril dynamics** testing a relationship under extreme circumstances
+- **Cultural horror** exploring foreign traditions and folk religion themes
+- **Twist revelations** promising answers to the central mystery
+- **Visceral scares** and disturbing imagery for horror fans seeking intensity
+The film targets audiences who enjoy destination horror, paranoid thrillers, and stories about Western tourists confronting sinister local customs.</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -26915,6 +29732,19 @@
       <c r="U326" t="inlineStr"/>
       <c r="V326" t="inlineStr"/>
       <c r="W326" t="inlineStr"/>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t># Summary
+*A Christmas Gift from Bob* meets viewers' desires for:
+- **Heartwarming holiday content** with themes of redemption, hope, and second chances
+- **Feel-good storytelling** featuring the uplifting true story of a homeless man and his cat
+- **Emotional connection** through the bond between human and animal
+- **Inspirational narrative** about overcoming addiction and hardship
+- **Christmas spirit** with messages of compassion, community support, and transformation
+- **Escapism** into a touching story with a satisfying, positive resolution
+The film appeals to audiences seeking comforting, life-affirming entertainment during the holiday season.</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -26996,6 +29826,12 @@
       <c r="U327" t="inlineStr"/>
       <c r="V327" t="inlineStr"/>
       <c r="W327" t="inlineStr"/>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t># Summary
+"The Very Excellent Mr. Dundee" meets viewer desires for lighthearted, nostalgic entertainment by featuring Paul Hogan playing a fictionalized version of himself dealing with comic misfortunes that threaten his knighthood. The film appeals to fans of the original "Crocodile Dundee" franchise seeking familiar faces and self-deprecating humor, while offering easy-to-watch comedy that doesn't require much intellectual investment. It satisfies the need for feel-good escapism and celebrity cameos in a low-stakes narrative about reputation and redemption.</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -27081,6 +29917,12 @@
       <c r="U328" t="inlineStr"/>
       <c r="V328" t="inlineStr"/>
       <c r="W328" t="inlineStr"/>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t># Summary
+**Wrong Turn** meets viewer desires for visceral thrills and survival horror through its depiction of isolated protagonists hunted by cannibalistic mountain dwellers. The film satisfies audiences seeking intense gore, jump scares, and suspenseful cat-and-mouse scenarios. It also appeals to those who enjoy cautionary tales about venturing into unknown territory, the primal fear of being prey, and the cathartic experience of watching characters fight for survival against overwhelming odds. The formulaic slasher elements provide familiar genre pleasures while the backwoods setting taps into deep-seated anxieties about civilization versus savagery.</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -27166,6 +30008,11 @@
       <c r="U329" t="inlineStr"/>
       <c r="V329" t="inlineStr"/>
       <c r="W329" t="inlineStr"/>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>"Smiley Face Killers" appeals to viewers seeking thriller/horror entertainment, particularly those interested in true crime conspiracy theories. The film satisfies desires for suspense, violence, and dark mystery while exploring the urban legend of a serial killer network. It caters to audiences who enjoy slasher films, paranoid thrillers, and content based on real-world unsolved cases, offering both fear-based entertainment and engagement with controversial investigative theories.</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -27235,6 +30082,18 @@
       <c r="U330" t="inlineStr"/>
       <c r="V330" t="inlineStr"/>
       <c r="W330" t="inlineStr"/>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t># Summary
+*The Right One* meets viewers' desires for heartfelt romantic comedy with fresh perspectives. It satisfies needs for:
+- **Representation and inclusivity** - featuring LGBTQ+ romance and diverse characters
+- **Emotional connection** - providing relatable struggles with love, self-acceptance, and personal growth
+- **Humor and lightheartedness** - offering comedic relief while exploring meaningful themes
+- **Authentic storytelling** - presenting genuine, imperfect characters navigating modern relationships
+- **Hope and optimism** - delivering an uplifting message about finding love and being true to oneself
+The film appeals to audiences seeking both entertainment and emotional resonance in contemporary romance.</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -27300,6 +30159,11 @@
       <c r="U331" t="inlineStr"/>
       <c r="V331" t="inlineStr"/>
       <c r="W331" t="inlineStr"/>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>"Coronavirus Conspiracy" appeals to viewers seeking alternative explanations for the COVID-19 pandemic, particularly those skeptical of official narratives. It meets desires for validation of distrust in government and mainstream media, offers a sense of "insider knowledge" or "truth-seeking," and provides community connection with like-minded individuals who question established institutions and pandemic responses.</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -27385,6 +30249,19 @@
       <c r="U332" t="inlineStr"/>
       <c r="V332" t="inlineStr"/>
       <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Silk Road"
+The film "Silk Road" (2021) appeals to viewers interested in true crime stories, particularly those fascinated by the dark web and cryptocurrency. It satisfies desires for:
+- **True story dramatization** of the infamous Silk Road marketplace and its creator Ross Ulbricht
+- **Cat-and-mouse thriller** elements between law enforcement and a tech-savvy criminal
+- **Exploration of moral ambiguity** around libertarian ideals versus criminal consequences
+- **Insight into dark web culture** and the early cryptocurrency era
+- **Crime procedural** satisfaction following DEA investigation tactics
+- **Cautionary tale** about idealism corrupted by power and greed
+The film meets needs for entertainment that combines technology, crime, and contemporary relevance while examining the human costs of operating outside the law.</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -27470,6 +30347,20 @@
       <c r="U333" t="inlineStr"/>
       <c r="V333" t="inlineStr"/>
       <c r="W333" t="inlineStr"/>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t># Chaos Walking: Viewer Desires Met
+**Chaos Walking** appeals to viewers seeking:
+- **YA sci-fi adventure** with a unique premise (a world where everyone can hear men's thoughts)
+- **Action and survival thrills** through chase sequences and danger
+- **Romance** between the two leads (Tom Holland and Daisy Ridley)
+- **Coming-of-age themes** about finding one's identity and moral courage
+- **Dystopian world-building** exploring themes of control, secrets, and power
+- **Star power** from popular young actors
+- **Escape entertainment** with a blend of mystery, tension, and emotional stakes
+The film satisfies audiences looking for a fast-paced, visually engaging sci-fi story with romantic and emotional elements aimed primarily at teen and young adult demographics.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -27555,6 +30446,11 @@
       <c r="U334" t="inlineStr"/>
       <c r="V334" t="inlineStr"/>
       <c r="W334" t="inlineStr"/>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>"Dark Web: Cicada 3301" appeals to viewers interested in cyber-thrillers and puzzle-solving mysteries. It satisfies desires for tech-savvy storytelling, cryptography intrigue, and conspiracy narratives centered around the real-world internet phenomenon of the same name. The film targets audiences who enjoy hacker culture, digital treasure hunts, and dark web aesthetics, offering escapist entertainment for those fascinated by underground online communities and elaborate enigmas that blend technology with secretive organizations.</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -27640,6 +30536,12 @@
       <c r="U335" t="inlineStr"/>
       <c r="V335" t="inlineStr"/>
       <c r="W335" t="inlineStr"/>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t># Summary
+*Barb &amp; Star Go to Vista Del Mar* meets viewers' desires for lighthearted escapism, absurdist comedy, and feel-good entertainment. The film provides nostalgia through its vibrant, retro aesthetic and celebrates female friendship without drama or competition. It offers pure silliness and campy humor that doesn't require deep analysis, serving as colorful comfort viewing. The musical numbers, tropical setting, and intentionally ridiculous plot give audiences permission to enjoy something unabashedly fun and strange, filling a need for comedy that embraces weirdness while remaining fundamentally optimistic and heartwarming.</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -27721,6 +30623,11 @@
       <c r="U336" t="inlineStr"/>
       <c r="V336" t="inlineStr"/>
       <c r="W336" t="inlineStr"/>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>"The Penthouse" (1967) is an exploitation thriller that primarily appealed to viewers seeking provocative content, sexual titillation, and violence within a suspenseful home invasion scenario. The film met desires for taboo-breaking entertainment during a period of changing censorship standards, offering voyeuristic thrills, danger, and the psychological tension of criminals terrorizing victims in a confined setting. It catered to audiences interested in edgier, more adult-oriented content that pushed boundaries of what was acceptable in mainstream cinema at the time.</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -27802,6 +30709,11 @@
       <c r="U337" t="inlineStr"/>
       <c r="V337" t="inlineStr"/>
       <c r="W337" t="inlineStr"/>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>"The Virtuoso" appeals to viewers who enjoy moody, atmospheric thriller experiences with a solitary assassin protagonist. It meets desires for suspenseful cat-and-mouse narratives, minimalist noir storytelling with sparse dialogue, and the appeal of watching a methodical professional operate under pressure. The film caters to fans of Anthony Hopkins in mentor roles and audiences seeking tense, puzzle-like mysteries where they can try to deduce answers alongside the protagonist in a remote, claustrophobic setting.</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -27887,6 +30799,20 @@
       <c r="U338" t="inlineStr"/>
       <c r="V338" t="inlineStr"/>
       <c r="W338" t="inlineStr"/>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Spiral: From the Book of Saw
+**Spiral: From the Book of Saw** satisfies viewers seeking:
+- **Franchise familiarity with freshness** - Delivers classic Saw trap sequences and gore while introducing new characters and a police corruption angle
+- **Visceral thrills** - Provides graphic death scenes and creative traps that appeal to horror fans wanting intense, shocking content
+- **Mystery solving** - Offers a whodunit structure where viewers can theorize about the killer's identity
+- **Social commentary** - Addresses police brutality and institutional corruption, giving depth beyond pure horror
+- **Star power** - Features Chris Rock and Samuel L. Jackson, attracting audiences beyond typical horror demographics
+- **Moral justice fantasy** - Punishes corrupt police officers, fulfilling desires to see "bad guys" face consequences
+- **Adrenaline and suspense** - Delivers tense sequences and jump scares for excitement-seekers
+The film essentially revitalizes a familiar franchise while tapping into contemporary social issues and mainstream appeal.</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -27964,6 +30890,11 @@
       <c r="U339" t="inlineStr"/>
       <c r="V339" t="inlineStr"/>
       <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>"The House Next Door: Meet the Blacks 2" meets viewer desires for lowbrow comedy and parody entertainment. It appeals to audiences seeking slapstick humor, crude jokes, and satirical takes on the horror genre, particularly spoofing "The Purge" franchise. The film caters to fans of the first "Meet the Blacks" movie and those who enjoy Mike Epps' comedic style, offering escapist entertainment through exaggerated situations, physical comedy, and social commentary wrapped in farce. It satisfies viewers looking for undemanding, lighthearted content that doesn't require serious emotional or intellectual engagement.</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -28049,6 +30980,18 @@
       <c r="U340" t="inlineStr"/>
       <c r="V340" t="inlineStr"/>
       <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Hitman's Wife's Bodyguard
+**Hitman's Wife's Bodyguard** satisfies audiences seeking escapist entertainment through over-the-top action spectacle, comedic relief, and star-powered chemistry. The film delivers:
+- **Adrenaline and spectacle**: Explosive set pieces, car chases, and outrageous stunts provide visceral thrills
+- **Humor and levity**: Rapid-fire banter, physical comedy, and absurdist situations offer stress-free entertainment
+- **Star appeal**: The charismatic trio of Ryan Reynolds, Samuel L. Jackson, and Salma Hayek delivers familiar personas fans enjoy
+- **Simplicity**: A straightforward plot requires minimal mental investment, perfect for casual viewing
+- **Wish fulfillment**: Glamorous European locations and consequence-free chaos provide fantasy escapism
+The film functions as comfort food cinema—predictable, energetic, and designed purely for fun rather than artistic ambition.</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -28130,6 +31073,11 @@
       <c r="U341" t="inlineStr"/>
       <c r="V341" t="inlineStr"/>
       <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>"Die in a Gunfight" appeals to viewers seeking a stylized, modern romantic action film that combines star-crossed lovers with dark comedy and violence. It satisfies desires for visually striking cinematography, forbidden romance reminiscent of Romeo and Juliet, energetic fight sequences, and a rebellious, edgy tone. The film targets audiences who enjoy irreverent storytelling, anti-hero protagonists, and a blend of romance with criminal underworld drama.</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -28199,6 +31147,11 @@
       <c r="U342" t="inlineStr"/>
       <c r="V342" t="inlineStr"/>
       <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>I don't have specific information about a film called "Fin" to provide an accurate summary of what viewer desires or needs it meets. There are several films with this title or similar names from different years and countries. Without knowing which specific film you're referring to (director, year, country of origin), I cannot give you a reliable answer about its appeal to viewers.</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -28284,6 +31237,11 @@
       <c r="U343" t="inlineStr"/>
       <c r="V343" t="inlineStr"/>
       <c r="W343" t="inlineStr"/>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>"Midnight in the Switchgrass" appeals to viewers who enjoy crime thrillers based on true events, particularly those interested in serial killer investigations. The film meets desires for suspenseful cat-and-mouse narratives, gritty law enforcement procedurals, and stories about pursuing justice for victims. It also attracts audiences drawn to star power (Bruce Willis, Megan Fox) and those who appreciate darker, violent content exploring the disturbing world of criminal predators targeting vulnerable women.</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -28361,6 +31319,19 @@
       <c r="U344" t="inlineStr"/>
       <c r="V344" t="inlineStr"/>
       <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Joey and Ella"
+"Joey and Ella" meets viewer desires for family-friendly entertainment through its story of a young girl's friendship with a baby kangaroo. The film appeals to:
+- **Family bonding** - Safe, wholesome content parents can watch with children
+- **Animal lover appeal** - Features a cute, exotic animal as a central character
+- **Escapism** - Light-hearted adventure that provides simple entertainment
+- **Positive messages** - Themes of friendship, compassion, and doing the right thing
+- **Accessible viewing** - Uncomplicated plot suitable for young children
+- **Feel-good entertainment** - Predictable, comforting narrative with a happy resolution
+The film targets audiences seeking unchallenging, pleasant viewing experiences with clear moral lessons.</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -28446,6 +31417,19 @@
       <c r="U345" t="inlineStr"/>
       <c r="V345" t="inlineStr"/>
       <c r="W345" t="inlineStr"/>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by *The Protégé*
+*The Protégé* (2021) satisfies viewers seeking:
+- **Action thrills**: High-octane fight sequences, gunfights, and chase scenes featuring skilled assassin choreography
+- **Star power**: Performances from Maggie Q, Samuel L. Jackson, and Michael Keaton
+- **Revenge narrative**: A satisfying vengeance plot following the assassination protagonist's mentor
+- **Romantic tension**: A cat-and-mouse dynamic with chemistry between opposing operatives
+- **Exotic locations**: Globe-trotting espionage across Vietnam, London, and other international settings
+- **Female empowerment**: A capable, intelligent female lead who dominates action sequences
+- **Escapist entertainment**: Stylish, fast-paced thriller providing distraction from everyday life</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -28527,6 +31511,20 @@
       <c r="U346" t="inlineStr"/>
       <c r="V346" t="inlineStr"/>
       <c r="W346" t="inlineStr"/>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires "Habit" Meets
+The 1995 film "Habit" satisfies viewers seeking:
+- **Authentic indie horror**: Raw, low-budget aesthetic that prioritizes atmosphere over special effects
+- **Psychological depth**: Blurred lines between addiction, mental breakdown, and supernatural horror
+- **Urban realism**: Gritty NYC setting that grounds vampire mythology in recognizable reality
+- **Character study**: Focus on personal deterioration and self-destruction rather than pure scares
+- **Ambiguity**: Open-ended narrative that invites interpretation about what's real vs. imagined
+- **Adult themes**: Mature exploration of addiction, sexuality, and toxic relationships
+- **Alternative to mainstream**: Countercultural vampire story that subverts genre conventions
+The film appeals to viewers wanting thoughtful, atmospheric horror that uses the vampire metaphor to explore addiction and codependency.</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -28604,6 +31602,11 @@
       <c r="U347" t="inlineStr"/>
       <c r="V347" t="inlineStr"/>
       <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>"Jurassic Hunt" appeals to viewers seeking low-budget action entertainment featuring dinosaurs and survival scenarios. It satisfies desires for creature-feature thrills, B-movie camp, and straightforward predator-versus-human conflict without requiring significant intellectual investment. The film caters to audiences who enjoy direct-to-video monster movies and aren't concerned with scientific accuracy or high production values.</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -28689,6 +31692,11 @@
       <c r="U348" t="inlineStr"/>
       <c r="V348" t="inlineStr"/>
       <c r="W348" t="inlineStr"/>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>"Notorious Nick" meets viewers' desires for inspirational sports stories and overcoming adversity. The film appeals to audiences seeking uplifting true stories about perseverance, as it follows Nick Newell, a one-armed MMA fighter who defied expectations to pursue his dreams in professional fighting. It satisfies needs for underdog narratives, disability representation, and motivational content about triumph over physical limitations.</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -28770,6 +31778,11 @@
       <c r="U349" t="inlineStr"/>
       <c r="V349" t="inlineStr"/>
       <c r="W349" t="inlineStr"/>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>"The Gateway" meets viewers' desires for gritty crime drama and redemption stories. It appeals to those seeking tense thriller elements, morally complex characters, and narratives about flawed individuals attempting to rebuild their lives while being pulled back into dangerous circumstances. The film satisfies audiences interested in neo-noir aesthetics, family dynamics under pressure, and the consequences of past choices.</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -28851,6 +31864,11 @@
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
       <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>"Catch the Bullet" meets viewer desires for classic Western action entertainment, featuring gunfights, frontier justice, and a revenge-driven plot. It appeals to audiences seeking straightforward action sequences, traditional good-versus-evil storytelling, and nostalgic Western genre elements including outlaws, marshals, and rugged landscapes. The film also satisfies those looking for family-oriented themes involving protection and redemption within an accessible, formulaic Western framework.</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -28928,6 +31946,11 @@
       <c r="U351" t="inlineStr"/>
       <c r="V351" t="inlineStr"/>
       <c r="W351" t="inlineStr"/>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>"The Good House" meets viewers' desires for character-driven drama featuring complex, flawed protagonists navigating real-life struggles. It appeals to audiences seeking stories about addiction, redemption, and second chances, particularly centered on a mature female lead. The film satisfies those interested in intimate small-town dynamics, realistic portrayals of alcoholism, romance later in life, and nuanced performances that explore vulnerability and personal transformation without melodrama.</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -29013,6 +32036,11 @@
       <c r="U352" t="inlineStr"/>
       <c r="V352" t="inlineStr"/>
       <c r="W352" t="inlineStr"/>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>"Lady of the Manor" (2021) meets viewer desires for lighthearted comedy entertainment, combining elements of fish-out-of-water humor, supernatural friendship, and feel-good redemption. The film appeals to audiences seeking escapist fun with a simple premise about a slacker who befriends a ghost, offering nostalgic mansion settings, mild humor, and an uplifting message about personal growth without requiring deep emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -29086,6 +32114,12 @@
       <c r="U353" t="inlineStr"/>
       <c r="V353" t="inlineStr"/>
       <c r="W353" t="inlineStr"/>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t># Summary
+*The Jesus Music* meets viewers' desires for nostalgia, spiritual inspiration, and understanding of contemporary Christian music's origins. It appeals to those seeking to connect with their faith through music history, validates the experiences of long-time CCM fans, and satisfies curiosity about how the genre evolved from counterculture roots to mainstream success. The documentary fulfills needs for community belonging among Christian audiences and offers insights into how faith and popular culture intersect.</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -29159,6 +32193,11 @@
       <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
       <c r="W354" t="inlineStr"/>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>"The Amityville Moon" appeals to viewers seeking low-budget horror entertainment, particularly fans of werewolf films and the Amityville franchise. It satisfies desires for supernatural scares, creature feature thrills, and the familiar branding of the Amityville name, while catering to audiences who enjoy B-movie horror with modest expectations for production values and storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -29240,6 +32279,11 @@
       <c r="U355" t="inlineStr"/>
       <c r="V355" t="inlineStr"/>
       <c r="W355" t="inlineStr"/>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>"Survive the Game" meets viewers' desires for action-packed entertainment featuring a tense cat-and-mouse thriller. It appeals to fans of Bruce Willis, delivers straightforward good-vs-evil conflict, provides escapist violence and gunfights, and satisfies those seeking a low-stakes, formulaic action film where an everyday person must protect their family from criminals in a contained, rural setting.</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -29325,6 +32369,18 @@
       <c r="U356" t="inlineStr"/>
       <c r="V356" t="inlineStr"/>
       <c r="W356" t="inlineStr"/>
+      <c r="X356" t="inlineStr">
+        <is>
+          <t># Summary
+"Needle in a Timestack" meets viewer desires for emotionally complex romantic drama exploring themes of love, memory, and destiny. It appeals to audiences seeking:
+- **Philosophical science fiction** that uses time manipulation as a metaphor for relationship challenges
+- **Romantic melodrama** examining whether true love can survive across altered timelines
+- **Visual spectacle** featuring reality-shifting effects and temporal distortions
+- **Emotional catharsis** through stories about fighting to preserve meaningful relationships
+- **Contemplative narratives** about choice, free will, and the fragility of human connections
+The film satisfies those wanting a blend of sci-fi concept and intimate character study about the lengths people go to protect their most valued relationships.</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -29406,6 +32462,11 @@
       <c r="U357" t="inlineStr"/>
       <c r="V357" t="inlineStr"/>
       <c r="W357" t="inlineStr"/>
+      <c r="X357" t="inlineStr">
+        <is>
+          <t>"Last Shoot Out" (also known as "Showdown at Williams Creek") meets viewer desires for classic Western action and justice themes. The film appeals to audiences seeking frontier adventure, tales of moral courage, and the satisfaction of seeing lawmen confront outlaws in a small mining town setting. It provides escapist entertainment through its portrayal of the Old West, features traditional shootout sequences, and delivers the archetypal conflict between good and evil that Western genre fans expect.</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -29491,6 +32552,11 @@
       <c r="U358" t="inlineStr"/>
       <c r="V358" t="inlineStr"/>
       <c r="W358" t="inlineStr"/>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>"Christmas Is Canceled" meets viewers' desires for lighthearted holiday entertainment with themes of family dynamics, romantic comedy, and personal growth. The film appeals to audiences seeking feel-good escapism during the Christmas season, featuring relatable parent-child conflicts, second chances at love, and ultimately heartwarming resolutions that celebrate family bonds and the spirit of the holidays.</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -29572,6 +32638,11 @@
       <c r="U359" t="inlineStr"/>
       <c r="V359" t="inlineStr"/>
       <c r="W359" t="inlineStr"/>
+      <c r="X359" t="inlineStr">
+        <is>
+          <t>"Pinocchio: A True Story" (2021) is a Russian animated film that attempts to meet viewer desires for family-friendly entertainment, nostalgia for the classic Pinocchio tale, colorful animation, simple moral lessons about honesty and being true to oneself, and lighthearted adventure suitable for young children. However, the film received largely negative reviews for its poor execution, suggesting it failed to adequately satisfy most viewers' expectations for quality storytelling and animation.</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -29657,6 +32728,21 @@
       <c r="U360" t="inlineStr"/>
       <c r="V360" t="inlineStr"/>
       <c r="W360" t="inlineStr"/>
+      <c r="X360" t="inlineStr">
+        <is>
+          <t># Summary
+**American Underdog** meets viewers' desires for:
+- **Inspirational underdog stories** - the classic rise from obscurity to success narrative
+- **Faith-based content** - Christian themes and values are central to the story
+- **Family-friendly entertainment** - wholesome content suitable for all ages
+- **Sports drama** - football action and NFL success story
+- **Romantic elements** - the love story between Kurt and Brenda Warner
+- **Perseverance and hope** - validation that dreams can come true despite obstacles
+- **Authentic biography** - true story appeal for those interested in real-life heroism
+- **Emotional catharsis** - feel-good moments and triumph over adversity
+The film primarily appeals to audiences seeking uplifting, values-driven entertainment with a clear moral message about faith, determination, and family.</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -29742,6 +32828,11 @@
       <c r="U361" t="inlineStr"/>
       <c r="V361" t="inlineStr"/>
       <c r="W361" t="inlineStr"/>
+      <c r="X361" t="inlineStr">
+        <is>
+          <t>"Shattered" (1991) meets viewer desires for psychological thriller entertainment through its amnesia-driven mystery plot, where audiences piece together clues alongside the protagonist to uncover his true identity and a web of deception. The film satisfies needs for suspense, plot twists, and the intellectual engagement of solving a puzzle, while also delivering on expectations for noir-style drama involving betrayal, conspiracy, and shocking revelations.</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -29827,6 +32918,11 @@
       <c r="U362" t="inlineStr"/>
       <c r="V362" t="inlineStr"/>
       <c r="W362" t="inlineStr"/>
+      <c r="X362" t="inlineStr">
+        <is>
+          <t>"The King's Daughter" meets viewers' desires for family-friendly fantasy entertainment, offering escapism through a magical historical adventure with romance, mermaids, and palace intrigue. It appeals to audiences seeking visually appealing costumes and settings, a feel-good story with themes of compassion and environmental harmony, and light entertainment suitable for children and families without intense violence or mature content.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -29912,6 +33008,11 @@
       <c r="U363" t="inlineStr"/>
       <c r="V363" t="inlineStr"/>
       <c r="W363" t="inlineStr"/>
+      <c r="X363" t="inlineStr">
+        <is>
+          <t>Moonfall meets viewers' desires for large-scale disaster spectacle, apocalyptic thrills, and escapist entertainment. The film delivers massive destruction sequences, a high-concept sci-fi premise involving the moon crashing into Earth, and the satisfying formula of underdogs saving humanity against impossible odds. It appeals to audiences seeking popcorn entertainment with visual effects-driven action rather than deep character development or scientific accuracy.</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -29993,6 +33094,19 @@
       <c r="U364" t="inlineStr"/>
       <c r="V364" t="inlineStr"/>
       <c r="W364" t="inlineStr"/>
+      <c r="X364" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "The Pursuit of Happyness"
+The film meets viewers' desires for:
+1. **Inspirational storytelling** - Shows triumph over adversity through Chris Gardner's real-life rags-to-riches journey
+2. **Emotional connection** - The father-son relationship provides heartwarming and relatable moments
+3. **Hope and motivation** - Demonstrates that perseverance and hard work can overcome seemingly impossible obstacles
+4. **Authentic struggle** - Portrays homelessness and poverty realistically, validating viewers facing hardships
+5. **Feel-good resolution** - Delivers an uplifting ending that rewards the protagonist's determination
+6. **Family values** - Emphasizes parental love and sacrifice
+7. **American Dream narrative** - Reinforces belief in opportunity and self-made success</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -30070,6 +33184,11 @@
       <c r="U365" t="inlineStr"/>
       <c r="V365" t="inlineStr"/>
       <c r="W365" t="inlineStr"/>
+      <c r="X365" t="inlineStr">
+        <is>
+          <t>"Desperate Riders" meets viewers' desires for classic Western action and adventure, featuring outlaws, gunfights, frontier justice, and themes of survival and redemption in the Old West. It appeals to fans seeking straightforward action entertainment with traditional Western genre elements like horseback chases, lawlessness, and rugged individualism.</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -30143,6 +33262,11 @@
       <c r="U366" t="inlineStr"/>
       <c r="V366" t="inlineStr"/>
       <c r="W366" t="inlineStr"/>
+      <c r="X366" t="inlineStr">
+        <is>
+          <t>**C.I.Ape** meets viewers' desires for lighthearted, family-friendly entertainment through absurdist comedy. The film appeals to those seeking escapist fun with a ridiculous premise (a chimpanzee secret agent), slapstick humor, and simple action-adventure storytelling that doesn't require serious engagement. It satisfies the need for nostalgic, B-movie style entertainment and provides easy viewing for children or adults looking for "so-bad-it's-good" comedy without complex plots or heavy themes.</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -30228,6 +33352,20 @@
       <c r="U367" t="inlineStr"/>
       <c r="V367" t="inlineStr"/>
       <c r="W367" t="inlineStr"/>
+      <c r="X367" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "The Valet"
+"The Valet" satisfies viewers seeking lighthearted romantic comedy entertainment with feel-good escapism. It appeals to audiences wanting:
+- **Wish fulfillment fantasy** - An ordinary person thrust into extraordinary circumstances with a glamorous celebrity
+- **Romantic optimism** - Predictable but satisfying love story with a happy ending
+- **Social commentary lite** - Class differences explored without heavy drama
+- **Cultural representation** - Latino/Hispanic lead characters and perspectives in a mainstream rom-com
+- **Easy viewing** - Uncomplicated plot requiring minimal emotional investment
+- **Humor and charm** - Comedic situations arising from the premise's absurdity
+- **Moral affirmation** - Good-hearted protagonists rewarded, demonstrating integrity over wealth
+The film provides comfortable, undemanding entertainment for viewers seeking pleasant distraction rather than challenging cinema.</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -30313,6 +33451,11 @@
       <c r="U368" t="inlineStr"/>
       <c r="V368" t="inlineStr"/>
       <c r="W368" t="inlineStr"/>
+      <c r="X368" t="inlineStr">
+        <is>
+          <t>**Private Property** (1960) meets viewer desires for psychological suspense and transgressive content. The film appeals to audiences interested in exploring taboo themes of obsession, class resentment, and sexual tension through its story of two drifters who target a wealthy housewife. It satisfies desires for noir-influenced cinema that examines darker aspects of human nature, suburban malaise, and the erosion of post-war American idealism, while offering voyeuristic thrills through its provocative and morally ambiguous narrative.</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -30390,6 +33533,11 @@
       <c r="U369" t="inlineStr"/>
       <c r="V369" t="inlineStr"/>
       <c r="W369" t="inlineStr"/>
+      <c r="X369" t="inlineStr">
+        <is>
+          <t>I don't have any information about a film called "Where the Scary Things Are." You may be thinking of "Where the Wild Things Are" (2009), which meets viewers' desires for nostalgia, imaginative escapism, and exploration of childhood emotions like anger, loneliness, and the need for belonging. If you're referring to a different film, I'm not familiar with it.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -30455,6 +33603,11 @@
       <c r="U370" t="inlineStr"/>
       <c r="V370" t="inlineStr"/>
       <c r="W370" t="inlineStr"/>
+      <c r="X370" t="inlineStr">
+        <is>
+          <t>This documentary/making-of film meets viewers' desires for behind-the-scenes insight into the creative process of the acclaimed movie "Everything Everywhere All at Once." It satisfies curiosity about how the film's complex multiverse concept, innovative visual effects, and emotional story were developed on a limited budget. The film appeals to fans wanting deeper understanding of the Daniels' directorial vision, the cast's performances (particularly Michelle Yeoh's), and the technical craftsmanship that made the original film such a cultural phenomenon.</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -30532,6 +33685,19 @@
       <c r="U371" t="inlineStr"/>
       <c r="V371" t="inlineStr"/>
       <c r="W371" t="inlineStr"/>
+      <c r="X371" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by 1UP
+**1UP** (2022) meets several viewer desires:
+- **Representation and empowerment**: Features female gamers challenging sexism in esports, appealing to audiences seeking diverse protagonists and feminist themes
+- **Underdog story satisfaction**: Delivers the classic feel-good narrative of outcasts forming a team and proving doubters wrong
+- **Gaming culture connection**: Appeals to esports fans and gamers who want their hobby represented on screen
+- **Light comedy and escapism**: Provides easy-to-watch entertainment with humor and low stakes
+- **Community and friendship themes**: Satisfies desires for stories about found family and teamwork
+- **Nostalgia for teen/college comedies**: Echoes familiar sports-team formula in a contemporary gaming context
+The film primarily targets younger audiences interested in gaming culture and viewers seeking accessible, positive representations of women in competitive spaces.</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -30613,6 +33779,17 @@
       <c r="U372" t="inlineStr"/>
       <c r="V372" t="inlineStr"/>
       <c r="W372" t="inlineStr"/>
+      <c r="X372" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Clerks III
+**Clerks III** satisfies viewers seeking:
+- **Nostalgia** - Reunites fans with beloved characters Dante and Randal after 16 years
+- **Meta-humor** - Delivers self-referential comedy about filmmaking and Kevin Smith's own career
+- **Emotional depth** - Provides mature reflection on mortality, friendship, and aging that resonates with the original audience now in middle age
+- **Closure** - Offers a heartfelt conclusion to the trilogy for long-time fans
+- **Authentic indie spirit** - Maintains the low-budget, dialogue-driven style that defined the original while addressing real-life struggles of independent artists</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -30690,6 +33867,19 @@
       <c r="U373" t="inlineStr"/>
       <c r="V373" t="inlineStr"/>
       <c r="W373" t="inlineStr"/>
+      <c r="X373" t="inlineStr">
+        <is>
+          <t># Summary
+**Detective Knight: Rogue** meets viewer desires for:
+- **Action-packed entertainment** with heists, shootouts, and chase sequences
+- **Bruce Willis nostalgia** - fans wanting to see the aging action star in a familiar tough-cop role
+- **Straightforward crime thriller** with minimal complexity - easy viewing that doesn't require deep engagement
+- **Vigilante justice satisfaction** through a flawed detective fighting corruption
+- **Holiday-themed action** (set around Halloween/Christmas) for seasonal viewing
+- **Low-stakes escapism** - a B-movie experience for those wanting formulaic but diverting content
+The film primarily serves audiences seeking undemanding action entertainment with a recognizable star rather than innovative storytelling or artistic merit.</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -30775,6 +33965,11 @@
       <c r="U374" t="inlineStr"/>
       <c r="V374" t="inlineStr"/>
       <c r="W374" t="inlineStr"/>
+      <c r="X374" t="inlineStr">
+        <is>
+          <t>"Prey for the Devil" meets viewer desires for supernatural horror entertainment, specifically appealing to audiences interested in exorcism themes and religious horror. The film satisfies needs for suspenseful thrills, jump scares, and demonic possession narratives while also potentially attracting viewers interested in seeing a female protagonist in a traditionally male-dominated role (exorcist). It caters to fans of the horror genre seeking accessible, mainstream scares with Catholic Church mysticism and good-versus-evil battles.</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -30848,6 +34043,20 @@
       <c r="U375" t="inlineStr"/>
       <c r="V375" t="inlineStr"/>
       <c r="W375" t="inlineStr"/>
+      <c r="X375" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by Detective Knight: Redemption
+**Detective Knight: Redemption** appeals to viewers seeking:
+- **Action entertainment** - Delivers straightforward gunfights, chases, and confrontations
+- **Familiar genre comfort** - Follows predictable crime thriller formulas with a detective pursuing criminals
+- **Bruce Willis presence** - Attracts fans wanting to see the iconic action star, despite his reduced role due to health issues
+- **Low-commitment viewing** - Provides easy-to-follow plotting requiring minimal intellectual investment
+- **Redemption narrative** - Satisfies those who enjoy stories of flawed protagonists seeking moral restoration
+- **Holiday-themed action** - Combines Christmas settings with crime elements for seasonal variety
+- **Nostalgia** - Evokes memories of 1990s direct-to-video action films for genre enthusiasts
+The film primarily serves viewers wanting uncomplicated, formulaic action content rather than cinematic innovation or depth.</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -30933,6 +34142,11 @@
       <c r="U376" t="inlineStr"/>
       <c r="V376" t="inlineStr"/>
       <c r="W376" t="inlineStr"/>
+      <c r="X376" t="inlineStr">
+        <is>
+          <t>"Mindcage" appeals to viewers who enjoy psychological crime thrillers with cat-and-mouse dynamics between detectives and serial killers. It satisfies desires for suspenseful murder mysteries, puzzle-solving narratives, and the familiar trope of consulting an imprisoned criminal mastermind (similar to "Silence of the Lambs"). The film targets audiences seeking twisty plots, dark atmosphere, and the intellectual challenge of trying to solve the case alongside the protagonists.</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -31018,6 +34232,11 @@
       <c r="U377" t="inlineStr"/>
       <c r="V377" t="inlineStr"/>
       <c r="W377" t="inlineStr"/>
+      <c r="X377" t="inlineStr">
+        <is>
+          <t>"Alice, Darling" meets viewers' desires for realistic portrayals of psychological abuse and emotional manipulation in relationships. The film appeals to those seeking nuanced depictions of gaslighting, codependency, and the difficult process of recognizing toxic partnerships. It also satisfies audiences looking for character-driven dramas about female friendship as a source of strength and support during personal crisis, while offering validation to viewers who have experienced similar controlling relationships.</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -31095,6 +34314,19 @@
       <c r="U378" t="inlineStr"/>
       <c r="V378" t="inlineStr"/>
       <c r="W378" t="inlineStr"/>
+      <c r="X378" t="inlineStr">
+        <is>
+          <t># Rock Dog 3: Battle the Beat - Viewer Appeal Summary
+**Rock Dog 3: Battle the Beat** meets viewer desires for:
+- **Family-friendly entertainment** - Provides safe, wholesome content suitable for children and parents to watch together
+- **Musical enjoyment** - Features catchy songs and music-themed storylines appealing to young music fans
+- **Inspirational messaging** - Delivers positive themes about following dreams, perseverance, and self-belief
+- **Colorful animation** - Offers visually engaging animated sequences that captivate younger audiences
+- **Light comedy** - Provides humorous moments and fun characters for easy, relaxing entertainment
+- **Continuation of a familiar story** - Satisfies fans of the franchise wanting more adventures with beloved characters
+- **Escapism** - Offers a simple, feel-good narrative that provides stress-free viewing for both kids and adults seeking uncomplicated entertainment</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -31180,6 +34412,13 @@
       <c r="U379" t="inlineStr"/>
       <c r="V379" t="inlineStr"/>
       <c r="W379" t="inlineStr"/>
+      <c r="X379" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Jesus Revolution"
+**Jesus Revolution** meets several key viewer desires:
+1. **Nostalgia and Historical Interest** - Depicts the 1970s Jesus Movement, appealing to those who lived through it or are curious about this cultural/religious phenomenon. 2. **Inspirational Faith Content** - Provides an uplifting spiritual narrative for Christian audiences seeking affirming, faith-based entertainment. 3. **Counterculture and Rebellion Themes** - Explores hippie culture and generational conflict, attracting viewers interested in stories about social transformation and challenging establishment norms. 4. **Hope and Redemption** - Offers messages of personal transformation, second chances, and finding purpose, meeting emotional needs for optimism. 5. **Community and Belonging** - Shows characters finding acceptance and connection, resonating with viewers' desires for meaningful relationships and spiritual community. 6. **Escapism with Substance** - Delivers entertainment that feels meaningful rather than purely commercial, satisfying audiences wanting films with positive messages and moral clarity.</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -31265,6 +34504,13 @@
       <c r="U380" t="inlineStr"/>
       <c r="V380" t="inlineStr"/>
       <c r="W380" t="inlineStr"/>
+      <c r="X380" t="inlineStr">
+        <is>
+          <t># John Wick: Chapter 4 - Viewer Desires Met
+**John Wick: Chapter 4** satisfies several key audience needs:
+**Spectacle and Action**: Delivers elaborate, expertly choreographed fight sequences and stunning visuals that provide pure cinematic escapism. **Justice and Catharsis**: Fulfills the desire to see a wronged protagonist fight against overwhelming odds and corrupt systems, offering vicarious satisfaction. **Aesthetic Pleasure**: Provides beautifully composed shots, creative set pieces, and stylized violence that appeal to viewers seeking artistic action cinema. **Simplicity**: Offers straightforward good-vs-evil storytelling that's easy to follow despite its scale, allowing viewers to relax and enjoy without complex moral ambiguity. **Competence Fantasy**: Shows a supremely skilled protagonist who excels at what he does, appealing to desires for mastery and capability. **Emotional Resolution**: Provides closure to a character's journey, satisfying viewers invested in the series arc. The film essentially meets needs for entertainment, escapism, visual artistry, and emotional payoff through highly stylized action filmmaking.</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -31350,6 +34596,13 @@
       <c r="U381" t="inlineStr"/>
       <c r="V381" t="inlineStr"/>
       <c r="W381" t="inlineStr"/>
+      <c r="X381" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Are You There God? It's Me, Margaret."
+The film meets several key viewer desires and needs:
+**Nostalgia and Recognition**: Adults who grew up reading Judy Blume's beloved novel find comfort in seeing this cherished story faithfully adapted, reconnecting with their own coming-of-age experiences. **Representation and Validation**: Young viewers, particularly girls, see their real anxieties about puberty, fitting in, and identity reflected on screen in an honest, non-sensationalized way. **Intergenerational Connection**: The film creates opportunities for parents and children to discuss difficult topics like bodily changes, religion, and belonging in a more accessible way. **Authentic Female Experience**: Audiences seeking genuine portrayals of girlhood appreciate the film's candid treatment of menstruation, bra-shopping, and peer pressure without embarrassment or comedy at girls' expense. **Religious/Spiritual Exploration**: Viewers grappling with questions of faith and identity connect with Margaret's personal spiritual journey that doesn't prescribe answers. **Comfort and Reassurance**: The film provides emotional support</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -31435,6 +34688,11 @@
       <c r="U382" t="inlineStr"/>
       <c r="V382" t="inlineStr"/>
       <c r="W382" t="inlineStr"/>
+      <c r="X382" t="inlineStr">
+        <is>
+          <t>"About My Father" meets viewer desires for lighthearted family comedy, fish-out-of-water humor, and cross-cultural clash entertainment. It appeals to audiences seeking feel-good escapism, relatable family dynamics, and the comedic talents of Sebastian Maniscalco and Robert De Niro. The film satisfies needs for accessible, PG-13 comedy that explores themes of family acceptance, generational differences, and cultural identity without requiring heavy emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -31520,6 +34778,19 @@
       <c r="U383" t="inlineStr"/>
       <c r="V383" t="inlineStr"/>
       <c r="W383" t="inlineStr"/>
+      <c r="X383" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by Joy Ride
+**Joy Ride** (2001) satisfies viewers' desire for suspense and thrills through its tense cat-and-mouse road thriller narrative. The film meets needs for:
+- **Edge-of-your-seat tension** - Extended sequences of highway pursuit and psychological torment
+- **Relatable fear** - The vulnerable situation of ordinary people being stalked by an unseen trucker
+- **Escapist entertainment** - A self-contained road trip gone wrong scenario
+- **Character bonding** - Sibling dynamics and romantic subplot provide emotional grounding
+- **Visceral scares** - Effective use of an intimidating antagonist (Rusty Nail) and isolation
+- **Narrative satisfaction** - Clear setup, escalation, and payoff structure with mounting stakes
+The film appeals to fans of contained thrillers who enjoy accessible scares without supernatural elements.</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -31605,6 +34876,19 @@
       <c r="U384" t="inlineStr"/>
       <c r="V384" t="inlineStr"/>
       <c r="W384" t="inlineStr"/>
+      <c r="X384" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Cobweb" (2023)
+**Cobweb** appeals to horror fans seeking psychological tension and creature-feature scares. It satisfies desires for:
+- **Atmospheric dread** - Slow-burn suspense in a claustrophobic setting
+- **Family horror** - Disturbing dynamics between parents and child
+- **Mystery elements** - Uncovering dark secrets hidden within the home
+- **Monster reveals** - A grotesque creature payoff after sustained buildup
+- **Child protagonist perspective** - Vulnerability and paranoia through a young character's eyes
+- **Gothic haunted house vibes** - Creepy old home with something sinister lurking within
+The film targets audiences who enjoy folk horror aesthetics, parental gaslighting themes, and twisted fairy tale subversions with a dark, unsettling conclusion.</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -31686,6 +34970,19 @@
       <c r="U385" t="inlineStr"/>
       <c r="V385" t="inlineStr"/>
       <c r="W385" t="inlineStr"/>
+      <c r="X385" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "Love in Taipei"
+**Love in Taipei** (2023) satisfies several key viewer desires:
+1. **Escapism and Romance** - Provides a feel-good romantic storyline with predictable but comforting outcomes
+2. **Cultural Exploration** - Offers vicarious travel experiences through scenic Taipei locations, night markets, and Taiwanese culture
+3. **Coming-of-Age Journey** - Appeals to audiences seeking stories about self-discovery, independence, and breaking free from expectations
+4. **Representation** - Meets the need for Asian and Asian-American representation in mainstream romantic comedies
+5. **Comfort Viewing** - Delivers light, low-stakes entertainment with familiar rom-com tropes for relaxation
+6. **Wish Fulfillment** - Provides fantasy elements of summer adventure, forbidden romance, and personal transformation
+The film primarily serves audiences seeking lighthearted, culturally diverse romantic escapism.</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -31763,6 +35060,12 @@
       <c r="U386" t="inlineStr"/>
       <c r="V386" t="inlineStr"/>
       <c r="W386" t="inlineStr"/>
+      <c r="X386" t="inlineStr">
+        <is>
+          <t># Summary
+*The Engineer* appeals to viewers seeking intense geopolitical thrilding action, particularly those interested in Israeli-Palestinian conflict narratives. It satisfies desires for revenge-driven plots, espionage tradecraft, and moral complexity in counterterrorism stories. The film meets needs for visceral action sequences combined with real-world historical context, appealing to audiences who appreciate fact-based thrillers exploring the costs of violence and the cycle of retribution in the Middle East conflict.</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -31848,6 +35151,11 @@
       <c r="U387" t="inlineStr"/>
       <c r="V387" t="inlineStr"/>
       <c r="W387" t="inlineStr"/>
+      <c r="X387" t="inlineStr">
+        <is>
+          <t>"Puppy Love" meets viewers' desires for lighthearted romantic entertainment, emotional warmth, and escapism through its charming story about love and companionship. The film appeals to audiences seeking feel-good content, relatable relationship dynamics, and the universal appeal of cute animals (puppies) that bring people together, offering comfort and optimism about finding connection and romance.</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -31933,6 +35241,17 @@
       <c r="U388" t="inlineStr"/>
       <c r="V388" t="inlineStr"/>
       <c r="W388" t="inlineStr"/>
+      <c r="X388" t="inlineStr">
+        <is>
+          <t>**Expend4bles** meets viewer desires for:
+- **Nostalgic action**: Delivers classic 80s/90s-style over-the-top action with familiar aging action stars
+- **Escapist entertainment**: Offers mindless, high-octane spectacle without demanding emotional or intellectual investment
+- **Star power**: Provides an ensemble of recognizable action heroes in one film
+- **Testosterone-fueled violence**: Satisfies appetite for explosive gunfights, hand-to-hand combat, and military-style missions
+- **Franchise loyalty**: Continues a familiar series for fans invested in the characters and formula
+- **Simplistic good vs. evil**: Offers straightforward plot with clear heroes and villains requiring minimal thought</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -32018,6 +35337,20 @@
       <c r="U389" t="inlineStr"/>
       <c r="V389" t="inlineStr"/>
       <c r="W389" t="inlineStr"/>
+      <c r="X389" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Saw X
+**Saw X** satisfies viewers seeking:
+- **Gore and visceral thrills** - Elaborate, gruesome traps deliver intense body horror
+- **Puzzle/game elements** - Creative death mechanisms appeal to those who enjoy twisted ingenuity
+- **Moral justice fantasy** - Watching "deserving" victims punished fulfills revenge desires
+- **Nostalgia** - Returns to the franchise's roots with Tobin Bell as Jigsaw in a central role
+- **Emotional depth** - Provides Jigsaw's backstory and humanization for invested fans
+- **Suspense and tension** - High-stakes scenarios maintain edge-of-seat engagement
+- **Franchise continuity** - Fills timeline gaps for completist horror fans
+The film primarily appeals to established franchise devotees while delivering the signature torture-porn spectacle new audiences expect from the Saw series.</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -32103,6 +35436,11 @@
       <c r="U390" t="inlineStr"/>
       <c r="V390" t="inlineStr"/>
       <c r="W390" t="inlineStr"/>
+      <c r="X390" t="inlineStr">
+        <is>
+          <t>"Dear David" meets viewer desires for supernatural horror thrills, social media-age scares, and internet folklore brought to life. The film capitalizes on the popularity of the viral Twitter ghost story, appealing to audiences who enjoy creepy online urban legends, jump scares, and paranormal mystery. It satisfies those seeking teen-oriented horror with contemporary digital themes and the tension of being haunted through technology.</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -32188,6 +35526,12 @@
       <c r="U391" t="inlineStr"/>
       <c r="V391" t="inlineStr"/>
       <c r="W391" t="inlineStr"/>
+      <c r="X391" t="inlineStr">
+        <is>
+          <t># Summary
+"White Bird" meets viewers' desires for an emotionally resonant story about resilience, compassion, and human goodness during difficult times. The film appeals to those seeking an uplifting narrative about courage and kindness, particularly through its Holocaust survival story told from a young person's perspective. It satisfies the need for meaningful family-friendly content that addresses serious historical themes while delivering messages about empathy, standing up against bullying, and the importance of helping others. The film also serves viewers looking for stories that inspire hope and demonstrate the impact of individual acts of bravery.</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -32273,6 +35617,12 @@
       <c r="U392" t="inlineStr"/>
       <c r="V392" t="inlineStr"/>
       <c r="W392" t="inlineStr"/>
+      <c r="X392" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by The Hunger Games: The Ballad of Songbirds &amp; Snakes
+The film satisfies viewers' desire for **origin stories** by revealing how President Snow became tyrannical, offering psychological depth to a known villain. It meets the need for **moral complexity** through Snow's internal conflict between ambition and compassion, avoiding simple good-vs-evil narratives. Fans gain **franchise expansion** that enriches the Hunger Games universe with backstory about the Games' evolution and Panem's history. The film provides **spectacle and entertainment** through elaborate Games sequences and period-appropriate production design. It explores **relevant themes** about power, propaganda, and authoritarianism that resonate with contemporary political concerns. The romantic subplot and Lucy Gray's musical performances offer **emotional engagement**, while the prequel format gives audiences **nostalgia** for the original series with fresh perspective. Finally, it satisfies curiosity about **world-building details** like the origins of key Hunger Games traditions and the Capitol's post-war society.</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -32358,6 +35708,12 @@
       <c r="U393" t="inlineStr"/>
       <c r="V393" t="inlineStr"/>
       <c r="W393" t="inlineStr"/>
+      <c r="X393" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires and Needs Met by "Silent Night"
+"Silent Night" meets viewers' desires for cathartic emotional release through its apocalyptic premise where characters face humanity's final hours. The film satisfies needs for dark comedy that processes collective anxiety about existential threats, offers escapist fantasy about confronting mortality with loved ones, and provides commentary on contemporary social issues like climate change and class dynamics. It appeals to audiences seeking unconventional holiday fare that subverts traditional festive film expectations while exploring themes of grief, acceptance, and human connection in crisis.</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -32431,6 +35787,12 @@
       <c r="U394" t="inlineStr"/>
       <c r="V394" t="inlineStr"/>
       <c r="W394" t="inlineStr"/>
+      <c r="X394" t="inlineStr">
+        <is>
+          <t># Summary
+*American Dream: The 21 Savage Story* meets viewers' desires for authentic storytelling about immigration, identity, and resilience. The documentary satisfies curiosity about 21 Savage's hidden past as an undocumented British immigrant, providing insight into his journey from Atlanta's streets to hip-hop stardom. It appeals to fans seeking deeper understanding of his music's origins, addresses interests in immigration issues and the American Dream narrative, and fulfills needs for inspirational stories about overcoming adversity and transformation.</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -32516,6 +35878,11 @@
       <c r="U395" t="inlineStr"/>
       <c r="V395" t="inlineStr"/>
       <c r="W395" t="inlineStr"/>
+      <c r="X395" t="inlineStr">
+        <is>
+          <t>"Miller's Girl" appeals to viewers interested in psychological drama and forbidden relationships, particularly those drawn to stories exploring power dynamics, literary themes, and morally complex situations. The film meets desires for provocative content that examines manipulation, ambition, and the blurred lines between mentorship and attraction, while also appealing to audiences who enjoy cerebral narratives centered on writing and intellectual games.</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -32597,6 +35964,12 @@
       <c r="U396" t="inlineStr"/>
       <c r="V396" t="inlineStr"/>
       <c r="W396" t="inlineStr"/>
+      <c r="X396" t="inlineStr">
+        <is>
+          <t># Summary
+The film "Float" meets viewers' desires for representation and acceptance by portraying a family with a child who has supernatural abilities as a metaphor for disability or neurodivergence. It addresses needs for stories about parental unconditional love, overcoming shame about differences, and community acceptance. The short film resonates with audiences seeking authentic portrayals of the challenges families face when a child doesn't fit societal norms, while offering an emotionally satisfying message about embracing uniqueness and finding belonging despite initial fear of judgment.</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -32682,6 +36055,17 @@
       <c r="U397" t="inlineStr"/>
       <c r="V397" t="inlineStr"/>
       <c r="W397" t="inlineStr"/>
+      <c r="X397" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Imaginary"
+The film "Imaginary" (2024) appeals to horror fans seeking supernatural scares and childhood-themed terror. It satisfies desires for:
+- **Nostalgic horror**: Exploiting the creepy potential of childhood toys and imaginary friends
+- **Jump scares and tension**: Providing conventional horror thrills and suspenseful moments
+- **Family-centered supernatural mystery**: Exploring dark secrets and trauma through a blended family storyline
+- **PG-13 accessible frights**: Offering horror content that's intense but not excessively graphic, appealing to younger horror audiences
+- **Familiar genre comfort**: Delivering expected Blumhouse-style horror conventions for fans of mainstream horror entertainment</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -32763,6 +36147,11 @@
       <c r="U398" t="inlineStr"/>
       <c r="V398" t="inlineStr"/>
       <c r="W398" t="inlineStr"/>
+      <c r="X398" t="inlineStr">
+        <is>
+          <t>"Cash Out" meets viewer desires for action-packed entertainment, featuring high-stakes heist thrills, tension, and excitement. It appeals to audiences seeking adrenaline-fueled escapism with elements of crime drama, suspense, and the vicarious thrill of watching elaborate criminal schemes unfold. The film satisfies the appetite for fast-paced storytelling with conflicts between criminals and law enforcement.</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -32848,6 +36237,13 @@
       <c r="U399" t="inlineStr"/>
       <c r="V399" t="inlineStr"/>
       <c r="W399" t="inlineStr"/>
+      <c r="X399" t="inlineStr">
+        <is>
+          <t># The Strangers: Chapter 1 - Viewer Needs Met
+**The Strangers: Chapter 1** satisfies several key viewer desires:
+**Thrill and Adrenaline**: The film delivers intense scares and suspense through its home invasion premise, providing visceral fear and excitement. **Cathartic Fear**: It offers a safe way to experience primal fears of vulnerability and invasion in one's own space. **Escapism**: The horror narrative provides an immersive distraction from everyday life through its tense, atmospheric storytelling. **Pattern Recognition**: Fans of the franchise get familiar slasher/horror tropes while experiencing a new iteration of the story. **Social Experience**: The film creates opportunities for shared viewing experiences, bonding over reactions to scares, and post-viewing discussion. **Morbid Curiosity**: It explores dark "what if" scenarios about random violence and human cruelty in a fictional context.</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -32933,6 +36329,18 @@
       <c r="U400" t="inlineStr"/>
       <c r="V400" t="inlineStr"/>
       <c r="W400" t="inlineStr"/>
+      <c r="X400" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Borderlands
+The film *Borderlands* appeals to viewers seeking:
+- **Nostalgic fan service** for players of the popular video game franchise
+- **Escapist action entertainment** with over-the-top violence and spectacle
+- **Comedic relief** through irreverent humor and quirky characters
+- **Visual stimulation** from colorful, chaotic sci-fi/western aesthetics
+- **Ensemble cast appeal** featuring recognizable actors like Cate Blanchett and Jack Black
+- **Simple adventure storytelling** with treasure-hunting and misfit-team dynamics that don't require deep emotional investment</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -33018,6 +36426,13 @@
       <c r="U401" t="inlineStr"/>
       <c r="V401" t="inlineStr"/>
       <c r="W401" t="inlineStr"/>
+      <c r="X401" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires/Needs Met by "1992"
+The film *1992* (2024) meets viewer desires for:
+**Action and Suspense**: Intense heist thriller set during the LA riots provides adrenaline and excitement through high-stakes robberies and dangerous situations. **Historical Context**: Satisfies interest in exploring the 1992 LA riots following the Rodney King verdict, offering a dramatic lens on a significant historical moment. **Father-Son Drama**: Fulfills emotional needs through the central relationship between Tyson Frazier and his son, exploring themes of redemption and family bonds. **Social Commentary**: Addresses desires for films that engage with racial injustice, systemic inequality, and urban unrest in America. **Escapism with Substance**: Combines entertaining genre filmmaking with meaningful subject matter, allowing viewers to engage with serious themes through an accessible action framework.</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -33103,6 +36518,11 @@
       <c r="U402" t="inlineStr"/>
       <c r="V402" t="inlineStr"/>
       <c r="W402" t="inlineStr"/>
+      <c r="X402" t="inlineStr">
+        <is>
+          <t>"The Killer's Game" meets viewers' desires for high-octane action entertainment, featuring intense fight sequences, dark humor, and a revenge-driven plot. It appeals to audiences seeking adrenaline-fueled escapism with a charismatic lead (Dave Bautista), stylized violence, and a mix of thriller elements with comedic moments. The film satisfies fans of assassin/hitman genre conventions while offering straightforward popcorn entertainment without demanding deep emotional investment.</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -33188,6 +36608,13 @@
       <c r="U403" t="inlineStr"/>
       <c r="V403" t="inlineStr"/>
       <c r="W403" t="inlineStr"/>
+      <c r="X403" t="inlineStr">
+        <is>
+          <t># Never Let Go - Viewer Desires and Needs Met
+**Never Let Go** (2024) satisfies several viewer desires:
+**Survival Thriller Appeal**: Meets the need for suspense and tension through its post-apocalyptic setting where a mother and her sons must stay tethered to their home to survive mysterious evil forces. **Psychological Horror**: Appeals to viewers seeking atmospheric dread and ambiguity about whether supernatural threats are real or manifestations of trauma and paranoia. **Family Drama**: Addresses emotional needs through exploring maternal protection, parent-child bonds under extreme stress, and generational trauma. **Moral Complexity**: Engages viewers who appreciate narratives questioning reality, trust, and whether protective measures become harmful when taken to extremes. **Halle Berry's Performance**: Satisfies fans seeking a strong lead performance in an intense, physically and emotionally demanding role.</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -33269,6 +36696,11 @@
       <c r="U404" t="inlineStr"/>
       <c r="V404" t="inlineStr"/>
       <c r="W404" t="inlineStr"/>
+      <c r="X404" t="inlineStr">
+        <is>
+          <t>"Bagman" (2024) meets viewers' desires for supernatural horror thrills, tapping into childhood fears through its premise of a malevolent creature that kidnaps children by hiding in bags. The film satisfies needs for suspense, jump scares, and dark atmospheric tension while exploring parental anxiety and trauma. It appeals to horror fans seeking creature-feature entertainment with psychological elements rooted in folklore and nightmares.</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -33354,6 +36786,18 @@
       <c r="U405" t="inlineStr"/>
       <c r="V405" t="inlineStr"/>
       <c r="W405" t="inlineStr"/>
+      <c r="X405" t="inlineStr">
+        <is>
+          <t># Summary: What Viewer Desires The Best Christmas Pageant Ever Meets
+**The Best Christmas Pageant Ever** fulfills several key viewer desires:
+1. **Nostalgia and Holiday Spirit** - Delivers warm, traditional Christmas storytelling that evokes cherished memories and seasonal feelings
+2. **Underdog Redemption** - Satisfies the desire to see misunderstood outcasts (the Herdman children) transform and find acceptance
+3. **Family-Friendly Entertainment** - Provides wholesome content that multiple generations can enjoy together during the holidays
+4. **Humor Mixed with Heart** - Balances comedic chaos with genuine emotional moments and life lessons
+5. **Renewed Perspective on Tradition** - Offers a fresh look at familiar Christmas narratives, helping viewers rediscover meaning in the nativity story
+6. **Feel-Good Resolution** - Delivers the satisfying, uplifting ending audiences expect from holiday films, affirming themes of compassion, inclusion, and community</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -33439,6 +36883,12 @@
       <c r="U406" t="inlineStr"/>
       <c r="V406" t="inlineStr"/>
       <c r="W406" t="inlineStr"/>
+      <c r="X406" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by Den of Thieves 2: Pantera
+The film satisfies audiences seeking high-octane action and heist thrills with elaborate robbery sequences and intense gunfights. It appeals to fans of the original who want continuation of Big Nick's story, while delivering masculine, tough-guy dynamics and crime underworld authenticity. The European setting (diamond heist in the Riviera) provides exotic locales and spectacle. Viewers get straightforward entertainment without complex plotting—a testosterone-fueled popcorn movie with clear good-vs-bad tensions, strategic cat-and-mouse games, and the visceral satisfaction of watching professional criminals execute daring plans with violence and swagger.</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -33524,6 +36974,19 @@
       <c r="U407" t="inlineStr"/>
       <c r="V407" t="inlineStr"/>
       <c r="W407" t="inlineStr"/>
+      <c r="X407" t="inlineStr">
+        <is>
+          <t># Summary of Viewer Desires Met by "Alarum"
+"Alarum" satisfies viewers seeking an action-packed thriller with espionage elements. The film appeals to audiences who enjoy:
+- **High-stakes action sequences** and suspenseful confrontations
+- **Spy/intelligence thriller narratives** involving covert operations
+- **Star power** from recognizable action film actors
+- **Fast-paced entertainment** that doesn't require deep intellectual engagement
+- **Straightforward good-vs-evil conflict** with clear protagonists and antagonists
+- **Escapist entertainment** through genre conventions and formulaic storytelling
+The film primarily caters to action movie enthusiasts looking for adrenaline-driven entertainment rather than complex character studies or innovative storytelling.</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -33609,6 +37072,11 @@
       <c r="U408" t="inlineStr"/>
       <c r="V408" t="inlineStr"/>
       <c r="W408" t="inlineStr"/>
+      <c r="X408" t="inlineStr">
+        <is>
+          <t>"The Unbreakable Boy" meets viewers' desires for inspirational true stories about overcoming adversity, faith-based content that affirms religious values, and heartwarming family narratives. It appeals to those seeking uplifting stories about parental love, acceptance of children with disabilities, and the triumph of the human spirit against medical and personal challenges. The film satisfies audiences looking for emotional, feel-good cinema that reinforces themes of hope, resilience, and unconditional love.</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -33678,6 +37146,11 @@
       <c r="U409" t="inlineStr"/>
       <c r="V409" t="inlineStr"/>
       <c r="W409" t="inlineStr"/>
+      <c r="X409" t="inlineStr">
+        <is>
+          <t>"The Power of Chi" meets viewers' desires for learning about alternative health practices, understanding traditional Chinese medicine concepts, exploring mind-body connections, and discovering techniques for stress reduction and personal wellness through the ancient practice of chi/qi energy cultivation.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -33763,6 +37236,11 @@
       <c r="U410" t="inlineStr"/>
       <c r="V410" t="inlineStr"/>
       <c r="W410" t="inlineStr"/>
+      <c r="X410" t="inlineStr">
+        <is>
+          <t>"A Simple Favor" meets viewers' desires for stylish escapism, plot twists, and dark comedy. It appeals to those seeking a glamorous thriller with unexpected turns, morally ambiguous characters, and a mix of mystery and humor. The film satisfies audiences looking for female-driven narratives that blend suspense with satire, offering both entertainment and social commentary on friendship, motherhood, and class differences.</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -33848,6 +37326,17 @@
       <c r="U411" t="inlineStr"/>
       <c r="V411" t="inlineStr"/>
       <c r="W411" t="inlineStr"/>
+      <c r="X411" t="inlineStr">
+        <is>
+          <t>"Shadow Force" typically appeals to viewers seeking action-packed entertainment with military or special operations themes. It satisfies desires for:
+- High-energy combat sequences and explosive action
+- Heroic protagonists fighting against clear villains
+- Escapist entertainment with straightforward good-vs-evil narratives
+- Themes of courage, teamwork, and patriotism
+- Visceral thrills and tension through suspenseful missions
+The film provides accessible, adrenaline-fueled entertainment for audiences wanting uncomplicated action without demanding complex character development or moral ambiguity.</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -33933,6 +37422,11 @@
       <c r="U412" t="inlineStr"/>
       <c r="V412" t="inlineStr"/>
       <c r="W412" t="inlineStr"/>
+      <c r="X412" t="inlineStr">
+        <is>
+          <t>"Ballerina" meets viewers' desires for revenge-driven action, emotional catharsis through a grieving protagonist's journey, stylized combat sequences, and themes of friendship and loyalty. The film appeals to audiences seeking a female-led action thriller with visceral fight choreography, a motivated heroine pursuing justice for her friend's death, and the satisfaction of watching an underdog transform into a skilled assassin to punish those responsible for tragedy.</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -34018,6 +37512,11 @@
       <c r="U413" t="inlineStr"/>
       <c r="V413" t="inlineStr"/>
       <c r="W413" t="inlineStr"/>
+      <c r="X413" t="inlineStr">
+        <is>
+          <t>"The Long Walk" meets viewers' desires for intense psychological tension, dystopian social commentary, and exploration of human endurance under extreme conditions. It satisfies needs for suspenseful entertainment, reflection on authoritarianism and societal control, and emotional catharsis through its portrayal of survival, competition, and the bonds formed under life-or-death circumstances.</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -34103,6 +37602,19 @@
       <c r="U414" t="inlineStr"/>
       <c r="V414" t="inlineStr"/>
       <c r="W414" t="inlineStr"/>
+      <c r="X414" t="inlineStr">
+        <is>
+          <t># The Strangers: Chapter 2 - Viewer Needs Met
+**The Strangers: Chapter 2** satisfies viewers' desires for:
+- **Intense thrills and suspense** through home invasion horror and sustained tension
+- **Adrenaline and fear** via jump scares and predatory stalking sequences
+- **Cathartic release** through survival scenarios and confronting primal fears about home safety
+- **Escapism** into a controlled nightmare experience
+- **Franchise continuity** for fans of the original film seeking familiar masked antagonists and terror aesthetics
+- **Visceral entertainment** through atmospheric dread and violent confrontations
+The film primarily appeals to horror enthusiasts seeking straightforward, anxiety-inducing entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -34184,6 +37696,11 @@
       <c r="U415" t="inlineStr"/>
       <c r="V415" t="inlineStr"/>
       <c r="W415" t="inlineStr"/>
+      <c r="X415" t="inlineStr">
+        <is>
+          <t>"Good Fortune" meets viewers' desires for understanding global inequality, development ethics, and the human impact of well-intentioned aid programs. The documentary satisfies needs for critical examination of Western charity efforts in developing countries, revealing unintended consequences of development projects in Kenya. It appeals to audiences seeking thought-provoking content about poverty, displacement, and the complex relationship between donors and recipients, while challenging assumptions about what constitutes "helping" impoverished communities.</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -34269,6 +37786,11 @@
       <c r="U416" t="inlineStr"/>
       <c r="V416" t="inlineStr"/>
       <c r="W416" t="inlineStr"/>
+      <c r="X416" t="inlineStr">
+        <is>
+          <t>"Anniversary" (assuming you're referring to the 1968 British dark comedy "The Anniversary") meets viewer desires for dark humor, psychological drama, and campy theatricality. The film satisfies audiences seeking twisted family dynamics, strong performances (particularly Bette Davis's over-the-top portrayal of a domineering mother), and Gothic melodrama that blends horror elements with black comedy. It appeals to those who enjoy uncomfortable character studies and subversive takes on family relationships.</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -34354,6 +37876,20 @@
       <c r="U417" t="inlineStr"/>
       <c r="V417" t="inlineStr"/>
       <c r="W417" t="inlineStr"/>
+      <c r="X417" t="inlineStr">
+        <is>
+          <t># Viewer Desires Met by "Now You See Me 2"
+**Now You See Me 2** (titled "Now You See Me: Now You Don't" in some regions) satisfies viewers' desires for:
+- **Escapism and spectacle** - Elaborate magic tricks and illusions provide visual entertainment
+- **Puzzle-solving gratification** - The twisting plot engages audiences who enjoy figuring out mysteries
+- **Revenge and justice** - The protagonists outsmart villains, fulfilling desires for underdogs to triumph
+- **Wish fulfillment** - Characters possess extraordinary skills and pull off impossible heists
+- **Camaraderie** - The ensemble cast's teamwork appeals to desires for loyalty and friendship
+- **Intellectual stimulation** - Complex schemes make viewers feel clever for following along
+- **Anti-establishment themes** - Robin Hood-style criminals appeal to audiences skeptical of corporations and authority
+The film functions as a "brain candy" thriller that makes audiences feel smart while delivering flashy entertainment.</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -34439,6 +37975,13 @@
       <c r="U418" t="inlineStr"/>
       <c r="V418" t="inlineStr"/>
       <c r="W418" t="inlineStr"/>
+      <c r="X418" t="inlineStr">
+        <is>
+          <t># The Housemaid: Viewer Desires and Needs
+**The Housemaid** (1960, Kim Ki-young) satisfies several viewer desires:
+**Psychological Thriller Appeal**: The film delivers suspense and unpredictability through its portrayal of obsession, manipulation, and domestic terror. **Social Commentary**: It addresses class conflict, sexual politics, and the anxieties of upward mobility in modernizing Korea, resonating with viewers interested in societal critique. **Transgressive Entertainment**: The film's provocative content—adultery, violence, and moral corruption—offers forbidden pleasures and shocking twists. **Aesthetic Experience**: Kim's expressionistic style, claustrophobic mise-en-scène, and melodramatic excess provide a visually striking, artistically ambitious experience. **Cathartic Release**: The escalating chaos and tragic conclusion allow viewers to experience intense emotions safely, exploring fears about domestic stability and sexual temptation.</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -34524,6 +38067,11 @@
       <c r="U419" t="inlineStr"/>
       <c r="V419" t="inlineStr"/>
       <c r="W419" t="inlineStr"/>
+      <c r="X419" t="inlineStr">
+        <is>
+          <t>I don't have reliable information about "Greenland 2: Migration" as it either hasn't been released yet or doesn't exist in my training data (which has a knowledge cutoff date). I cannot provide an accurate summary of what viewer desires or needs this specific film meets without confirmed details about its content, themes, and reception.</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -34609,6 +38157,13 @@
       <c r="U420" t="inlineStr"/>
       <c r="V420" t="inlineStr"/>
       <c r="W420" t="inlineStr"/>
+      <c r="X420" t="inlineStr">
+        <is>
+          <t># The Strangers: Chapter 3 - Viewer Desires Met
+The film satisfies several key audience desires:
+**Primal fear and suspense** - The home invasion premise taps into fundamental anxieties about safety and vulnerability in familiar spaces. **Adrenaline rush** - Jump scares, tension, and violent confrontations provide visceral thrills and excitement. **Cathartic experience** - Watching characters face extreme danger allows viewers to experience fear in a controlled, safe environment. **Mystery and unpredictability** - The masked strangers' motivations and randomness create unsettling uncertainty that keeps audiences engaged. **Escapism** - The horror spectacle offers a departure from everyday life into an intense fictional scenario. **Franchise continuation** - For existing fans, it provides closure or continuation of a familiar horror series they've invested in.</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -34694,6 +38249,19 @@
       <c r="U421" t="inlineStr"/>
       <c r="V421" t="inlineStr"/>
       <c r="W421" t="inlineStr"/>
+      <c r="X421" t="inlineStr">
+        <is>
+          <t># Summary: Viewer Desires Met by "Michael"
+The 1996 film "Michael" satisfies several audience desires:
+**Escapism and Fantasy** - Offers a whimsical take on angels as flawed, earthy beings rather than perfect celestial figures
+**Emotional Comfort** - Provides feel-good themes about love, redemption, and second chances through Michael's interventions in characters' lives
+**Humor and Entertainment** - John Travolta's charismatic, unconventional portrayal of a cigarette-smoking, sugar-loving angel delivers comedy and charm
+**Romance** - Features romantic subplot and themes about opening oneself to love
+**Life Affirmation** - Explores messages about embracing life's pleasures, accepting imperfection, and finding meaning in human connection
+**Star Appeal** - Satisfies desire to see beloved actors (Travolta, Andie MacDowell, William Hurt) in an accessible, heartwarming story
+The film meets needs for uplifting, lighthearted entertainment with spiritual undertones without being preachy.</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -34775,6 +38343,11 @@
       <c r="U422" t="inlineStr"/>
       <c r="V422" t="inlineStr"/>
       <c r="W422" t="inlineStr"/>
+      <c r="X422" t="inlineStr">
+        <is>
+          <t>I don't have information about "The Hunger Games: Sunrise on the Reaping" as a released film. This appears to be an announced upcoming prequel in The Hunger Games franchise, set during the 50th Hunger Games (Haymitch's Games), but it hasn't been released yet. Without seeing the actual film, I cannot accurately assess what viewer desires or needs it meets.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
